--- a/FINAL/CRONOGRAMAS.xlsx
+++ b/FINAL/CRONOGRAMAS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Idat\Desktop\FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Idat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67A12E25-F9AB-43FA-BF9D-748F66186920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A547FA5-BD84-4F97-A90D-59057936EE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1495,7 +1495,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1583,12 +1583,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2169,7 +2163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2380,9 +2374,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4098,15 +4089,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="E2" s="144" t="s">
+      <c r="E2" s="143" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4154,16 +4145,16 @@
       </c>
     </row>
     <row r="5" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="140" t="s">
         <v>218</v>
       </c>
       <c r="D5" s="60">
         <v>1</v>
       </c>
-      <c r="E5" s="143" t="s">
+      <c r="E5" s="142" t="s">
         <v>107</v>
       </c>
       <c r="F5" s="56" t="s">
@@ -4198,16 +4189,16 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="142"/>
-      <c r="C6" s="141"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="140"/>
       <c r="D6" s="60">
         <v>2</v>
       </c>
-      <c r="E6" s="143"/>
+      <c r="E6" s="142"/>
       <c r="F6" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="87" t="s">
+      <c r="G6" s="86" t="s">
         <v>165</v>
       </c>
       <c r="H6" s="50" t="s">
@@ -4236,12 +4227,12 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="142"/>
-      <c r="C7" s="141"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="60">
         <v>3</v>
       </c>
-      <c r="E7" s="143"/>
+      <c r="E7" s="142"/>
       <c r="F7" s="56" t="s">
         <v>112</v>
       </c>
@@ -4274,12 +4265,12 @@
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="142"/>
-      <c r="C8" s="141"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="60">
         <v>4</v>
       </c>
-      <c r="E8" s="143"/>
+      <c r="E8" s="142"/>
       <c r="F8" s="56" t="s">
         <v>115</v>
       </c>
@@ -4312,12 +4303,12 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="142"/>
-      <c r="C9" s="141"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="140"/>
       <c r="D9" s="60">
         <v>5</v>
       </c>
-      <c r="E9" s="143"/>
+      <c r="E9" s="142"/>
       <c r="F9" s="56" t="s">
         <v>116</v>
       </c>
@@ -4350,12 +4341,12 @@
       </c>
     </row>
     <row r="10" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="142"/>
-      <c r="C10" s="141"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="140"/>
       <c r="D10" s="60">
         <v>6</v>
       </c>
-      <c r="E10" s="143"/>
+      <c r="E10" s="142"/>
       <c r="F10" s="56" t="s">
         <v>117</v>
       </c>
@@ -4388,12 +4379,12 @@
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="142"/>
-      <c r="C11" s="141"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="140"/>
       <c r="D11" s="60">
         <v>7</v>
       </c>
-      <c r="E11" s="143"/>
+      <c r="E11" s="142"/>
       <c r="F11" s="56" t="s">
         <v>118</v>
       </c>
@@ -4415,13 +4406,13 @@
       <c r="L11" s="78">
         <v>45940</v>
       </c>
-      <c r="M11" s="84" t="s">
+      <c r="M11" s="83" t="s">
         <v>335</v>
       </c>
       <c r="N11" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="O11" s="86" t="s">
+      <c r="O11" s="85" t="s">
         <v>341</v>
       </c>
     </row>
@@ -4463,10 +4454,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="153"/>
+      <c r="C2" s="152"/>
       <c r="D2" s="22" t="s">
         <v>73</v>
       </c>
@@ -4478,9 +4469,9 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="154" t="s">
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>75</v>
       </c>
       <c r="E3" s="25" t="s">
@@ -4489,18 +4480,18 @@
       <c r="F3" s="26"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="155"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="154"/>
       <c r="E4" s="25" t="s">
         <v>136</v>
       </c>
       <c r="F4" s="26"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="156"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="155"/>
       <c r="E5" s="25" t="s">
         <v>137</v>
       </c>
@@ -4508,13 +4499,13 @@
     </row>
     <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="156" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="159"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="158"/>
     </row>
     <row r="8" spans="2:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="68" t="s">
@@ -4534,139 +4525,139 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="150" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="151" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="160" t="s">
+      <c r="D9" s="159" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="150" t="s">
+      <c r="E9" s="149" t="s">
         <v>147</v>
       </c>
-      <c r="F9" s="150" t="s">
+      <c r="F9" s="149" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="151"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="151"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="151"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="151"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="150" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="152" t="s">
+      <c r="C14" s="151" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="150" t="s">
+      <c r="D14" s="149" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="150" t="s">
+      <c r="E14" s="149" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="150" t="s">
+      <c r="F14" s="149" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="151"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="151"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="151"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="151"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="151" t="s">
+      <c r="B19" s="150" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="152" t="s">
+      <c r="C19" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="150" t="s">
+      <c r="D19" s="149" t="s">
         <v>156</v>
       </c>
-      <c r="E19" s="150" t="s">
+      <c r="E19" s="149" t="s">
         <v>157</v>
       </c>
-      <c r="F19" s="150" t="s">
+      <c r="F19" s="149" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="151"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="151"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="151"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="151"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4710,10 +4701,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="89"/>
+      <c r="C2" s="88"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4770,7 +4761,7 @@
       <c r="D9"/>
     </row>
     <row r="10" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="89" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="77" t="s">
@@ -4779,7 +4770,7 @@
       <c r="D10"/>
     </row>
     <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="90"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="77" t="s">
         <v>173</v>
       </c>
@@ -4954,10 +4945,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="89"/>
+      <c r="C2" s="88"/>
     </row>
     <row r="3" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -4978,7 +4969,7 @@
       <c r="C5" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="93" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4989,7 +4980,7 @@
       <c r="C6" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="95"/>
+      <c r="D6" s="94"/>
       <c r="F6" s="38" t="s">
         <v>11</v>
       </c>
@@ -5001,7 +4992,7 @@
       <c r="C7" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="95"/>
+      <c r="D7" s="94"/>
       <c r="F7" s="45" t="s">
         <v>21</v>
       </c>
@@ -5013,7 +5004,7 @@
       <c r="C8" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="95"/>
+      <c r="D8" s="94"/>
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="47" t="s">
@@ -5022,7 +5013,7 @@
       <c r="C9" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="95"/>
+      <c r="D9" s="94"/>
     </row>
     <row r="10" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="76"/>
@@ -5032,7 +5023,7 @@
       <c r="C10" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="D10" s="95"/>
+      <c r="D10" s="94"/>
     </row>
     <row r="11" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="47" t="s">
@@ -5041,7 +5032,7 @@
       <c r="C11" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="95"/>
+      <c r="D11" s="94"/>
     </row>
     <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="47" t="s">
@@ -5050,7 +5041,7 @@
       <c r="C12" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="95"/>
+      <c r="D12" s="94"/>
     </row>
     <row r="13" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="47" t="s">
@@ -5059,7 +5050,7 @@
       <c r="C13" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="D13" s="95"/>
+      <c r="D13" s="94"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="47" t="s">
@@ -5068,7 +5059,7 @@
       <c r="C14" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="96"/>
+      <c r="D14" s="95"/>
     </row>
     <row r="15" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="48" t="s">
@@ -5077,7 +5068,7 @@
       <c r="C15" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="91" t="s">
+      <c r="D15" s="90" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5088,7 +5079,7 @@
       <c r="C16" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="D16" s="92"/>
+      <c r="D16" s="91"/>
     </row>
     <row r="17" spans="2:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="48" t="s">
@@ -5097,7 +5088,7 @@
       <c r="C17" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="92"/>
+      <c r="D17" s="91"/>
     </row>
     <row r="18" spans="2:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48" t="s">
@@ -5106,7 +5097,7 @@
       <c r="C18" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="D18" s="92"/>
+      <c r="D18" s="91"/>
       <c r="F18" s="34" t="s">
         <v>11</v>
       </c>
@@ -5118,7 +5109,7 @@
       <c r="C19" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="D19" s="92"/>
+      <c r="D19" s="91"/>
       <c r="F19" s="46" t="s">
         <v>13</v>
       </c>
@@ -5130,7 +5121,7 @@
       <c r="C20" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="D20" s="92"/>
+      <c r="D20" s="91"/>
     </row>
     <row r="21" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="48" t="s">
@@ -5139,7 +5130,7 @@
       <c r="C21" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="92"/>
+      <c r="D21" s="91"/>
     </row>
     <row r="22" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="48" t="s">
@@ -5148,7 +5139,7 @@
       <c r="C22" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="92"/>
+      <c r="D22" s="91"/>
     </row>
     <row r="23" spans="2:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="48" t="s">
@@ -5157,7 +5148,7 @@
       <c r="C23" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="D23" s="92"/>
+      <c r="D23" s="91"/>
     </row>
     <row r="24" spans="2:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="48" t="s">
@@ -5166,7 +5157,7 @@
       <c r="C24" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="D24" s="93"/>
+      <c r="D24" s="92"/>
     </row>
     <row r="30" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5219,17 +5210,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:10" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5239,234 +5230,234 @@
       <c r="C4" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="112" t="s">
+      <c r="D4" s="111" t="s">
         <v>313</v>
       </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="113"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="112"/>
     </row>
     <row r="5" spans="2:10" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="114" t="s">
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="112"/>
     </row>
     <row r="6" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="96" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="115" t="s">
+      <c r="D6" s="114" t="s">
         <v>312</v>
       </c>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="115"/>
     </row>
     <row r="7" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="98"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="121" t="s">
+      <c r="D7" s="120" t="s">
         <v>311</v>
       </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="118"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="117"/>
     </row>
     <row r="8" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="99"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="118" t="s">
         <v>310</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="120"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="119"/>
     </row>
     <row r="9" spans="2:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="99" t="s">
         <v>309</v>
       </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="109" t="s">
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="109" t="s">
+      <c r="J9" s="108" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="98"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="98"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="98"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="98"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="98"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="98"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="109" t="s">
+      <c r="B15" s="97"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="109">
+      <c r="J15" s="108">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="98"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="98"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="98"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="98"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="98"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
     </row>
     <row r="21" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="99"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
     </row>
     <row r="22" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="42"/>
@@ -5486,234 +5477,234 @@
       <c r="C23" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="112" t="s">
+      <c r="D23" s="111" t="s">
         <v>308</v>
       </c>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="113"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="112"/>
     </row>
     <row r="24" spans="2:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="C24" s="114" t="s">
+      <c r="C24" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="114" t="s">
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="113"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="112"/>
     </row>
     <row r="25" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="97" t="s">
+      <c r="B25" s="96" t="s">
         <v>368</v>
       </c>
       <c r="C25" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="115" t="s">
+      <c r="D25" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="115"/>
     </row>
     <row r="26" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="98"/>
+      <c r="B26" s="97"/>
       <c r="C26" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="117" t="s">
+      <c r="D26" s="116" t="s">
         <v>307</v>
       </c>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="118"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="117"/>
     </row>
     <row r="27" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="99"/>
+      <c r="B27" s="98"/>
       <c r="C27" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="119" t="s">
+      <c r="D27" s="118" t="s">
         <v>306</v>
       </c>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="120"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="119"/>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="100" t="s">
+      <c r="C28" s="99" t="s">
         <v>305</v>
       </c>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="109" t="s">
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="J28" s="109" t="s">
+      <c r="J28" s="108" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="98"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="98"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="98"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="98"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="109"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="98"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="98"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="109" t="s">
+      <c r="B34" s="97"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="J34" s="109">
+      <c r="J34" s="108">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="98"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="109"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="98"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="109"/>
+      <c r="J36" s="109"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="98"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="110"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="109"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="98"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="109"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="98"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="110"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="109"/>
     </row>
     <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="99"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="110"/>
     </row>
     <row r="41" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="42"/>
@@ -5733,234 +5724,234 @@
       <c r="C42" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="112" t="s">
+      <c r="D42" s="111" t="s">
         <v>304</v>
       </c>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="113"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="112"/>
     </row>
     <row r="43" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="114" t="s">
+      <c r="C43" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="112"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="114" t="s">
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="H43" s="112"/>
-      <c r="I43" s="112"/>
-      <c r="J43" s="113"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="112"/>
     </row>
     <row r="44" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="97" t="s">
+      <c r="B44" s="96" t="s">
         <v>369</v>
       </c>
       <c r="C44" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="115" t="s">
+      <c r="D44" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="115"/>
-      <c r="J44" s="116"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="115"/>
     </row>
     <row r="45" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="98"/>
+      <c r="B45" s="97"/>
       <c r="C45" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="117" t="s">
+      <c r="D45" s="116" t="s">
         <v>303</v>
       </c>
-      <c r="E45" s="117"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="117"/>
-      <c r="H45" s="117"/>
-      <c r="I45" s="117"/>
-      <c r="J45" s="118"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="116"/>
+      <c r="I45" s="116"/>
+      <c r="J45" s="117"/>
     </row>
     <row r="46" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="99"/>
+      <c r="B46" s="98"/>
       <c r="C46" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="119" t="s">
+      <c r="D46" s="118" t="s">
         <v>302</v>
       </c>
-      <c r="E46" s="119"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="119"/>
-      <c r="H46" s="119"/>
-      <c r="I46" s="119"/>
-      <c r="J46" s="120"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="119"/>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="97" t="s">
+      <c r="B47" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="100" t="s">
+      <c r="C47" s="99" t="s">
         <v>301</v>
       </c>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="102"/>
-      <c r="I47" s="109" t="s">
+      <c r="D47" s="100"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="J47" s="109" t="s">
+      <c r="J47" s="108" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="98"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
+      <c r="B48" s="97"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="109"/>
+      <c r="J48" s="109"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="98"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="110"/>
-      <c r="J49" s="110"/>
+      <c r="B49" s="97"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="109"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="98"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="104"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="104"/>
-      <c r="G50" s="104"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="110"/>
-      <c r="J50" s="110"/>
+      <c r="B50" s="97"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="104"/>
+      <c r="I50" s="109"/>
+      <c r="J50" s="109"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="98"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="104"/>
-      <c r="E51" s="104"/>
-      <c r="F51" s="104"/>
-      <c r="G51" s="104"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="110"/>
-      <c r="J51" s="110"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="103"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="104"/>
+      <c r="I51" s="109"/>
+      <c r="J51" s="109"/>
     </row>
     <row r="52" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="98"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="104"/>
-      <c r="E52" s="104"/>
-      <c r="F52" s="104"/>
-      <c r="G52" s="104"/>
-      <c r="H52" s="105"/>
-      <c r="I52" s="111"/>
-      <c r="J52" s="111"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="104"/>
+      <c r="I52" s="110"/>
+      <c r="J52" s="110"/>
     </row>
     <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="98"/>
-      <c r="C53" s="103"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="104"/>
-      <c r="F53" s="104"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="105"/>
-      <c r="I53" s="109" t="s">
+      <c r="B53" s="97"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="103"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="J53" s="109">
+      <c r="J53" s="108">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="98"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="104"/>
-      <c r="F54" s="104"/>
-      <c r="G54" s="104"/>
-      <c r="H54" s="105"/>
-      <c r="I54" s="110"/>
-      <c r="J54" s="110"/>
+      <c r="B54" s="97"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="104"/>
+      <c r="I54" s="109"/>
+      <c r="J54" s="109"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="98"/>
-      <c r="C55" s="103"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="104"/>
-      <c r="G55" s="104"/>
-      <c r="H55" s="105"/>
-      <c r="I55" s="110"/>
-      <c r="J55" s="110"/>
+      <c r="B55" s="97"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="103"/>
+      <c r="F55" s="103"/>
+      <c r="G55" s="103"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="109"/>
+      <c r="J55" s="109"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="98"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="104"/>
-      <c r="E56" s="104"/>
-      <c r="F56" s="104"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="105"/>
-      <c r="I56" s="110"/>
-      <c r="J56" s="110"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="103"/>
+      <c r="F56" s="103"/>
+      <c r="G56" s="103"/>
+      <c r="H56" s="104"/>
+      <c r="I56" s="109"/>
+      <c r="J56" s="109"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="98"/>
-      <c r="C57" s="103"/>
-      <c r="D57" s="104"/>
-      <c r="E57" s="104"/>
-      <c r="F57" s="104"/>
-      <c r="G57" s="104"/>
-      <c r="H57" s="105"/>
-      <c r="I57" s="110"/>
-      <c r="J57" s="110"/>
+      <c r="B57" s="97"/>
+      <c r="C57" s="102"/>
+      <c r="D57" s="103"/>
+      <c r="E57" s="103"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="103"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="109"/>
+      <c r="J57" s="109"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="98"/>
-      <c r="C58" s="103"/>
-      <c r="D58" s="104"/>
-      <c r="E58" s="104"/>
-      <c r="F58" s="104"/>
-      <c r="G58" s="104"/>
-      <c r="H58" s="105"/>
-      <c r="I58" s="110"/>
-      <c r="J58" s="110"/>
+      <c r="B58" s="97"/>
+      <c r="C58" s="102"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="103"/>
+      <c r="F58" s="103"/>
+      <c r="G58" s="103"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="109"/>
+      <c r="J58" s="109"/>
     </row>
     <row r="59" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="99"/>
-      <c r="C59" s="106"/>
-      <c r="D59" s="107"/>
-      <c r="E59" s="107"/>
-      <c r="F59" s="107"/>
-      <c r="G59" s="107"/>
-      <c r="H59" s="108"/>
-      <c r="I59" s="111"/>
-      <c r="J59" s="111"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="106"/>
+      <c r="G59" s="106"/>
+      <c r="H59" s="107"/>
+      <c r="I59" s="110"/>
+      <c r="J59" s="110"/>
     </row>
     <row r="60" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="42"/>
@@ -5980,234 +5971,234 @@
       <c r="C61" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="112" t="s">
+      <c r="D61" s="111" t="s">
         <v>300</v>
       </c>
-      <c r="E61" s="112"/>
-      <c r="F61" s="112"/>
-      <c r="G61" s="112"/>
-      <c r="H61" s="112"/>
-      <c r="I61" s="112"/>
-      <c r="J61" s="113"/>
+      <c r="E61" s="111"/>
+      <c r="F61" s="111"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="111"/>
+      <c r="I61" s="111"/>
+      <c r="J61" s="112"/>
     </row>
     <row r="62" spans="2:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="114" t="s">
+      <c r="C62" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="D62" s="112"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="113"/>
-      <c r="G62" s="114" t="s">
+      <c r="D62" s="111"/>
+      <c r="E62" s="111"/>
+      <c r="F62" s="112"/>
+      <c r="G62" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="H62" s="112"/>
-      <c r="I62" s="112"/>
-      <c r="J62" s="113"/>
+      <c r="H62" s="111"/>
+      <c r="I62" s="111"/>
+      <c r="J62" s="112"/>
     </row>
     <row r="63" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="97" t="s">
+      <c r="B63" s="96" t="s">
         <v>370</v>
       </c>
       <c r="C63" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="115" t="s">
+      <c r="D63" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="E63" s="115"/>
-      <c r="F63" s="115"/>
-      <c r="G63" s="115"/>
-      <c r="H63" s="115"/>
-      <c r="I63" s="115"/>
-      <c r="J63" s="116"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
+      <c r="G63" s="114"/>
+      <c r="H63" s="114"/>
+      <c r="I63" s="114"/>
+      <c r="J63" s="115"/>
     </row>
     <row r="64" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="98"/>
+      <c r="B64" s="97"/>
       <c r="C64" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="117" t="s">
+      <c r="D64" s="116" t="s">
         <v>299</v>
       </c>
-      <c r="E64" s="117"/>
-      <c r="F64" s="117"/>
-      <c r="G64" s="117"/>
-      <c r="H64" s="117"/>
-      <c r="I64" s="117"/>
-      <c r="J64" s="118"/>
+      <c r="E64" s="116"/>
+      <c r="F64" s="116"/>
+      <c r="G64" s="116"/>
+      <c r="H64" s="116"/>
+      <c r="I64" s="116"/>
+      <c r="J64" s="117"/>
     </row>
     <row r="65" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="99"/>
+      <c r="B65" s="98"/>
       <c r="C65" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D65" s="119" t="s">
+      <c r="D65" s="118" t="s">
         <v>298</v>
       </c>
-      <c r="E65" s="119"/>
-      <c r="F65" s="119"/>
-      <c r="G65" s="119"/>
-      <c r="H65" s="119"/>
-      <c r="I65" s="119"/>
-      <c r="J65" s="120"/>
+      <c r="E65" s="118"/>
+      <c r="F65" s="118"/>
+      <c r="G65" s="118"/>
+      <c r="H65" s="118"/>
+      <c r="I65" s="118"/>
+      <c r="J65" s="119"/>
     </row>
     <row r="66" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="97" t="s">
+      <c r="B66" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="100" t="s">
+      <c r="C66" s="99" t="s">
         <v>297</v>
       </c>
-      <c r="D66" s="101"/>
-      <c r="E66" s="101"/>
-      <c r="F66" s="101"/>
-      <c r="G66" s="101"/>
-      <c r="H66" s="102"/>
-      <c r="I66" s="109" t="s">
+      <c r="D66" s="100"/>
+      <c r="E66" s="100"/>
+      <c r="F66" s="100"/>
+      <c r="G66" s="100"/>
+      <c r="H66" s="101"/>
+      <c r="I66" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="J66" s="109" t="s">
+      <c r="J66" s="108" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="98"/>
-      <c r="C67" s="103"/>
-      <c r="D67" s="104"/>
-      <c r="E67" s="104"/>
-      <c r="F67" s="104"/>
-      <c r="G67" s="104"/>
-      <c r="H67" s="105"/>
-      <c r="I67" s="110"/>
-      <c r="J67" s="110"/>
+      <c r="B67" s="97"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="103"/>
+      <c r="E67" s="103"/>
+      <c r="F67" s="103"/>
+      <c r="G67" s="103"/>
+      <c r="H67" s="104"/>
+      <c r="I67" s="109"/>
+      <c r="J67" s="109"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="98"/>
-      <c r="C68" s="103"/>
-      <c r="D68" s="104"/>
-      <c r="E68" s="104"/>
-      <c r="F68" s="104"/>
-      <c r="G68" s="104"/>
-      <c r="H68" s="105"/>
-      <c r="I68" s="110"/>
-      <c r="J68" s="110"/>
+      <c r="B68" s="97"/>
+      <c r="C68" s="102"/>
+      <c r="D68" s="103"/>
+      <c r="E68" s="103"/>
+      <c r="F68" s="103"/>
+      <c r="G68" s="103"/>
+      <c r="H68" s="104"/>
+      <c r="I68" s="109"/>
+      <c r="J68" s="109"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="98"/>
-      <c r="C69" s="103"/>
-      <c r="D69" s="104"/>
-      <c r="E69" s="104"/>
-      <c r="F69" s="104"/>
-      <c r="G69" s="104"/>
-      <c r="H69" s="105"/>
-      <c r="I69" s="110"/>
-      <c r="J69" s="110"/>
+      <c r="B69" s="97"/>
+      <c r="C69" s="102"/>
+      <c r="D69" s="103"/>
+      <c r="E69" s="103"/>
+      <c r="F69" s="103"/>
+      <c r="G69" s="103"/>
+      <c r="H69" s="104"/>
+      <c r="I69" s="109"/>
+      <c r="J69" s="109"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="98"/>
-      <c r="C70" s="103"/>
-      <c r="D70" s="104"/>
-      <c r="E70" s="104"/>
-      <c r="F70" s="104"/>
-      <c r="G70" s="104"/>
-      <c r="H70" s="105"/>
-      <c r="I70" s="110"/>
-      <c r="J70" s="110"/>
+      <c r="B70" s="97"/>
+      <c r="C70" s="102"/>
+      <c r="D70" s="103"/>
+      <c r="E70" s="103"/>
+      <c r="F70" s="103"/>
+      <c r="G70" s="103"/>
+      <c r="H70" s="104"/>
+      <c r="I70" s="109"/>
+      <c r="J70" s="109"/>
     </row>
     <row r="71" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="98"/>
-      <c r="C71" s="103"/>
-      <c r="D71" s="104"/>
-      <c r="E71" s="104"/>
-      <c r="F71" s="104"/>
-      <c r="G71" s="104"/>
-      <c r="H71" s="105"/>
-      <c r="I71" s="111"/>
-      <c r="J71" s="111"/>
+      <c r="B71" s="97"/>
+      <c r="C71" s="102"/>
+      <c r="D71" s="103"/>
+      <c r="E71" s="103"/>
+      <c r="F71" s="103"/>
+      <c r="G71" s="103"/>
+      <c r="H71" s="104"/>
+      <c r="I71" s="110"/>
+      <c r="J71" s="110"/>
     </row>
     <row r="72" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="98"/>
-      <c r="C72" s="103"/>
-      <c r="D72" s="104"/>
-      <c r="E72" s="104"/>
-      <c r="F72" s="104"/>
-      <c r="G72" s="104"/>
-      <c r="H72" s="105"/>
-      <c r="I72" s="109" t="s">
+      <c r="B72" s="97"/>
+      <c r="C72" s="102"/>
+      <c r="D72" s="103"/>
+      <c r="E72" s="103"/>
+      <c r="F72" s="103"/>
+      <c r="G72" s="103"/>
+      <c r="H72" s="104"/>
+      <c r="I72" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="J72" s="109">
+      <c r="J72" s="108">
         <v>5</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="98"/>
-      <c r="C73" s="103"/>
-      <c r="D73" s="104"/>
-      <c r="E73" s="104"/>
-      <c r="F73" s="104"/>
-      <c r="G73" s="104"/>
-      <c r="H73" s="105"/>
-      <c r="I73" s="110"/>
-      <c r="J73" s="110"/>
+      <c r="B73" s="97"/>
+      <c r="C73" s="102"/>
+      <c r="D73" s="103"/>
+      <c r="E73" s="103"/>
+      <c r="F73" s="103"/>
+      <c r="G73" s="103"/>
+      <c r="H73" s="104"/>
+      <c r="I73" s="109"/>
+      <c r="J73" s="109"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="98"/>
-      <c r="C74" s="103"/>
-      <c r="D74" s="104"/>
-      <c r="E74" s="104"/>
-      <c r="F74" s="104"/>
-      <c r="G74" s="104"/>
-      <c r="H74" s="105"/>
-      <c r="I74" s="110"/>
-      <c r="J74" s="110"/>
+      <c r="B74" s="97"/>
+      <c r="C74" s="102"/>
+      <c r="D74" s="103"/>
+      <c r="E74" s="103"/>
+      <c r="F74" s="103"/>
+      <c r="G74" s="103"/>
+      <c r="H74" s="104"/>
+      <c r="I74" s="109"/>
+      <c r="J74" s="109"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="98"/>
-      <c r="C75" s="103"/>
-      <c r="D75" s="104"/>
-      <c r="E75" s="104"/>
-      <c r="F75" s="104"/>
-      <c r="G75" s="104"/>
-      <c r="H75" s="105"/>
-      <c r="I75" s="110"/>
-      <c r="J75" s="110"/>
+      <c r="B75" s="97"/>
+      <c r="C75" s="102"/>
+      <c r="D75" s="103"/>
+      <c r="E75" s="103"/>
+      <c r="F75" s="103"/>
+      <c r="G75" s="103"/>
+      <c r="H75" s="104"/>
+      <c r="I75" s="109"/>
+      <c r="J75" s="109"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="98"/>
-      <c r="C76" s="103"/>
-      <c r="D76" s="104"/>
-      <c r="E76" s="104"/>
-      <c r="F76" s="104"/>
-      <c r="G76" s="104"/>
-      <c r="H76" s="105"/>
-      <c r="I76" s="110"/>
-      <c r="J76" s="110"/>
+      <c r="B76" s="97"/>
+      <c r="C76" s="102"/>
+      <c r="D76" s="103"/>
+      <c r="E76" s="103"/>
+      <c r="F76" s="103"/>
+      <c r="G76" s="103"/>
+      <c r="H76" s="104"/>
+      <c r="I76" s="109"/>
+      <c r="J76" s="109"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="98"/>
-      <c r="C77" s="103"/>
-      <c r="D77" s="104"/>
-      <c r="E77" s="104"/>
-      <c r="F77" s="104"/>
-      <c r="G77" s="104"/>
-      <c r="H77" s="105"/>
-      <c r="I77" s="110"/>
-      <c r="J77" s="110"/>
+      <c r="B77" s="97"/>
+      <c r="C77" s="102"/>
+      <c r="D77" s="103"/>
+      <c r="E77" s="103"/>
+      <c r="F77" s="103"/>
+      <c r="G77" s="103"/>
+      <c r="H77" s="104"/>
+      <c r="I77" s="109"/>
+      <c r="J77" s="109"/>
     </row>
     <row r="78" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="99"/>
-      <c r="C78" s="106"/>
-      <c r="D78" s="107"/>
-      <c r="E78" s="107"/>
-      <c r="F78" s="107"/>
-      <c r="G78" s="107"/>
-      <c r="H78" s="108"/>
-      <c r="I78" s="111"/>
-      <c r="J78" s="111"/>
+      <c r="B78" s="98"/>
+      <c r="C78" s="105"/>
+      <c r="D78" s="106"/>
+      <c r="E78" s="106"/>
+      <c r="F78" s="106"/>
+      <c r="G78" s="106"/>
+      <c r="H78" s="107"/>
+      <c r="I78" s="110"/>
+      <c r="J78" s="110"/>
     </row>
     <row r="79" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="42"/>
@@ -6227,234 +6218,234 @@
       <c r="C80" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="112" t="s">
+      <c r="D80" s="111" t="s">
         <v>295</v>
       </c>
-      <c r="E80" s="112"/>
-      <c r="F80" s="112"/>
-      <c r="G80" s="112"/>
-      <c r="H80" s="112"/>
-      <c r="I80" s="112"/>
-      <c r="J80" s="113"/>
+      <c r="E80" s="111"/>
+      <c r="F80" s="111"/>
+      <c r="G80" s="111"/>
+      <c r="H80" s="111"/>
+      <c r="I80" s="111"/>
+      <c r="J80" s="112"/>
     </row>
     <row r="81" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="C81" s="114" t="s">
+      <c r="C81" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="D81" s="112"/>
-      <c r="E81" s="112"/>
-      <c r="F81" s="113"/>
-      <c r="G81" s="114" t="s">
+      <c r="D81" s="111"/>
+      <c r="E81" s="111"/>
+      <c r="F81" s="112"/>
+      <c r="G81" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="H81" s="112"/>
-      <c r="I81" s="112"/>
-      <c r="J81" s="113"/>
+      <c r="H81" s="111"/>
+      <c r="I81" s="111"/>
+      <c r="J81" s="112"/>
     </row>
     <row r="82" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="97" t="s">
+      <c r="B82" s="96" t="s">
         <v>371</v>
       </c>
       <c r="C82" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="117" t="s">
+      <c r="D82" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="E82" s="117"/>
-      <c r="F82" s="117"/>
-      <c r="G82" s="117"/>
-      <c r="H82" s="117"/>
-      <c r="I82" s="117"/>
-      <c r="J82" s="118"/>
+      <c r="E82" s="116"/>
+      <c r="F82" s="116"/>
+      <c r="G82" s="116"/>
+      <c r="H82" s="116"/>
+      <c r="I82" s="116"/>
+      <c r="J82" s="117"/>
     </row>
     <row r="83" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="98"/>
+      <c r="B83" s="97"/>
       <c r="C83" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D83" s="117" t="s">
+      <c r="D83" s="116" t="s">
         <v>294</v>
       </c>
-      <c r="E83" s="117"/>
-      <c r="F83" s="117"/>
-      <c r="G83" s="117"/>
-      <c r="H83" s="117"/>
-      <c r="I83" s="117"/>
-      <c r="J83" s="118"/>
+      <c r="E83" s="116"/>
+      <c r="F83" s="116"/>
+      <c r="G83" s="116"/>
+      <c r="H83" s="116"/>
+      <c r="I83" s="116"/>
+      <c r="J83" s="117"/>
     </row>
     <row r="84" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="99"/>
+      <c r="B84" s="98"/>
       <c r="C84" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D84" s="119" t="s">
+      <c r="D84" s="118" t="s">
         <v>293</v>
       </c>
-      <c r="E84" s="119"/>
-      <c r="F84" s="119"/>
-      <c r="G84" s="119"/>
-      <c r="H84" s="119"/>
-      <c r="I84" s="119"/>
-      <c r="J84" s="120"/>
+      <c r="E84" s="118"/>
+      <c r="F84" s="118"/>
+      <c r="G84" s="118"/>
+      <c r="H84" s="118"/>
+      <c r="I84" s="118"/>
+      <c r="J84" s="119"/>
     </row>
     <row r="85" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="97" t="s">
+      <c r="B85" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="100" t="s">
+      <c r="C85" s="99" t="s">
         <v>292</v>
       </c>
-      <c r="D85" s="101"/>
-      <c r="E85" s="101"/>
-      <c r="F85" s="101"/>
-      <c r="G85" s="101"/>
-      <c r="H85" s="102"/>
-      <c r="I85" s="109" t="s">
+      <c r="D85" s="100"/>
+      <c r="E85" s="100"/>
+      <c r="F85" s="100"/>
+      <c r="G85" s="100"/>
+      <c r="H85" s="101"/>
+      <c r="I85" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="J85" s="109" t="s">
+      <c r="J85" s="108" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B86" s="98"/>
-      <c r="C86" s="103"/>
-      <c r="D86" s="104"/>
-      <c r="E86" s="104"/>
-      <c r="F86" s="104"/>
-      <c r="G86" s="104"/>
-      <c r="H86" s="105"/>
-      <c r="I86" s="110"/>
-      <c r="J86" s="110"/>
+      <c r="B86" s="97"/>
+      <c r="C86" s="102"/>
+      <c r="D86" s="103"/>
+      <c r="E86" s="103"/>
+      <c r="F86" s="103"/>
+      <c r="G86" s="103"/>
+      <c r="H86" s="104"/>
+      <c r="I86" s="109"/>
+      <c r="J86" s="109"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="98"/>
-      <c r="C87" s="103"/>
-      <c r="D87" s="104"/>
-      <c r="E87" s="104"/>
-      <c r="F87" s="104"/>
-      <c r="G87" s="104"/>
-      <c r="H87" s="105"/>
-      <c r="I87" s="110"/>
-      <c r="J87" s="110"/>
+      <c r="B87" s="97"/>
+      <c r="C87" s="102"/>
+      <c r="D87" s="103"/>
+      <c r="E87" s="103"/>
+      <c r="F87" s="103"/>
+      <c r="G87" s="103"/>
+      <c r="H87" s="104"/>
+      <c r="I87" s="109"/>
+      <c r="J87" s="109"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="98"/>
-      <c r="C88" s="103"/>
-      <c r="D88" s="104"/>
-      <c r="E88" s="104"/>
-      <c r="F88" s="104"/>
-      <c r="G88" s="104"/>
-      <c r="H88" s="105"/>
-      <c r="I88" s="110"/>
-      <c r="J88" s="110"/>
+      <c r="B88" s="97"/>
+      <c r="C88" s="102"/>
+      <c r="D88" s="103"/>
+      <c r="E88" s="103"/>
+      <c r="F88" s="103"/>
+      <c r="G88" s="103"/>
+      <c r="H88" s="104"/>
+      <c r="I88" s="109"/>
+      <c r="J88" s="109"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B89" s="98"/>
-      <c r="C89" s="103"/>
-      <c r="D89" s="104"/>
-      <c r="E89" s="104"/>
-      <c r="F89" s="104"/>
-      <c r="G89" s="104"/>
-      <c r="H89" s="105"/>
-      <c r="I89" s="110"/>
-      <c r="J89" s="110"/>
+      <c r="B89" s="97"/>
+      <c r="C89" s="102"/>
+      <c r="D89" s="103"/>
+      <c r="E89" s="103"/>
+      <c r="F89" s="103"/>
+      <c r="G89" s="103"/>
+      <c r="H89" s="104"/>
+      <c r="I89" s="109"/>
+      <c r="J89" s="109"/>
     </row>
     <row r="90" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="98"/>
-      <c r="C90" s="103"/>
-      <c r="D90" s="104"/>
-      <c r="E90" s="104"/>
-      <c r="F90" s="104"/>
-      <c r="G90" s="104"/>
-      <c r="H90" s="105"/>
-      <c r="I90" s="111"/>
-      <c r="J90" s="111"/>
+      <c r="B90" s="97"/>
+      <c r="C90" s="102"/>
+      <c r="D90" s="103"/>
+      <c r="E90" s="103"/>
+      <c r="F90" s="103"/>
+      <c r="G90" s="103"/>
+      <c r="H90" s="104"/>
+      <c r="I90" s="110"/>
+      <c r="J90" s="110"/>
     </row>
     <row r="91" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="98"/>
-      <c r="C91" s="103"/>
-      <c r="D91" s="104"/>
-      <c r="E91" s="104"/>
-      <c r="F91" s="104"/>
-      <c r="G91" s="104"/>
-      <c r="H91" s="105"/>
-      <c r="I91" s="109" t="s">
+      <c r="B91" s="97"/>
+      <c r="C91" s="102"/>
+      <c r="D91" s="103"/>
+      <c r="E91" s="103"/>
+      <c r="F91" s="103"/>
+      <c r="G91" s="103"/>
+      <c r="H91" s="104"/>
+      <c r="I91" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="J91" s="109">
+      <c r="J91" s="108">
         <v>4</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B92" s="98"/>
-      <c r="C92" s="103"/>
-      <c r="D92" s="104"/>
-      <c r="E92" s="104"/>
-      <c r="F92" s="104"/>
-      <c r="G92" s="104"/>
-      <c r="H92" s="105"/>
-      <c r="I92" s="110"/>
-      <c r="J92" s="110"/>
+      <c r="B92" s="97"/>
+      <c r="C92" s="102"/>
+      <c r="D92" s="103"/>
+      <c r="E92" s="103"/>
+      <c r="F92" s="103"/>
+      <c r="G92" s="103"/>
+      <c r="H92" s="104"/>
+      <c r="I92" s="109"/>
+      <c r="J92" s="109"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B93" s="98"/>
-      <c r="C93" s="103"/>
-      <c r="D93" s="104"/>
-      <c r="E93" s="104"/>
-      <c r="F93" s="104"/>
-      <c r="G93" s="104"/>
-      <c r="H93" s="105"/>
-      <c r="I93" s="110"/>
-      <c r="J93" s="110"/>
+      <c r="B93" s="97"/>
+      <c r="C93" s="102"/>
+      <c r="D93" s="103"/>
+      <c r="E93" s="103"/>
+      <c r="F93" s="103"/>
+      <c r="G93" s="103"/>
+      <c r="H93" s="104"/>
+      <c r="I93" s="109"/>
+      <c r="J93" s="109"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B94" s="98"/>
-      <c r="C94" s="103"/>
-      <c r="D94" s="104"/>
-      <c r="E94" s="104"/>
-      <c r="F94" s="104"/>
-      <c r="G94" s="104"/>
-      <c r="H94" s="105"/>
-      <c r="I94" s="110"/>
-      <c r="J94" s="110"/>
+      <c r="B94" s="97"/>
+      <c r="C94" s="102"/>
+      <c r="D94" s="103"/>
+      <c r="E94" s="103"/>
+      <c r="F94" s="103"/>
+      <c r="G94" s="103"/>
+      <c r="H94" s="104"/>
+      <c r="I94" s="109"/>
+      <c r="J94" s="109"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B95" s="98"/>
-      <c r="C95" s="103"/>
-      <c r="D95" s="104"/>
-      <c r="E95" s="104"/>
-      <c r="F95" s="104"/>
-      <c r="G95" s="104"/>
-      <c r="H95" s="105"/>
-      <c r="I95" s="110"/>
-      <c r="J95" s="110"/>
+      <c r="B95" s="97"/>
+      <c r="C95" s="102"/>
+      <c r="D95" s="103"/>
+      <c r="E95" s="103"/>
+      <c r="F95" s="103"/>
+      <c r="G95" s="103"/>
+      <c r="H95" s="104"/>
+      <c r="I95" s="109"/>
+      <c r="J95" s="109"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B96" s="98"/>
-      <c r="C96" s="103"/>
-      <c r="D96" s="104"/>
-      <c r="E96" s="104"/>
-      <c r="F96" s="104"/>
-      <c r="G96" s="104"/>
-      <c r="H96" s="105"/>
-      <c r="I96" s="110"/>
-      <c r="J96" s="110"/>
+      <c r="B96" s="97"/>
+      <c r="C96" s="102"/>
+      <c r="D96" s="103"/>
+      <c r="E96" s="103"/>
+      <c r="F96" s="103"/>
+      <c r="G96" s="103"/>
+      <c r="H96" s="104"/>
+      <c r="I96" s="109"/>
+      <c r="J96" s="109"/>
     </row>
     <row r="97" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="99"/>
-      <c r="C97" s="106"/>
-      <c r="D97" s="107"/>
-      <c r="E97" s="107"/>
-      <c r="F97" s="107"/>
-      <c r="G97" s="107"/>
-      <c r="H97" s="108"/>
-      <c r="I97" s="111"/>
-      <c r="J97" s="111"/>
+      <c r="B97" s="98"/>
+      <c r="C97" s="105"/>
+      <c r="D97" s="106"/>
+      <c r="E97" s="106"/>
+      <c r="F97" s="106"/>
+      <c r="G97" s="106"/>
+      <c r="H97" s="107"/>
+      <c r="I97" s="110"/>
+      <c r="J97" s="110"/>
     </row>
     <row r="98" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="42"/>
@@ -6474,234 +6465,234 @@
       <c r="C99" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D99" s="112" t="s">
+      <c r="D99" s="111" t="s">
         <v>192</v>
       </c>
-      <c r="E99" s="112"/>
-      <c r="F99" s="112"/>
-      <c r="G99" s="112"/>
-      <c r="H99" s="112"/>
-      <c r="I99" s="112"/>
-      <c r="J99" s="113"/>
+      <c r="E99" s="111"/>
+      <c r="F99" s="111"/>
+      <c r="G99" s="111"/>
+      <c r="H99" s="111"/>
+      <c r="I99" s="111"/>
+      <c r="J99" s="112"/>
     </row>
     <row r="100" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C100" s="114" t="s">
+      <c r="C100" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="D100" s="112"/>
-      <c r="E100" s="112"/>
-      <c r="F100" s="113"/>
-      <c r="G100" s="114" t="s">
+      <c r="D100" s="111"/>
+      <c r="E100" s="111"/>
+      <c r="F100" s="112"/>
+      <c r="G100" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="H100" s="112"/>
-      <c r="I100" s="112"/>
-      <c r="J100" s="113"/>
+      <c r="H100" s="111"/>
+      <c r="I100" s="111"/>
+      <c r="J100" s="112"/>
     </row>
     <row r="101" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="97" t="s">
+      <c r="B101" s="96" t="s">
         <v>372</v>
       </c>
       <c r="C101" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D101" s="115" t="s">
+      <c r="D101" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="E101" s="115"/>
-      <c r="F101" s="115"/>
-      <c r="G101" s="115"/>
-      <c r="H101" s="115"/>
-      <c r="I101" s="115"/>
-      <c r="J101" s="116"/>
+      <c r="E101" s="114"/>
+      <c r="F101" s="114"/>
+      <c r="G101" s="114"/>
+      <c r="H101" s="114"/>
+      <c r="I101" s="114"/>
+      <c r="J101" s="115"/>
     </row>
     <row r="102" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="98"/>
+      <c r="B102" s="97"/>
       <c r="C102" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D102" s="117" t="s">
+      <c r="D102" s="116" t="s">
         <v>291</v>
       </c>
-      <c r="E102" s="117"/>
-      <c r="F102" s="117"/>
-      <c r="G102" s="117"/>
-      <c r="H102" s="117"/>
-      <c r="I102" s="117"/>
-      <c r="J102" s="118"/>
+      <c r="E102" s="116"/>
+      <c r="F102" s="116"/>
+      <c r="G102" s="116"/>
+      <c r="H102" s="116"/>
+      <c r="I102" s="116"/>
+      <c r="J102" s="117"/>
     </row>
     <row r="103" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="99"/>
+      <c r="B103" s="98"/>
       <c r="C103" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D103" s="119" t="s">
+      <c r="D103" s="118" t="s">
         <v>290</v>
       </c>
-      <c r="E103" s="119"/>
-      <c r="F103" s="119"/>
-      <c r="G103" s="119"/>
-      <c r="H103" s="119"/>
-      <c r="I103" s="119"/>
-      <c r="J103" s="120"/>
+      <c r="E103" s="118"/>
+      <c r="F103" s="118"/>
+      <c r="G103" s="118"/>
+      <c r="H103" s="118"/>
+      <c r="I103" s="118"/>
+      <c r="J103" s="119"/>
     </row>
     <row r="104" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="97" t="s">
+      <c r="B104" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C104" s="100" t="s">
+      <c r="C104" s="99" t="s">
         <v>289</v>
       </c>
-      <c r="D104" s="101"/>
-      <c r="E104" s="101"/>
-      <c r="F104" s="101"/>
-      <c r="G104" s="101"/>
-      <c r="H104" s="102"/>
-      <c r="I104" s="109" t="s">
+      <c r="D104" s="100"/>
+      <c r="E104" s="100"/>
+      <c r="F104" s="100"/>
+      <c r="G104" s="100"/>
+      <c r="H104" s="101"/>
+      <c r="I104" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="J104" s="109" t="s">
+      <c r="J104" s="108" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B105" s="98"/>
-      <c r="C105" s="103"/>
-      <c r="D105" s="104"/>
-      <c r="E105" s="104"/>
-      <c r="F105" s="104"/>
-      <c r="G105" s="104"/>
-      <c r="H105" s="105"/>
-      <c r="I105" s="110"/>
-      <c r="J105" s="110"/>
+      <c r="B105" s="97"/>
+      <c r="C105" s="102"/>
+      <c r="D105" s="103"/>
+      <c r="E105" s="103"/>
+      <c r="F105" s="103"/>
+      <c r="G105" s="103"/>
+      <c r="H105" s="104"/>
+      <c r="I105" s="109"/>
+      <c r="J105" s="109"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B106" s="98"/>
-      <c r="C106" s="103"/>
-      <c r="D106" s="104"/>
-      <c r="E106" s="104"/>
-      <c r="F106" s="104"/>
-      <c r="G106" s="104"/>
-      <c r="H106" s="105"/>
-      <c r="I106" s="110"/>
-      <c r="J106" s="110"/>
+      <c r="B106" s="97"/>
+      <c r="C106" s="102"/>
+      <c r="D106" s="103"/>
+      <c r="E106" s="103"/>
+      <c r="F106" s="103"/>
+      <c r="G106" s="103"/>
+      <c r="H106" s="104"/>
+      <c r="I106" s="109"/>
+      <c r="J106" s="109"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B107" s="98"/>
-      <c r="C107" s="103"/>
-      <c r="D107" s="104"/>
-      <c r="E107" s="104"/>
-      <c r="F107" s="104"/>
-      <c r="G107" s="104"/>
-      <c r="H107" s="105"/>
-      <c r="I107" s="110"/>
-      <c r="J107" s="110"/>
+      <c r="B107" s="97"/>
+      <c r="C107" s="102"/>
+      <c r="D107" s="103"/>
+      <c r="E107" s="103"/>
+      <c r="F107" s="103"/>
+      <c r="G107" s="103"/>
+      <c r="H107" s="104"/>
+      <c r="I107" s="109"/>
+      <c r="J107" s="109"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B108" s="98"/>
-      <c r="C108" s="103"/>
-      <c r="D108" s="104"/>
-      <c r="E108" s="104"/>
-      <c r="F108" s="104"/>
-      <c r="G108" s="104"/>
-      <c r="H108" s="105"/>
-      <c r="I108" s="110"/>
-      <c r="J108" s="110"/>
+      <c r="B108" s="97"/>
+      <c r="C108" s="102"/>
+      <c r="D108" s="103"/>
+      <c r="E108" s="103"/>
+      <c r="F108" s="103"/>
+      <c r="G108" s="103"/>
+      <c r="H108" s="104"/>
+      <c r="I108" s="109"/>
+      <c r="J108" s="109"/>
     </row>
     <row r="109" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="98"/>
-      <c r="C109" s="103"/>
-      <c r="D109" s="104"/>
-      <c r="E109" s="104"/>
-      <c r="F109" s="104"/>
-      <c r="G109" s="104"/>
-      <c r="H109" s="105"/>
-      <c r="I109" s="111"/>
-      <c r="J109" s="111"/>
+      <c r="B109" s="97"/>
+      <c r="C109" s="102"/>
+      <c r="D109" s="103"/>
+      <c r="E109" s="103"/>
+      <c r="F109" s="103"/>
+      <c r="G109" s="103"/>
+      <c r="H109" s="104"/>
+      <c r="I109" s="110"/>
+      <c r="J109" s="110"/>
     </row>
     <row r="110" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="98"/>
-      <c r="C110" s="103"/>
-      <c r="D110" s="104"/>
-      <c r="E110" s="104"/>
-      <c r="F110" s="104"/>
-      <c r="G110" s="104"/>
-      <c r="H110" s="105"/>
-      <c r="I110" s="109" t="s">
+      <c r="B110" s="97"/>
+      <c r="C110" s="102"/>
+      <c r="D110" s="103"/>
+      <c r="E110" s="103"/>
+      <c r="F110" s="103"/>
+      <c r="G110" s="103"/>
+      <c r="H110" s="104"/>
+      <c r="I110" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="J110" s="109">
+      <c r="J110" s="108">
         <v>3</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="98"/>
-      <c r="C111" s="103"/>
-      <c r="D111" s="104"/>
-      <c r="E111" s="104"/>
-      <c r="F111" s="104"/>
-      <c r="G111" s="104"/>
-      <c r="H111" s="105"/>
-      <c r="I111" s="110"/>
-      <c r="J111" s="110"/>
+      <c r="B111" s="97"/>
+      <c r="C111" s="102"/>
+      <c r="D111" s="103"/>
+      <c r="E111" s="103"/>
+      <c r="F111" s="103"/>
+      <c r="G111" s="103"/>
+      <c r="H111" s="104"/>
+      <c r="I111" s="109"/>
+      <c r="J111" s="109"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B112" s="98"/>
-      <c r="C112" s="103"/>
-      <c r="D112" s="104"/>
-      <c r="E112" s="104"/>
-      <c r="F112" s="104"/>
-      <c r="G112" s="104"/>
-      <c r="H112" s="105"/>
-      <c r="I112" s="110"/>
-      <c r="J112" s="110"/>
+      <c r="B112" s="97"/>
+      <c r="C112" s="102"/>
+      <c r="D112" s="103"/>
+      <c r="E112" s="103"/>
+      <c r="F112" s="103"/>
+      <c r="G112" s="103"/>
+      <c r="H112" s="104"/>
+      <c r="I112" s="109"/>
+      <c r="J112" s="109"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="98"/>
-      <c r="C113" s="103"/>
-      <c r="D113" s="104"/>
-      <c r="E113" s="104"/>
-      <c r="F113" s="104"/>
-      <c r="G113" s="104"/>
-      <c r="H113" s="105"/>
-      <c r="I113" s="110"/>
-      <c r="J113" s="110"/>
+      <c r="B113" s="97"/>
+      <c r="C113" s="102"/>
+      <c r="D113" s="103"/>
+      <c r="E113" s="103"/>
+      <c r="F113" s="103"/>
+      <c r="G113" s="103"/>
+      <c r="H113" s="104"/>
+      <c r="I113" s="109"/>
+      <c r="J113" s="109"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="98"/>
-      <c r="C114" s="103"/>
-      <c r="D114" s="104"/>
-      <c r="E114" s="104"/>
-      <c r="F114" s="104"/>
-      <c r="G114" s="104"/>
-      <c r="H114" s="105"/>
-      <c r="I114" s="110"/>
-      <c r="J114" s="110"/>
+      <c r="B114" s="97"/>
+      <c r="C114" s="102"/>
+      <c r="D114" s="103"/>
+      <c r="E114" s="103"/>
+      <c r="F114" s="103"/>
+      <c r="G114" s="103"/>
+      <c r="H114" s="104"/>
+      <c r="I114" s="109"/>
+      <c r="J114" s="109"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="98"/>
-      <c r="C115" s="103"/>
-      <c r="D115" s="104"/>
-      <c r="E115" s="104"/>
-      <c r="F115" s="104"/>
-      <c r="G115" s="104"/>
-      <c r="H115" s="105"/>
-      <c r="I115" s="110"/>
-      <c r="J115" s="110"/>
+      <c r="B115" s="97"/>
+      <c r="C115" s="102"/>
+      <c r="D115" s="103"/>
+      <c r="E115" s="103"/>
+      <c r="F115" s="103"/>
+      <c r="G115" s="103"/>
+      <c r="H115" s="104"/>
+      <c r="I115" s="109"/>
+      <c r="J115" s="109"/>
     </row>
     <row r="116" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="99"/>
-      <c r="C116" s="106"/>
-      <c r="D116" s="107"/>
-      <c r="E116" s="107"/>
-      <c r="F116" s="107"/>
-      <c r="G116" s="107"/>
-      <c r="H116" s="108"/>
-      <c r="I116" s="111"/>
-      <c r="J116" s="111"/>
+      <c r="B116" s="98"/>
+      <c r="C116" s="105"/>
+      <c r="D116" s="106"/>
+      <c r="E116" s="106"/>
+      <c r="F116" s="106"/>
+      <c r="G116" s="106"/>
+      <c r="H116" s="107"/>
+      <c r="I116" s="110"/>
+      <c r="J116" s="110"/>
     </row>
     <row r="117" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="42"/>
@@ -6721,234 +6712,234 @@
       <c r="C118" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D118" s="112" t="s">
+      <c r="D118" s="111" t="s">
         <v>193</v>
       </c>
-      <c r="E118" s="112"/>
-      <c r="F118" s="112"/>
-      <c r="G118" s="112"/>
-      <c r="H118" s="112"/>
-      <c r="I118" s="112"/>
-      <c r="J118" s="113"/>
+      <c r="E118" s="111"/>
+      <c r="F118" s="111"/>
+      <c r="G118" s="111"/>
+      <c r="H118" s="111"/>
+      <c r="I118" s="111"/>
+      <c r="J118" s="112"/>
     </row>
     <row r="119" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C119" s="114" t="s">
+      <c r="C119" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="D119" s="112"/>
-      <c r="E119" s="112"/>
-      <c r="F119" s="113"/>
-      <c r="G119" s="114" t="s">
+      <c r="D119" s="111"/>
+      <c r="E119" s="111"/>
+      <c r="F119" s="112"/>
+      <c r="G119" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="H119" s="112"/>
-      <c r="I119" s="112"/>
-      <c r="J119" s="113"/>
+      <c r="H119" s="111"/>
+      <c r="I119" s="111"/>
+      <c r="J119" s="112"/>
     </row>
     <row r="120" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="97" t="s">
+      <c r="B120" s="96" t="s">
         <v>373</v>
       </c>
       <c r="C120" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D120" s="115" t="s">
+      <c r="D120" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="E120" s="115"/>
-      <c r="F120" s="115"/>
-      <c r="G120" s="115"/>
-      <c r="H120" s="115"/>
-      <c r="I120" s="115"/>
-      <c r="J120" s="116"/>
+      <c r="E120" s="114"/>
+      <c r="F120" s="114"/>
+      <c r="G120" s="114"/>
+      <c r="H120" s="114"/>
+      <c r="I120" s="114"/>
+      <c r="J120" s="115"/>
     </row>
     <row r="121" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="98"/>
+      <c r="B121" s="97"/>
       <c r="C121" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D121" s="117" t="s">
+      <c r="D121" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="E121" s="117"/>
-      <c r="F121" s="117"/>
-      <c r="G121" s="117"/>
-      <c r="H121" s="117"/>
-      <c r="I121" s="117"/>
-      <c r="J121" s="118"/>
+      <c r="E121" s="116"/>
+      <c r="F121" s="116"/>
+      <c r="G121" s="116"/>
+      <c r="H121" s="116"/>
+      <c r="I121" s="116"/>
+      <c r="J121" s="117"/>
     </row>
     <row r="122" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="99"/>
+      <c r="B122" s="98"/>
       <c r="C122" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D122" s="119" t="s">
+      <c r="D122" s="118" t="s">
         <v>288</v>
       </c>
-      <c r="E122" s="119"/>
-      <c r="F122" s="119"/>
-      <c r="G122" s="119"/>
-      <c r="H122" s="119"/>
-      <c r="I122" s="119"/>
-      <c r="J122" s="120"/>
+      <c r="E122" s="118"/>
+      <c r="F122" s="118"/>
+      <c r="G122" s="118"/>
+      <c r="H122" s="118"/>
+      <c r="I122" s="118"/>
+      <c r="J122" s="119"/>
     </row>
     <row r="123" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="97" t="s">
+      <c r="B123" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C123" s="100" t="s">
+      <c r="C123" s="99" t="s">
         <v>287</v>
       </c>
-      <c r="D123" s="101"/>
-      <c r="E123" s="101"/>
-      <c r="F123" s="101"/>
-      <c r="G123" s="101"/>
-      <c r="H123" s="102"/>
-      <c r="I123" s="109" t="s">
+      <c r="D123" s="100"/>
+      <c r="E123" s="100"/>
+      <c r="F123" s="100"/>
+      <c r="G123" s="100"/>
+      <c r="H123" s="101"/>
+      <c r="I123" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="J123" s="109" t="s">
+      <c r="J123" s="108" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B124" s="98"/>
-      <c r="C124" s="103"/>
-      <c r="D124" s="104"/>
-      <c r="E124" s="104"/>
-      <c r="F124" s="104"/>
-      <c r="G124" s="104"/>
-      <c r="H124" s="105"/>
-      <c r="I124" s="110"/>
-      <c r="J124" s="110"/>
+      <c r="B124" s="97"/>
+      <c r="C124" s="102"/>
+      <c r="D124" s="103"/>
+      <c r="E124" s="103"/>
+      <c r="F124" s="103"/>
+      <c r="G124" s="103"/>
+      <c r="H124" s="104"/>
+      <c r="I124" s="109"/>
+      <c r="J124" s="109"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B125" s="98"/>
-      <c r="C125" s="103"/>
-      <c r="D125" s="104"/>
-      <c r="E125" s="104"/>
-      <c r="F125" s="104"/>
-      <c r="G125" s="104"/>
-      <c r="H125" s="105"/>
-      <c r="I125" s="110"/>
-      <c r="J125" s="110"/>
+      <c r="B125" s="97"/>
+      <c r="C125" s="102"/>
+      <c r="D125" s="103"/>
+      <c r="E125" s="103"/>
+      <c r="F125" s="103"/>
+      <c r="G125" s="103"/>
+      <c r="H125" s="104"/>
+      <c r="I125" s="109"/>
+      <c r="J125" s="109"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B126" s="98"/>
-      <c r="C126" s="103"/>
-      <c r="D126" s="104"/>
-      <c r="E126" s="104"/>
-      <c r="F126" s="104"/>
-      <c r="G126" s="104"/>
-      <c r="H126" s="105"/>
-      <c r="I126" s="110"/>
-      <c r="J126" s="110"/>
+      <c r="B126" s="97"/>
+      <c r="C126" s="102"/>
+      <c r="D126" s="103"/>
+      <c r="E126" s="103"/>
+      <c r="F126" s="103"/>
+      <c r="G126" s="103"/>
+      <c r="H126" s="104"/>
+      <c r="I126" s="109"/>
+      <c r="J126" s="109"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B127" s="98"/>
-      <c r="C127" s="103"/>
-      <c r="D127" s="104"/>
-      <c r="E127" s="104"/>
-      <c r="F127" s="104"/>
-      <c r="G127" s="104"/>
-      <c r="H127" s="105"/>
-      <c r="I127" s="110"/>
-      <c r="J127" s="110"/>
+      <c r="B127" s="97"/>
+      <c r="C127" s="102"/>
+      <c r="D127" s="103"/>
+      <c r="E127" s="103"/>
+      <c r="F127" s="103"/>
+      <c r="G127" s="103"/>
+      <c r="H127" s="104"/>
+      <c r="I127" s="109"/>
+      <c r="J127" s="109"/>
     </row>
     <row r="128" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="98"/>
-      <c r="C128" s="103"/>
-      <c r="D128" s="104"/>
-      <c r="E128" s="104"/>
-      <c r="F128" s="104"/>
-      <c r="G128" s="104"/>
-      <c r="H128" s="105"/>
-      <c r="I128" s="111"/>
-      <c r="J128" s="111"/>
+      <c r="B128" s="97"/>
+      <c r="C128" s="102"/>
+      <c r="D128" s="103"/>
+      <c r="E128" s="103"/>
+      <c r="F128" s="103"/>
+      <c r="G128" s="103"/>
+      <c r="H128" s="104"/>
+      <c r="I128" s="110"/>
+      <c r="J128" s="110"/>
     </row>
     <row r="129" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="98"/>
-      <c r="C129" s="103"/>
-      <c r="D129" s="104"/>
-      <c r="E129" s="104"/>
-      <c r="F129" s="104"/>
-      <c r="G129" s="104"/>
-      <c r="H129" s="105"/>
-      <c r="I129" s="109" t="s">
+      <c r="B129" s="97"/>
+      <c r="C129" s="102"/>
+      <c r="D129" s="103"/>
+      <c r="E129" s="103"/>
+      <c r="F129" s="103"/>
+      <c r="G129" s="103"/>
+      <c r="H129" s="104"/>
+      <c r="I129" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="J129" s="109">
+      <c r="J129" s="108">
         <v>4</v>
       </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B130" s="98"/>
-      <c r="C130" s="103"/>
-      <c r="D130" s="104"/>
-      <c r="E130" s="104"/>
-      <c r="F130" s="104"/>
-      <c r="G130" s="104"/>
-      <c r="H130" s="105"/>
-      <c r="I130" s="110"/>
-      <c r="J130" s="110"/>
+      <c r="B130" s="97"/>
+      <c r="C130" s="102"/>
+      <c r="D130" s="103"/>
+      <c r="E130" s="103"/>
+      <c r="F130" s="103"/>
+      <c r="G130" s="103"/>
+      <c r="H130" s="104"/>
+      <c r="I130" s="109"/>
+      <c r="J130" s="109"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B131" s="98"/>
-      <c r="C131" s="103"/>
-      <c r="D131" s="104"/>
-      <c r="E131" s="104"/>
-      <c r="F131" s="104"/>
-      <c r="G131" s="104"/>
-      <c r="H131" s="105"/>
-      <c r="I131" s="110"/>
-      <c r="J131" s="110"/>
+      <c r="B131" s="97"/>
+      <c r="C131" s="102"/>
+      <c r="D131" s="103"/>
+      <c r="E131" s="103"/>
+      <c r="F131" s="103"/>
+      <c r="G131" s="103"/>
+      <c r="H131" s="104"/>
+      <c r="I131" s="109"/>
+      <c r="J131" s="109"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B132" s="98"/>
-      <c r="C132" s="103"/>
-      <c r="D132" s="104"/>
-      <c r="E132" s="104"/>
-      <c r="F132" s="104"/>
-      <c r="G132" s="104"/>
-      <c r="H132" s="105"/>
-      <c r="I132" s="110"/>
-      <c r="J132" s="110"/>
+      <c r="B132" s="97"/>
+      <c r="C132" s="102"/>
+      <c r="D132" s="103"/>
+      <c r="E132" s="103"/>
+      <c r="F132" s="103"/>
+      <c r="G132" s="103"/>
+      <c r="H132" s="104"/>
+      <c r="I132" s="109"/>
+      <c r="J132" s="109"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B133" s="98"/>
-      <c r="C133" s="103"/>
-      <c r="D133" s="104"/>
-      <c r="E133" s="104"/>
-      <c r="F133" s="104"/>
-      <c r="G133" s="104"/>
-      <c r="H133" s="105"/>
-      <c r="I133" s="110"/>
-      <c r="J133" s="110"/>
+      <c r="B133" s="97"/>
+      <c r="C133" s="102"/>
+      <c r="D133" s="103"/>
+      <c r="E133" s="103"/>
+      <c r="F133" s="103"/>
+      <c r="G133" s="103"/>
+      <c r="H133" s="104"/>
+      <c r="I133" s="109"/>
+      <c r="J133" s="109"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B134" s="98"/>
-      <c r="C134" s="103"/>
-      <c r="D134" s="104"/>
-      <c r="E134" s="104"/>
-      <c r="F134" s="104"/>
-      <c r="G134" s="104"/>
-      <c r="H134" s="105"/>
-      <c r="I134" s="110"/>
-      <c r="J134" s="110"/>
+      <c r="B134" s="97"/>
+      <c r="C134" s="102"/>
+      <c r="D134" s="103"/>
+      <c r="E134" s="103"/>
+      <c r="F134" s="103"/>
+      <c r="G134" s="103"/>
+      <c r="H134" s="104"/>
+      <c r="I134" s="109"/>
+      <c r="J134" s="109"/>
     </row>
     <row r="135" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="99"/>
-      <c r="C135" s="106"/>
-      <c r="D135" s="107"/>
-      <c r="E135" s="107"/>
-      <c r="F135" s="107"/>
-      <c r="G135" s="107"/>
-      <c r="H135" s="108"/>
-      <c r="I135" s="111"/>
-      <c r="J135" s="111"/>
+      <c r="B135" s="98"/>
+      <c r="C135" s="105"/>
+      <c r="D135" s="106"/>
+      <c r="E135" s="106"/>
+      <c r="F135" s="106"/>
+      <c r="G135" s="106"/>
+      <c r="H135" s="107"/>
+      <c r="I135" s="110"/>
+      <c r="J135" s="110"/>
     </row>
     <row r="136" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="42"/>
@@ -6968,234 +6959,234 @@
       <c r="C137" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D137" s="112" t="s">
+      <c r="D137" s="111" t="s">
         <v>286</v>
       </c>
-      <c r="E137" s="112"/>
-      <c r="F137" s="112"/>
-      <c r="G137" s="112"/>
-      <c r="H137" s="112"/>
-      <c r="I137" s="112"/>
-      <c r="J137" s="113"/>
+      <c r="E137" s="111"/>
+      <c r="F137" s="111"/>
+      <c r="G137" s="111"/>
+      <c r="H137" s="111"/>
+      <c r="I137" s="111"/>
+      <c r="J137" s="112"/>
     </row>
     <row r="138" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C138" s="114" t="s">
+      <c r="C138" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="D138" s="112"/>
-      <c r="E138" s="112"/>
-      <c r="F138" s="113"/>
-      <c r="G138" s="114" t="s">
+      <c r="D138" s="111"/>
+      <c r="E138" s="111"/>
+      <c r="F138" s="112"/>
+      <c r="G138" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="H138" s="112"/>
-      <c r="I138" s="112"/>
-      <c r="J138" s="113"/>
+      <c r="H138" s="111"/>
+      <c r="I138" s="111"/>
+      <c r="J138" s="112"/>
     </row>
     <row r="139" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="97" t="s">
+      <c r="B139" s="96" t="s">
         <v>374</v>
       </c>
       <c r="C139" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D139" s="115" t="s">
+      <c r="D139" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="E139" s="115"/>
-      <c r="F139" s="115"/>
-      <c r="G139" s="115"/>
-      <c r="H139" s="115"/>
-      <c r="I139" s="115"/>
-      <c r="J139" s="116"/>
+      <c r="E139" s="114"/>
+      <c r="F139" s="114"/>
+      <c r="G139" s="114"/>
+      <c r="H139" s="114"/>
+      <c r="I139" s="114"/>
+      <c r="J139" s="115"/>
     </row>
     <row r="140" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="98"/>
+      <c r="B140" s="97"/>
       <c r="C140" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D140" s="117" t="s">
+      <c r="D140" s="116" t="s">
         <v>285</v>
       </c>
-      <c r="E140" s="117"/>
-      <c r="F140" s="117"/>
-      <c r="G140" s="117"/>
-      <c r="H140" s="117"/>
-      <c r="I140" s="117"/>
-      <c r="J140" s="118"/>
+      <c r="E140" s="116"/>
+      <c r="F140" s="116"/>
+      <c r="G140" s="116"/>
+      <c r="H140" s="116"/>
+      <c r="I140" s="116"/>
+      <c r="J140" s="117"/>
     </row>
     <row r="141" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="99"/>
+      <c r="B141" s="98"/>
       <c r="C141" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D141" s="119" t="s">
+      <c r="D141" s="118" t="s">
         <v>284</v>
       </c>
-      <c r="E141" s="119"/>
-      <c r="F141" s="119"/>
-      <c r="G141" s="119"/>
-      <c r="H141" s="119"/>
-      <c r="I141" s="119"/>
-      <c r="J141" s="120"/>
+      <c r="E141" s="118"/>
+      <c r="F141" s="118"/>
+      <c r="G141" s="118"/>
+      <c r="H141" s="118"/>
+      <c r="I141" s="118"/>
+      <c r="J141" s="119"/>
     </row>
     <row r="142" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="97" t="s">
+      <c r="B142" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C142" s="100" t="s">
+      <c r="C142" s="99" t="s">
         <v>283</v>
       </c>
-      <c r="D142" s="101"/>
-      <c r="E142" s="101"/>
-      <c r="F142" s="101"/>
-      <c r="G142" s="101"/>
-      <c r="H142" s="102"/>
-      <c r="I142" s="109" t="s">
+      <c r="D142" s="100"/>
+      <c r="E142" s="100"/>
+      <c r="F142" s="100"/>
+      <c r="G142" s="100"/>
+      <c r="H142" s="101"/>
+      <c r="I142" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="J142" s="109" t="s">
+      <c r="J142" s="108" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B143" s="98"/>
-      <c r="C143" s="103"/>
-      <c r="D143" s="104"/>
-      <c r="E143" s="104"/>
-      <c r="F143" s="104"/>
-      <c r="G143" s="104"/>
-      <c r="H143" s="105"/>
-      <c r="I143" s="110"/>
-      <c r="J143" s="110"/>
+      <c r="B143" s="97"/>
+      <c r="C143" s="102"/>
+      <c r="D143" s="103"/>
+      <c r="E143" s="103"/>
+      <c r="F143" s="103"/>
+      <c r="G143" s="103"/>
+      <c r="H143" s="104"/>
+      <c r="I143" s="109"/>
+      <c r="J143" s="109"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B144" s="98"/>
-      <c r="C144" s="103"/>
-      <c r="D144" s="104"/>
-      <c r="E144" s="104"/>
-      <c r="F144" s="104"/>
-      <c r="G144" s="104"/>
-      <c r="H144" s="105"/>
-      <c r="I144" s="110"/>
-      <c r="J144" s="110"/>
+      <c r="B144" s="97"/>
+      <c r="C144" s="102"/>
+      <c r="D144" s="103"/>
+      <c r="E144" s="103"/>
+      <c r="F144" s="103"/>
+      <c r="G144" s="103"/>
+      <c r="H144" s="104"/>
+      <c r="I144" s="109"/>
+      <c r="J144" s="109"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B145" s="98"/>
-      <c r="C145" s="103"/>
-      <c r="D145" s="104"/>
-      <c r="E145" s="104"/>
-      <c r="F145" s="104"/>
-      <c r="G145" s="104"/>
-      <c r="H145" s="105"/>
-      <c r="I145" s="110"/>
-      <c r="J145" s="110"/>
+      <c r="B145" s="97"/>
+      <c r="C145" s="102"/>
+      <c r="D145" s="103"/>
+      <c r="E145" s="103"/>
+      <c r="F145" s="103"/>
+      <c r="G145" s="103"/>
+      <c r="H145" s="104"/>
+      <c r="I145" s="109"/>
+      <c r="J145" s="109"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B146" s="98"/>
-      <c r="C146" s="103"/>
-      <c r="D146" s="104"/>
-      <c r="E146" s="104"/>
-      <c r="F146" s="104"/>
-      <c r="G146" s="104"/>
-      <c r="H146" s="105"/>
-      <c r="I146" s="110"/>
-      <c r="J146" s="110"/>
+      <c r="B146" s="97"/>
+      <c r="C146" s="102"/>
+      <c r="D146" s="103"/>
+      <c r="E146" s="103"/>
+      <c r="F146" s="103"/>
+      <c r="G146" s="103"/>
+      <c r="H146" s="104"/>
+      <c r="I146" s="109"/>
+      <c r="J146" s="109"/>
     </row>
     <row r="147" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="98"/>
-      <c r="C147" s="103"/>
-      <c r="D147" s="104"/>
-      <c r="E147" s="104"/>
-      <c r="F147" s="104"/>
-      <c r="G147" s="104"/>
-      <c r="H147" s="105"/>
-      <c r="I147" s="111"/>
-      <c r="J147" s="111"/>
+      <c r="B147" s="97"/>
+      <c r="C147" s="102"/>
+      <c r="D147" s="103"/>
+      <c r="E147" s="103"/>
+      <c r="F147" s="103"/>
+      <c r="G147" s="103"/>
+      <c r="H147" s="104"/>
+      <c r="I147" s="110"/>
+      <c r="J147" s="110"/>
     </row>
     <row r="148" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="98"/>
-      <c r="C148" s="103"/>
-      <c r="D148" s="104"/>
-      <c r="E148" s="104"/>
-      <c r="F148" s="104"/>
-      <c r="G148" s="104"/>
-      <c r="H148" s="105"/>
-      <c r="I148" s="109" t="s">
+      <c r="B148" s="97"/>
+      <c r="C148" s="102"/>
+      <c r="D148" s="103"/>
+      <c r="E148" s="103"/>
+      <c r="F148" s="103"/>
+      <c r="G148" s="103"/>
+      <c r="H148" s="104"/>
+      <c r="I148" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="J148" s="109">
+      <c r="J148" s="108">
         <v>4</v>
       </c>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B149" s="98"/>
-      <c r="C149" s="103"/>
-      <c r="D149" s="104"/>
-      <c r="E149" s="104"/>
-      <c r="F149" s="104"/>
-      <c r="G149" s="104"/>
-      <c r="H149" s="105"/>
-      <c r="I149" s="110"/>
-      <c r="J149" s="110"/>
+      <c r="B149" s="97"/>
+      <c r="C149" s="102"/>
+      <c r="D149" s="103"/>
+      <c r="E149" s="103"/>
+      <c r="F149" s="103"/>
+      <c r="G149" s="103"/>
+      <c r="H149" s="104"/>
+      <c r="I149" s="109"/>
+      <c r="J149" s="109"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B150" s="98"/>
-      <c r="C150" s="103"/>
-      <c r="D150" s="104"/>
-      <c r="E150" s="104"/>
-      <c r="F150" s="104"/>
-      <c r="G150" s="104"/>
-      <c r="H150" s="105"/>
-      <c r="I150" s="110"/>
-      <c r="J150" s="110"/>
+      <c r="B150" s="97"/>
+      <c r="C150" s="102"/>
+      <c r="D150" s="103"/>
+      <c r="E150" s="103"/>
+      <c r="F150" s="103"/>
+      <c r="G150" s="103"/>
+      <c r="H150" s="104"/>
+      <c r="I150" s="109"/>
+      <c r="J150" s="109"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B151" s="98"/>
-      <c r="C151" s="103"/>
-      <c r="D151" s="104"/>
-      <c r="E151" s="104"/>
-      <c r="F151" s="104"/>
-      <c r="G151" s="104"/>
-      <c r="H151" s="105"/>
-      <c r="I151" s="110"/>
-      <c r="J151" s="110"/>
+      <c r="B151" s="97"/>
+      <c r="C151" s="102"/>
+      <c r="D151" s="103"/>
+      <c r="E151" s="103"/>
+      <c r="F151" s="103"/>
+      <c r="G151" s="103"/>
+      <c r="H151" s="104"/>
+      <c r="I151" s="109"/>
+      <c r="J151" s="109"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B152" s="98"/>
-      <c r="C152" s="103"/>
-      <c r="D152" s="104"/>
-      <c r="E152" s="104"/>
-      <c r="F152" s="104"/>
-      <c r="G152" s="104"/>
-      <c r="H152" s="105"/>
-      <c r="I152" s="110"/>
-      <c r="J152" s="110"/>
+      <c r="B152" s="97"/>
+      <c r="C152" s="102"/>
+      <c r="D152" s="103"/>
+      <c r="E152" s="103"/>
+      <c r="F152" s="103"/>
+      <c r="G152" s="103"/>
+      <c r="H152" s="104"/>
+      <c r="I152" s="109"/>
+      <c r="J152" s="109"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B153" s="98"/>
-      <c r="C153" s="103"/>
-      <c r="D153" s="104"/>
-      <c r="E153" s="104"/>
-      <c r="F153" s="104"/>
-      <c r="G153" s="104"/>
-      <c r="H153" s="105"/>
-      <c r="I153" s="110"/>
-      <c r="J153" s="110"/>
+      <c r="B153" s="97"/>
+      <c r="C153" s="102"/>
+      <c r="D153" s="103"/>
+      <c r="E153" s="103"/>
+      <c r="F153" s="103"/>
+      <c r="G153" s="103"/>
+      <c r="H153" s="104"/>
+      <c r="I153" s="109"/>
+      <c r="J153" s="109"/>
     </row>
     <row r="154" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="99"/>
-      <c r="C154" s="106"/>
-      <c r="D154" s="107"/>
-      <c r="E154" s="107"/>
-      <c r="F154" s="107"/>
-      <c r="G154" s="107"/>
-      <c r="H154" s="108"/>
-      <c r="I154" s="111"/>
-      <c r="J154" s="111"/>
+      <c r="B154" s="98"/>
+      <c r="C154" s="105"/>
+      <c r="D154" s="106"/>
+      <c r="E154" s="106"/>
+      <c r="F154" s="106"/>
+      <c r="G154" s="106"/>
+      <c r="H154" s="107"/>
+      <c r="I154" s="110"/>
+      <c r="J154" s="110"/>
     </row>
     <row r="155" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B155" s="42"/>
@@ -7215,234 +7206,234 @@
       <c r="C156" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D156" s="112" t="s">
+      <c r="D156" s="111" t="s">
         <v>281</v>
       </c>
-      <c r="E156" s="112"/>
-      <c r="F156" s="112"/>
-      <c r="G156" s="112"/>
-      <c r="H156" s="112"/>
-      <c r="I156" s="112"/>
-      <c r="J156" s="113"/>
+      <c r="E156" s="111"/>
+      <c r="F156" s="111"/>
+      <c r="G156" s="111"/>
+      <c r="H156" s="111"/>
+      <c r="I156" s="111"/>
+      <c r="J156" s="112"/>
     </row>
     <row r="157" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B157" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C157" s="114" t="s">
+      <c r="C157" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D157" s="112"/>
-      <c r="E157" s="112"/>
-      <c r="F157" s="113"/>
-      <c r="G157" s="114" t="s">
+      <c r="D157" s="111"/>
+      <c r="E157" s="111"/>
+      <c r="F157" s="112"/>
+      <c r="G157" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="H157" s="112"/>
-      <c r="I157" s="112"/>
-      <c r="J157" s="113"/>
+      <c r="H157" s="111"/>
+      <c r="I157" s="111"/>
+      <c r="J157" s="112"/>
     </row>
     <row r="158" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="97" t="s">
+      <c r="B158" s="96" t="s">
         <v>375</v>
       </c>
       <c r="C158" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D158" s="115" t="s">
+      <c r="D158" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="E158" s="115"/>
-      <c r="F158" s="115"/>
-      <c r="G158" s="115"/>
-      <c r="H158" s="115"/>
-      <c r="I158" s="115"/>
-      <c r="J158" s="116"/>
+      <c r="E158" s="114"/>
+      <c r="F158" s="114"/>
+      <c r="G158" s="114"/>
+      <c r="H158" s="114"/>
+      <c r="I158" s="114"/>
+      <c r="J158" s="115"/>
     </row>
     <row r="159" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="98"/>
+      <c r="B159" s="97"/>
       <c r="C159" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D159" s="117" t="s">
+      <c r="D159" s="116" t="s">
         <v>280</v>
       </c>
-      <c r="E159" s="117"/>
-      <c r="F159" s="117"/>
-      <c r="G159" s="117"/>
-      <c r="H159" s="117"/>
-      <c r="I159" s="117"/>
-      <c r="J159" s="118"/>
+      <c r="E159" s="116"/>
+      <c r="F159" s="116"/>
+      <c r="G159" s="116"/>
+      <c r="H159" s="116"/>
+      <c r="I159" s="116"/>
+      <c r="J159" s="117"/>
     </row>
     <row r="160" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="99"/>
+      <c r="B160" s="98"/>
       <c r="C160" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D160" s="119" t="s">
+      <c r="D160" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="E160" s="119"/>
-      <c r="F160" s="119"/>
-      <c r="G160" s="119"/>
-      <c r="H160" s="119"/>
-      <c r="I160" s="119"/>
-      <c r="J160" s="120"/>
+      <c r="E160" s="118"/>
+      <c r="F160" s="118"/>
+      <c r="G160" s="118"/>
+      <c r="H160" s="118"/>
+      <c r="I160" s="118"/>
+      <c r="J160" s="119"/>
     </row>
     <row r="161" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="97" t="s">
+      <c r="B161" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C161" s="100" t="s">
+      <c r="C161" s="99" t="s">
         <v>278</v>
       </c>
-      <c r="D161" s="101"/>
-      <c r="E161" s="101"/>
-      <c r="F161" s="101"/>
-      <c r="G161" s="101"/>
-      <c r="H161" s="102"/>
-      <c r="I161" s="109" t="s">
+      <c r="D161" s="100"/>
+      <c r="E161" s="100"/>
+      <c r="F161" s="100"/>
+      <c r="G161" s="100"/>
+      <c r="H161" s="101"/>
+      <c r="I161" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="J161" s="109" t="s">
+      <c r="J161" s="108" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B162" s="98"/>
-      <c r="C162" s="103"/>
-      <c r="D162" s="104"/>
-      <c r="E162" s="104"/>
-      <c r="F162" s="104"/>
-      <c r="G162" s="104"/>
-      <c r="H162" s="105"/>
-      <c r="I162" s="110"/>
-      <c r="J162" s="110"/>
+      <c r="B162" s="97"/>
+      <c r="C162" s="102"/>
+      <c r="D162" s="103"/>
+      <c r="E162" s="103"/>
+      <c r="F162" s="103"/>
+      <c r="G162" s="103"/>
+      <c r="H162" s="104"/>
+      <c r="I162" s="109"/>
+      <c r="J162" s="109"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B163" s="98"/>
-      <c r="C163" s="103"/>
-      <c r="D163" s="104"/>
-      <c r="E163" s="104"/>
-      <c r="F163" s="104"/>
-      <c r="G163" s="104"/>
-      <c r="H163" s="105"/>
-      <c r="I163" s="110"/>
-      <c r="J163" s="110"/>
+      <c r="B163" s="97"/>
+      <c r="C163" s="102"/>
+      <c r="D163" s="103"/>
+      <c r="E163" s="103"/>
+      <c r="F163" s="103"/>
+      <c r="G163" s="103"/>
+      <c r="H163" s="104"/>
+      <c r="I163" s="109"/>
+      <c r="J163" s="109"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B164" s="98"/>
-      <c r="C164" s="103"/>
-      <c r="D164" s="104"/>
-      <c r="E164" s="104"/>
-      <c r="F164" s="104"/>
-      <c r="G164" s="104"/>
-      <c r="H164" s="105"/>
-      <c r="I164" s="110"/>
-      <c r="J164" s="110"/>
+      <c r="B164" s="97"/>
+      <c r="C164" s="102"/>
+      <c r="D164" s="103"/>
+      <c r="E164" s="103"/>
+      <c r="F164" s="103"/>
+      <c r="G164" s="103"/>
+      <c r="H164" s="104"/>
+      <c r="I164" s="109"/>
+      <c r="J164" s="109"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B165" s="98"/>
-      <c r="C165" s="103"/>
-      <c r="D165" s="104"/>
-      <c r="E165" s="104"/>
-      <c r="F165" s="104"/>
-      <c r="G165" s="104"/>
-      <c r="H165" s="105"/>
-      <c r="I165" s="110"/>
-      <c r="J165" s="110"/>
+      <c r="B165" s="97"/>
+      <c r="C165" s="102"/>
+      <c r="D165" s="103"/>
+      <c r="E165" s="103"/>
+      <c r="F165" s="103"/>
+      <c r="G165" s="103"/>
+      <c r="H165" s="104"/>
+      <c r="I165" s="109"/>
+      <c r="J165" s="109"/>
     </row>
     <row r="166" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="98"/>
-      <c r="C166" s="103"/>
-      <c r="D166" s="104"/>
-      <c r="E166" s="104"/>
-      <c r="F166" s="104"/>
-      <c r="G166" s="104"/>
-      <c r="H166" s="105"/>
-      <c r="I166" s="111"/>
-      <c r="J166" s="111"/>
+      <c r="B166" s="97"/>
+      <c r="C166" s="102"/>
+      <c r="D166" s="103"/>
+      <c r="E166" s="103"/>
+      <c r="F166" s="103"/>
+      <c r="G166" s="103"/>
+      <c r="H166" s="104"/>
+      <c r="I166" s="110"/>
+      <c r="J166" s="110"/>
     </row>
     <row r="167" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="98"/>
-      <c r="C167" s="103"/>
-      <c r="D167" s="104"/>
-      <c r="E167" s="104"/>
-      <c r="F167" s="104"/>
-      <c r="G167" s="104"/>
-      <c r="H167" s="105"/>
-      <c r="I167" s="109" t="s">
+      <c r="B167" s="97"/>
+      <c r="C167" s="102"/>
+      <c r="D167" s="103"/>
+      <c r="E167" s="103"/>
+      <c r="F167" s="103"/>
+      <c r="G167" s="103"/>
+      <c r="H167" s="104"/>
+      <c r="I167" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="J167" s="109">
+      <c r="J167" s="108">
         <v>3</v>
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B168" s="98"/>
-      <c r="C168" s="103"/>
-      <c r="D168" s="104"/>
-      <c r="E168" s="104"/>
-      <c r="F168" s="104"/>
-      <c r="G168" s="104"/>
-      <c r="H168" s="105"/>
-      <c r="I168" s="110"/>
-      <c r="J168" s="110"/>
+      <c r="B168" s="97"/>
+      <c r="C168" s="102"/>
+      <c r="D168" s="103"/>
+      <c r="E168" s="103"/>
+      <c r="F168" s="103"/>
+      <c r="G168" s="103"/>
+      <c r="H168" s="104"/>
+      <c r="I168" s="109"/>
+      <c r="J168" s="109"/>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B169" s="98"/>
-      <c r="C169" s="103"/>
-      <c r="D169" s="104"/>
-      <c r="E169" s="104"/>
-      <c r="F169" s="104"/>
-      <c r="G169" s="104"/>
-      <c r="H169" s="105"/>
-      <c r="I169" s="110"/>
-      <c r="J169" s="110"/>
+      <c r="B169" s="97"/>
+      <c r="C169" s="102"/>
+      <c r="D169" s="103"/>
+      <c r="E169" s="103"/>
+      <c r="F169" s="103"/>
+      <c r="G169" s="103"/>
+      <c r="H169" s="104"/>
+      <c r="I169" s="109"/>
+      <c r="J169" s="109"/>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B170" s="98"/>
-      <c r="C170" s="103"/>
-      <c r="D170" s="104"/>
-      <c r="E170" s="104"/>
-      <c r="F170" s="104"/>
-      <c r="G170" s="104"/>
-      <c r="H170" s="105"/>
-      <c r="I170" s="110"/>
-      <c r="J170" s="110"/>
+      <c r="B170" s="97"/>
+      <c r="C170" s="102"/>
+      <c r="D170" s="103"/>
+      <c r="E170" s="103"/>
+      <c r="F170" s="103"/>
+      <c r="G170" s="103"/>
+      <c r="H170" s="104"/>
+      <c r="I170" s="109"/>
+      <c r="J170" s="109"/>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B171" s="98"/>
-      <c r="C171" s="103"/>
-      <c r="D171" s="104"/>
-      <c r="E171" s="104"/>
-      <c r="F171" s="104"/>
-      <c r="G171" s="104"/>
-      <c r="H171" s="105"/>
-      <c r="I171" s="110"/>
-      <c r="J171" s="110"/>
+      <c r="B171" s="97"/>
+      <c r="C171" s="102"/>
+      <c r="D171" s="103"/>
+      <c r="E171" s="103"/>
+      <c r="F171" s="103"/>
+      <c r="G171" s="103"/>
+      <c r="H171" s="104"/>
+      <c r="I171" s="109"/>
+      <c r="J171" s="109"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B172" s="98"/>
-      <c r="C172" s="103"/>
-      <c r="D172" s="104"/>
-      <c r="E172" s="104"/>
-      <c r="F172" s="104"/>
-      <c r="G172" s="104"/>
-      <c r="H172" s="105"/>
-      <c r="I172" s="110"/>
-      <c r="J172" s="110"/>
+      <c r="B172" s="97"/>
+      <c r="C172" s="102"/>
+      <c r="D172" s="103"/>
+      <c r="E172" s="103"/>
+      <c r="F172" s="103"/>
+      <c r="G172" s="103"/>
+      <c r="H172" s="104"/>
+      <c r="I172" s="109"/>
+      <c r="J172" s="109"/>
     </row>
     <row r="173" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="99"/>
-      <c r="C173" s="106"/>
-      <c r="D173" s="107"/>
-      <c r="E173" s="107"/>
-      <c r="F173" s="107"/>
-      <c r="G173" s="107"/>
-      <c r="H173" s="108"/>
-      <c r="I173" s="111"/>
-      <c r="J173" s="111"/>
+      <c r="B173" s="98"/>
+      <c r="C173" s="105"/>
+      <c r="D173" s="106"/>
+      <c r="E173" s="106"/>
+      <c r="F173" s="106"/>
+      <c r="G173" s="106"/>
+      <c r="H173" s="107"/>
+      <c r="I173" s="110"/>
+      <c r="J173" s="110"/>
     </row>
     <row r="174" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B174" s="42"/>
@@ -7462,234 +7453,234 @@
       <c r="C175" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D175" s="112" t="s">
+      <c r="D175" s="111" t="s">
         <v>277</v>
       </c>
-      <c r="E175" s="112"/>
-      <c r="F175" s="112"/>
-      <c r="G175" s="112"/>
-      <c r="H175" s="112"/>
-      <c r="I175" s="112"/>
-      <c r="J175" s="113"/>
+      <c r="E175" s="111"/>
+      <c r="F175" s="111"/>
+      <c r="G175" s="111"/>
+      <c r="H175" s="111"/>
+      <c r="I175" s="111"/>
+      <c r="J175" s="112"/>
     </row>
     <row r="176" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B176" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="C176" s="114" t="s">
+      <c r="C176" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="D176" s="112"/>
-      <c r="E176" s="112"/>
-      <c r="F176" s="113"/>
-      <c r="G176" s="114" t="s">
+      <c r="D176" s="111"/>
+      <c r="E176" s="111"/>
+      <c r="F176" s="112"/>
+      <c r="G176" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="H176" s="112"/>
-      <c r="I176" s="112"/>
-      <c r="J176" s="113"/>
+      <c r="H176" s="111"/>
+      <c r="I176" s="111"/>
+      <c r="J176" s="112"/>
     </row>
     <row r="177" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="97" t="s">
+      <c r="B177" s="96" t="s">
         <v>376</v>
       </c>
       <c r="C177" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D177" s="115" t="s">
+      <c r="D177" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="E177" s="115"/>
-      <c r="F177" s="115"/>
-      <c r="G177" s="115"/>
-      <c r="H177" s="115"/>
-      <c r="I177" s="115"/>
-      <c r="J177" s="116"/>
+      <c r="E177" s="114"/>
+      <c r="F177" s="114"/>
+      <c r="G177" s="114"/>
+      <c r="H177" s="114"/>
+      <c r="I177" s="114"/>
+      <c r="J177" s="115"/>
     </row>
     <row r="178" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="98"/>
+      <c r="B178" s="97"/>
       <c r="C178" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D178" s="117" t="s">
+      <c r="D178" s="116" t="s">
         <v>276</v>
       </c>
-      <c r="E178" s="117"/>
-      <c r="F178" s="117"/>
-      <c r="G178" s="117"/>
-      <c r="H178" s="117"/>
-      <c r="I178" s="117"/>
-      <c r="J178" s="118"/>
+      <c r="E178" s="116"/>
+      <c r="F178" s="116"/>
+      <c r="G178" s="116"/>
+      <c r="H178" s="116"/>
+      <c r="I178" s="116"/>
+      <c r="J178" s="117"/>
     </row>
     <row r="179" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="99"/>
+      <c r="B179" s="98"/>
       <c r="C179" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D179" s="119" t="s">
+      <c r="D179" s="118" t="s">
         <v>275</v>
       </c>
-      <c r="E179" s="119"/>
-      <c r="F179" s="119"/>
-      <c r="G179" s="119"/>
-      <c r="H179" s="119"/>
-      <c r="I179" s="119"/>
-      <c r="J179" s="120"/>
+      <c r="E179" s="118"/>
+      <c r="F179" s="118"/>
+      <c r="G179" s="118"/>
+      <c r="H179" s="118"/>
+      <c r="I179" s="118"/>
+      <c r="J179" s="119"/>
     </row>
     <row r="180" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="97" t="s">
+      <c r="B180" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C180" s="100" t="s">
+      <c r="C180" s="99" t="s">
         <v>274</v>
       </c>
-      <c r="D180" s="101"/>
-      <c r="E180" s="101"/>
-      <c r="F180" s="101"/>
-      <c r="G180" s="101"/>
-      <c r="H180" s="102"/>
-      <c r="I180" s="109" t="s">
+      <c r="D180" s="100"/>
+      <c r="E180" s="100"/>
+      <c r="F180" s="100"/>
+      <c r="G180" s="100"/>
+      <c r="H180" s="101"/>
+      <c r="I180" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="J180" s="109" t="s">
+      <c r="J180" s="108" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="181" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="98"/>
-      <c r="C181" s="103"/>
-      <c r="D181" s="104"/>
-      <c r="E181" s="104"/>
-      <c r="F181" s="104"/>
-      <c r="G181" s="104"/>
-      <c r="H181" s="105"/>
-      <c r="I181" s="110"/>
-      <c r="J181" s="110"/>
+      <c r="B181" s="97"/>
+      <c r="C181" s="102"/>
+      <c r="D181" s="103"/>
+      <c r="E181" s="103"/>
+      <c r="F181" s="103"/>
+      <c r="G181" s="103"/>
+      <c r="H181" s="104"/>
+      <c r="I181" s="109"/>
+      <c r="J181" s="109"/>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B182" s="98"/>
-      <c r="C182" s="103"/>
-      <c r="D182" s="104"/>
-      <c r="E182" s="104"/>
-      <c r="F182" s="104"/>
-      <c r="G182" s="104"/>
-      <c r="H182" s="105"/>
-      <c r="I182" s="110"/>
-      <c r="J182" s="110"/>
+      <c r="B182" s="97"/>
+      <c r="C182" s="102"/>
+      <c r="D182" s="103"/>
+      <c r="E182" s="103"/>
+      <c r="F182" s="103"/>
+      <c r="G182" s="103"/>
+      <c r="H182" s="104"/>
+      <c r="I182" s="109"/>
+      <c r="J182" s="109"/>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B183" s="98"/>
-      <c r="C183" s="103"/>
-      <c r="D183" s="104"/>
-      <c r="E183" s="104"/>
-      <c r="F183" s="104"/>
-      <c r="G183" s="104"/>
-      <c r="H183" s="105"/>
-      <c r="I183" s="110"/>
-      <c r="J183" s="110"/>
+      <c r="B183" s="97"/>
+      <c r="C183" s="102"/>
+      <c r="D183" s="103"/>
+      <c r="E183" s="103"/>
+      <c r="F183" s="103"/>
+      <c r="G183" s="103"/>
+      <c r="H183" s="104"/>
+      <c r="I183" s="109"/>
+      <c r="J183" s="109"/>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B184" s="98"/>
-      <c r="C184" s="103"/>
-      <c r="D184" s="104"/>
-      <c r="E184" s="104"/>
-      <c r="F184" s="104"/>
-      <c r="G184" s="104"/>
-      <c r="H184" s="105"/>
-      <c r="I184" s="110"/>
-      <c r="J184" s="110"/>
+      <c r="B184" s="97"/>
+      <c r="C184" s="102"/>
+      <c r="D184" s="103"/>
+      <c r="E184" s="103"/>
+      <c r="F184" s="103"/>
+      <c r="G184" s="103"/>
+      <c r="H184" s="104"/>
+      <c r="I184" s="109"/>
+      <c r="J184" s="109"/>
     </row>
     <row r="185" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="98"/>
-      <c r="C185" s="103"/>
-      <c r="D185" s="104"/>
-      <c r="E185" s="104"/>
-      <c r="F185" s="104"/>
-      <c r="G185" s="104"/>
-      <c r="H185" s="105"/>
-      <c r="I185" s="111"/>
-      <c r="J185" s="111"/>
+      <c r="B185" s="97"/>
+      <c r="C185" s="102"/>
+      <c r="D185" s="103"/>
+      <c r="E185" s="103"/>
+      <c r="F185" s="103"/>
+      <c r="G185" s="103"/>
+      <c r="H185" s="104"/>
+      <c r="I185" s="110"/>
+      <c r="J185" s="110"/>
     </row>
     <row r="186" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="98"/>
-      <c r="C186" s="103"/>
-      <c r="D186" s="104"/>
-      <c r="E186" s="104"/>
-      <c r="F186" s="104"/>
-      <c r="G186" s="104"/>
-      <c r="H186" s="105"/>
-      <c r="I186" s="109" t="s">
+      <c r="B186" s="97"/>
+      <c r="C186" s="102"/>
+      <c r="D186" s="103"/>
+      <c r="E186" s="103"/>
+      <c r="F186" s="103"/>
+      <c r="G186" s="103"/>
+      <c r="H186" s="104"/>
+      <c r="I186" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="J186" s="109">
+      <c r="J186" s="108">
         <v>5</v>
       </c>
     </row>
     <row r="187" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="98"/>
-      <c r="C187" s="103"/>
-      <c r="D187" s="104"/>
-      <c r="E187" s="104"/>
-      <c r="F187" s="104"/>
-      <c r="G187" s="104"/>
-      <c r="H187" s="105"/>
-      <c r="I187" s="110"/>
-      <c r="J187" s="110"/>
+      <c r="B187" s="97"/>
+      <c r="C187" s="102"/>
+      <c r="D187" s="103"/>
+      <c r="E187" s="103"/>
+      <c r="F187" s="103"/>
+      <c r="G187" s="103"/>
+      <c r="H187" s="104"/>
+      <c r="I187" s="109"/>
+      <c r="J187" s="109"/>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B188" s="98"/>
-      <c r="C188" s="103"/>
-      <c r="D188" s="104"/>
-      <c r="E188" s="104"/>
-      <c r="F188" s="104"/>
-      <c r="G188" s="104"/>
-      <c r="H188" s="105"/>
-      <c r="I188" s="110"/>
-      <c r="J188" s="110"/>
+      <c r="B188" s="97"/>
+      <c r="C188" s="102"/>
+      <c r="D188" s="103"/>
+      <c r="E188" s="103"/>
+      <c r="F188" s="103"/>
+      <c r="G188" s="103"/>
+      <c r="H188" s="104"/>
+      <c r="I188" s="109"/>
+      <c r="J188" s="109"/>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B189" s="98"/>
-      <c r="C189" s="103"/>
-      <c r="D189" s="104"/>
-      <c r="E189" s="104"/>
-      <c r="F189" s="104"/>
-      <c r="G189" s="104"/>
-      <c r="H189" s="105"/>
-      <c r="I189" s="110"/>
-      <c r="J189" s="110"/>
+      <c r="B189" s="97"/>
+      <c r="C189" s="102"/>
+      <c r="D189" s="103"/>
+      <c r="E189" s="103"/>
+      <c r="F189" s="103"/>
+      <c r="G189" s="103"/>
+      <c r="H189" s="104"/>
+      <c r="I189" s="109"/>
+      <c r="J189" s="109"/>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B190" s="98"/>
-      <c r="C190" s="103"/>
-      <c r="D190" s="104"/>
-      <c r="E190" s="104"/>
-      <c r="F190" s="104"/>
-      <c r="G190" s="104"/>
-      <c r="H190" s="105"/>
-      <c r="I190" s="110"/>
-      <c r="J190" s="110"/>
+      <c r="B190" s="97"/>
+      <c r="C190" s="102"/>
+      <c r="D190" s="103"/>
+      <c r="E190" s="103"/>
+      <c r="F190" s="103"/>
+      <c r="G190" s="103"/>
+      <c r="H190" s="104"/>
+      <c r="I190" s="109"/>
+      <c r="J190" s="109"/>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B191" s="98"/>
-      <c r="C191" s="103"/>
-      <c r="D191" s="104"/>
-      <c r="E191" s="104"/>
-      <c r="F191" s="104"/>
-      <c r="G191" s="104"/>
-      <c r="H191" s="105"/>
-      <c r="I191" s="110"/>
-      <c r="J191" s="110"/>
+      <c r="B191" s="97"/>
+      <c r="C191" s="102"/>
+      <c r="D191" s="103"/>
+      <c r="E191" s="103"/>
+      <c r="F191" s="103"/>
+      <c r="G191" s="103"/>
+      <c r="H191" s="104"/>
+      <c r="I191" s="109"/>
+      <c r="J191" s="109"/>
     </row>
     <row r="192" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="99"/>
-      <c r="C192" s="106"/>
-      <c r="D192" s="107"/>
-      <c r="E192" s="107"/>
-      <c r="F192" s="107"/>
-      <c r="G192" s="107"/>
-      <c r="H192" s="108"/>
-      <c r="I192" s="111"/>
-      <c r="J192" s="111"/>
+      <c r="B192" s="98"/>
+      <c r="C192" s="105"/>
+      <c r="D192" s="106"/>
+      <c r="E192" s="106"/>
+      <c r="F192" s="106"/>
+      <c r="G192" s="106"/>
+      <c r="H192" s="107"/>
+      <c r="I192" s="110"/>
+      <c r="J192" s="110"/>
     </row>
     <row r="193" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B193" s="42"/>
@@ -7709,234 +7700,234 @@
       <c r="C194" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D194" s="112" t="s">
+      <c r="D194" s="111" t="s">
         <v>273</v>
       </c>
-      <c r="E194" s="112"/>
-      <c r="F194" s="112"/>
-      <c r="G194" s="112"/>
-      <c r="H194" s="112"/>
-      <c r="I194" s="112"/>
-      <c r="J194" s="113"/>
+      <c r="E194" s="111"/>
+      <c r="F194" s="111"/>
+      <c r="G194" s="111"/>
+      <c r="H194" s="111"/>
+      <c r="I194" s="111"/>
+      <c r="J194" s="112"/>
     </row>
     <row r="195" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B195" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="C195" s="114" t="s">
+      <c r="C195" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="D195" s="112"/>
-      <c r="E195" s="112"/>
-      <c r="F195" s="113"/>
-      <c r="G195" s="114" t="s">
+      <c r="D195" s="111"/>
+      <c r="E195" s="111"/>
+      <c r="F195" s="112"/>
+      <c r="G195" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="H195" s="112"/>
-      <c r="I195" s="112"/>
-      <c r="J195" s="113"/>
+      <c r="H195" s="111"/>
+      <c r="I195" s="111"/>
+      <c r="J195" s="112"/>
     </row>
     <row r="196" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="97" t="s">
+      <c r="B196" s="96" t="s">
         <v>377</v>
       </c>
       <c r="C196" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D196" s="115" t="s">
+      <c r="D196" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="E196" s="115"/>
-      <c r="F196" s="115"/>
-      <c r="G196" s="115"/>
-      <c r="H196" s="115"/>
-      <c r="I196" s="115"/>
-      <c r="J196" s="116"/>
+      <c r="E196" s="114"/>
+      <c r="F196" s="114"/>
+      <c r="G196" s="114"/>
+      <c r="H196" s="114"/>
+      <c r="I196" s="114"/>
+      <c r="J196" s="115"/>
     </row>
     <row r="197" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="98"/>
+      <c r="B197" s="97"/>
       <c r="C197" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D197" s="117" t="s">
+      <c r="D197" s="116" t="s">
         <v>272</v>
       </c>
-      <c r="E197" s="117"/>
-      <c r="F197" s="117"/>
-      <c r="G197" s="117"/>
-      <c r="H197" s="117"/>
-      <c r="I197" s="117"/>
-      <c r="J197" s="118"/>
+      <c r="E197" s="116"/>
+      <c r="F197" s="116"/>
+      <c r="G197" s="116"/>
+      <c r="H197" s="116"/>
+      <c r="I197" s="116"/>
+      <c r="J197" s="117"/>
     </row>
     <row r="198" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="99"/>
+      <c r="B198" s="98"/>
       <c r="C198" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D198" s="119" t="s">
+      <c r="D198" s="118" t="s">
         <v>271</v>
       </c>
-      <c r="E198" s="119"/>
-      <c r="F198" s="119"/>
-      <c r="G198" s="119"/>
-      <c r="H198" s="119"/>
-      <c r="I198" s="119"/>
-      <c r="J198" s="120"/>
+      <c r="E198" s="118"/>
+      <c r="F198" s="118"/>
+      <c r="G198" s="118"/>
+      <c r="H198" s="118"/>
+      <c r="I198" s="118"/>
+      <c r="J198" s="119"/>
     </row>
     <row r="199" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="97" t="s">
+      <c r="B199" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C199" s="100" t="s">
+      <c r="C199" s="99" t="s">
         <v>270</v>
       </c>
-      <c r="D199" s="101"/>
-      <c r="E199" s="101"/>
-      <c r="F199" s="101"/>
-      <c r="G199" s="101"/>
-      <c r="H199" s="102"/>
-      <c r="I199" s="109" t="s">
+      <c r="D199" s="100"/>
+      <c r="E199" s="100"/>
+      <c r="F199" s="100"/>
+      <c r="G199" s="100"/>
+      <c r="H199" s="101"/>
+      <c r="I199" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="J199" s="109" t="s">
+      <c r="J199" s="108" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B200" s="98"/>
-      <c r="C200" s="103"/>
-      <c r="D200" s="104"/>
-      <c r="E200" s="104"/>
-      <c r="F200" s="104"/>
-      <c r="G200" s="104"/>
-      <c r="H200" s="105"/>
-      <c r="I200" s="110"/>
-      <c r="J200" s="110"/>
+      <c r="B200" s="97"/>
+      <c r="C200" s="102"/>
+      <c r="D200" s="103"/>
+      <c r="E200" s="103"/>
+      <c r="F200" s="103"/>
+      <c r="G200" s="103"/>
+      <c r="H200" s="104"/>
+      <c r="I200" s="109"/>
+      <c r="J200" s="109"/>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B201" s="98"/>
-      <c r="C201" s="103"/>
-      <c r="D201" s="104"/>
-      <c r="E201" s="104"/>
-      <c r="F201" s="104"/>
-      <c r="G201" s="104"/>
-      <c r="H201" s="105"/>
-      <c r="I201" s="110"/>
-      <c r="J201" s="110"/>
+      <c r="B201" s="97"/>
+      <c r="C201" s="102"/>
+      <c r="D201" s="103"/>
+      <c r="E201" s="103"/>
+      <c r="F201" s="103"/>
+      <c r="G201" s="103"/>
+      <c r="H201" s="104"/>
+      <c r="I201" s="109"/>
+      <c r="J201" s="109"/>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B202" s="98"/>
-      <c r="C202" s="103"/>
-      <c r="D202" s="104"/>
-      <c r="E202" s="104"/>
-      <c r="F202" s="104"/>
-      <c r="G202" s="104"/>
-      <c r="H202" s="105"/>
-      <c r="I202" s="110"/>
-      <c r="J202" s="110"/>
+      <c r="B202" s="97"/>
+      <c r="C202" s="102"/>
+      <c r="D202" s="103"/>
+      <c r="E202" s="103"/>
+      <c r="F202" s="103"/>
+      <c r="G202" s="103"/>
+      <c r="H202" s="104"/>
+      <c r="I202" s="109"/>
+      <c r="J202" s="109"/>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B203" s="98"/>
-      <c r="C203" s="103"/>
-      <c r="D203" s="104"/>
-      <c r="E203" s="104"/>
-      <c r="F203" s="104"/>
-      <c r="G203" s="104"/>
-      <c r="H203" s="105"/>
-      <c r="I203" s="110"/>
-      <c r="J203" s="110"/>
+      <c r="B203" s="97"/>
+      <c r="C203" s="102"/>
+      <c r="D203" s="103"/>
+      <c r="E203" s="103"/>
+      <c r="F203" s="103"/>
+      <c r="G203" s="103"/>
+      <c r="H203" s="104"/>
+      <c r="I203" s="109"/>
+      <c r="J203" s="109"/>
     </row>
     <row r="204" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="98"/>
-      <c r="C204" s="103"/>
-      <c r="D204" s="104"/>
-      <c r="E204" s="104"/>
-      <c r="F204" s="104"/>
-      <c r="G204" s="104"/>
-      <c r="H204" s="105"/>
-      <c r="I204" s="111"/>
-      <c r="J204" s="111"/>
+      <c r="B204" s="97"/>
+      <c r="C204" s="102"/>
+      <c r="D204" s="103"/>
+      <c r="E204" s="103"/>
+      <c r="F204" s="103"/>
+      <c r="G204" s="103"/>
+      <c r="H204" s="104"/>
+      <c r="I204" s="110"/>
+      <c r="J204" s="110"/>
     </row>
     <row r="205" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="98"/>
-      <c r="C205" s="103"/>
-      <c r="D205" s="104"/>
-      <c r="E205" s="104"/>
-      <c r="F205" s="104"/>
-      <c r="G205" s="104"/>
-      <c r="H205" s="105"/>
-      <c r="I205" s="109" t="s">
+      <c r="B205" s="97"/>
+      <c r="C205" s="102"/>
+      <c r="D205" s="103"/>
+      <c r="E205" s="103"/>
+      <c r="F205" s="103"/>
+      <c r="G205" s="103"/>
+      <c r="H205" s="104"/>
+      <c r="I205" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="J205" s="109">
+      <c r="J205" s="108">
         <v>3</v>
       </c>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B206" s="98"/>
-      <c r="C206" s="103"/>
-      <c r="D206" s="104"/>
-      <c r="E206" s="104"/>
-      <c r="F206" s="104"/>
-      <c r="G206" s="104"/>
-      <c r="H206" s="105"/>
-      <c r="I206" s="110"/>
-      <c r="J206" s="110"/>
+      <c r="B206" s="97"/>
+      <c r="C206" s="102"/>
+      <c r="D206" s="103"/>
+      <c r="E206" s="103"/>
+      <c r="F206" s="103"/>
+      <c r="G206" s="103"/>
+      <c r="H206" s="104"/>
+      <c r="I206" s="109"/>
+      <c r="J206" s="109"/>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B207" s="98"/>
-      <c r="C207" s="103"/>
-      <c r="D207" s="104"/>
-      <c r="E207" s="104"/>
-      <c r="F207" s="104"/>
-      <c r="G207" s="104"/>
-      <c r="H207" s="105"/>
-      <c r="I207" s="110"/>
-      <c r="J207" s="110"/>
+      <c r="B207" s="97"/>
+      <c r="C207" s="102"/>
+      <c r="D207" s="103"/>
+      <c r="E207" s="103"/>
+      <c r="F207" s="103"/>
+      <c r="G207" s="103"/>
+      <c r="H207" s="104"/>
+      <c r="I207" s="109"/>
+      <c r="J207" s="109"/>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B208" s="98"/>
-      <c r="C208" s="103"/>
-      <c r="D208" s="104"/>
-      <c r="E208" s="104"/>
-      <c r="F208" s="104"/>
-      <c r="G208" s="104"/>
-      <c r="H208" s="105"/>
-      <c r="I208" s="110"/>
-      <c r="J208" s="110"/>
+      <c r="B208" s="97"/>
+      <c r="C208" s="102"/>
+      <c r="D208" s="103"/>
+      <c r="E208" s="103"/>
+      <c r="F208" s="103"/>
+      <c r="G208" s="103"/>
+      <c r="H208" s="104"/>
+      <c r="I208" s="109"/>
+      <c r="J208" s="109"/>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B209" s="98"/>
-      <c r="C209" s="103"/>
-      <c r="D209" s="104"/>
-      <c r="E209" s="104"/>
-      <c r="F209" s="104"/>
-      <c r="G209" s="104"/>
-      <c r="H209" s="105"/>
-      <c r="I209" s="110"/>
-      <c r="J209" s="110"/>
+      <c r="B209" s="97"/>
+      <c r="C209" s="102"/>
+      <c r="D209" s="103"/>
+      <c r="E209" s="103"/>
+      <c r="F209" s="103"/>
+      <c r="G209" s="103"/>
+      <c r="H209" s="104"/>
+      <c r="I209" s="109"/>
+      <c r="J209" s="109"/>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B210" s="98"/>
-      <c r="C210" s="103"/>
-      <c r="D210" s="104"/>
-      <c r="E210" s="104"/>
-      <c r="F210" s="104"/>
-      <c r="G210" s="104"/>
-      <c r="H210" s="105"/>
-      <c r="I210" s="110"/>
-      <c r="J210" s="110"/>
+      <c r="B210" s="97"/>
+      <c r="C210" s="102"/>
+      <c r="D210" s="103"/>
+      <c r="E210" s="103"/>
+      <c r="F210" s="103"/>
+      <c r="G210" s="103"/>
+      <c r="H210" s="104"/>
+      <c r="I210" s="109"/>
+      <c r="J210" s="109"/>
     </row>
     <row r="211" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="99"/>
-      <c r="C211" s="106"/>
-      <c r="D211" s="107"/>
-      <c r="E211" s="107"/>
-      <c r="F211" s="107"/>
-      <c r="G211" s="107"/>
-      <c r="H211" s="108"/>
-      <c r="I211" s="111"/>
-      <c r="J211" s="111"/>
+      <c r="B211" s="98"/>
+      <c r="C211" s="105"/>
+      <c r="D211" s="106"/>
+      <c r="E211" s="106"/>
+      <c r="F211" s="106"/>
+      <c r="G211" s="106"/>
+      <c r="H211" s="107"/>
+      <c r="I211" s="110"/>
+      <c r="J211" s="110"/>
     </row>
     <row r="212" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B212" s="42"/>
@@ -7956,234 +7947,234 @@
       <c r="C213" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D213" s="112" t="s">
+      <c r="D213" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="E213" s="112"/>
-      <c r="F213" s="112"/>
-      <c r="G213" s="112"/>
-      <c r="H213" s="112"/>
-      <c r="I213" s="112"/>
-      <c r="J213" s="113"/>
+      <c r="E213" s="111"/>
+      <c r="F213" s="111"/>
+      <c r="G213" s="111"/>
+      <c r="H213" s="111"/>
+      <c r="I213" s="111"/>
+      <c r="J213" s="112"/>
     </row>
     <row r="214" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B214" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C214" s="114" t="s">
+      <c r="C214" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="D214" s="112"/>
-      <c r="E214" s="112"/>
-      <c r="F214" s="113"/>
-      <c r="G214" s="114" t="s">
+      <c r="D214" s="111"/>
+      <c r="E214" s="111"/>
+      <c r="F214" s="112"/>
+      <c r="G214" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="H214" s="112"/>
-      <c r="I214" s="112"/>
-      <c r="J214" s="113"/>
+      <c r="H214" s="111"/>
+      <c r="I214" s="111"/>
+      <c r="J214" s="112"/>
     </row>
     <row r="215" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="97" t="s">
+      <c r="B215" s="96" t="s">
         <v>378</v>
       </c>
       <c r="C215" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D215" s="115" t="s">
+      <c r="D215" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="E215" s="115"/>
-      <c r="F215" s="115"/>
-      <c r="G215" s="115"/>
-      <c r="H215" s="115"/>
-      <c r="I215" s="115"/>
-      <c r="J215" s="116"/>
+      <c r="E215" s="114"/>
+      <c r="F215" s="114"/>
+      <c r="G215" s="114"/>
+      <c r="H215" s="114"/>
+      <c r="I215" s="114"/>
+      <c r="J215" s="115"/>
     </row>
     <row r="216" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="98"/>
+      <c r="B216" s="97"/>
       <c r="C216" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D216" s="117" t="s">
+      <c r="D216" s="116" t="s">
         <v>267</v>
       </c>
-      <c r="E216" s="117"/>
-      <c r="F216" s="117"/>
-      <c r="G216" s="117"/>
-      <c r="H216" s="117"/>
-      <c r="I216" s="117"/>
-      <c r="J216" s="118"/>
+      <c r="E216" s="116"/>
+      <c r="F216" s="116"/>
+      <c r="G216" s="116"/>
+      <c r="H216" s="116"/>
+      <c r="I216" s="116"/>
+      <c r="J216" s="117"/>
     </row>
     <row r="217" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="99"/>
+      <c r="B217" s="98"/>
       <c r="C217" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D217" s="119" t="s">
+      <c r="D217" s="118" t="s">
         <v>266</v>
       </c>
-      <c r="E217" s="119"/>
-      <c r="F217" s="119"/>
-      <c r="G217" s="119"/>
-      <c r="H217" s="119"/>
-      <c r="I217" s="119"/>
-      <c r="J217" s="120"/>
+      <c r="E217" s="118"/>
+      <c r="F217" s="118"/>
+      <c r="G217" s="118"/>
+      <c r="H217" s="118"/>
+      <c r="I217" s="118"/>
+      <c r="J217" s="119"/>
     </row>
     <row r="218" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="97" t="s">
+      <c r="B218" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C218" s="100" t="s">
+      <c r="C218" s="99" t="s">
         <v>265</v>
       </c>
-      <c r="D218" s="101"/>
-      <c r="E218" s="101"/>
-      <c r="F218" s="101"/>
-      <c r="G218" s="101"/>
-      <c r="H218" s="102"/>
-      <c r="I218" s="109" t="s">
+      <c r="D218" s="100"/>
+      <c r="E218" s="100"/>
+      <c r="F218" s="100"/>
+      <c r="G218" s="100"/>
+      <c r="H218" s="101"/>
+      <c r="I218" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="J218" s="109" t="s">
+      <c r="J218" s="108" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B219" s="98"/>
-      <c r="C219" s="103"/>
-      <c r="D219" s="104"/>
-      <c r="E219" s="104"/>
-      <c r="F219" s="104"/>
-      <c r="G219" s="104"/>
-      <c r="H219" s="105"/>
-      <c r="I219" s="110"/>
-      <c r="J219" s="110"/>
+      <c r="B219" s="97"/>
+      <c r="C219" s="102"/>
+      <c r="D219" s="103"/>
+      <c r="E219" s="103"/>
+      <c r="F219" s="103"/>
+      <c r="G219" s="103"/>
+      <c r="H219" s="104"/>
+      <c r="I219" s="109"/>
+      <c r="J219" s="109"/>
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B220" s="98"/>
-      <c r="C220" s="103"/>
-      <c r="D220" s="104"/>
-      <c r="E220" s="104"/>
-      <c r="F220" s="104"/>
-      <c r="G220" s="104"/>
-      <c r="H220" s="105"/>
-      <c r="I220" s="110"/>
-      <c r="J220" s="110"/>
+      <c r="B220" s="97"/>
+      <c r="C220" s="102"/>
+      <c r="D220" s="103"/>
+      <c r="E220" s="103"/>
+      <c r="F220" s="103"/>
+      <c r="G220" s="103"/>
+      <c r="H220" s="104"/>
+      <c r="I220" s="109"/>
+      <c r="J220" s="109"/>
     </row>
     <row r="221" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B221" s="98"/>
-      <c r="C221" s="103"/>
-      <c r="D221" s="104"/>
-      <c r="E221" s="104"/>
-      <c r="F221" s="104"/>
-      <c r="G221" s="104"/>
-      <c r="H221" s="105"/>
-      <c r="I221" s="110"/>
-      <c r="J221" s="110"/>
+      <c r="B221" s="97"/>
+      <c r="C221" s="102"/>
+      <c r="D221" s="103"/>
+      <c r="E221" s="103"/>
+      <c r="F221" s="103"/>
+      <c r="G221" s="103"/>
+      <c r="H221" s="104"/>
+      <c r="I221" s="109"/>
+      <c r="J221" s="109"/>
     </row>
     <row r="222" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B222" s="98"/>
-      <c r="C222" s="103"/>
-      <c r="D222" s="104"/>
-      <c r="E222" s="104"/>
-      <c r="F222" s="104"/>
-      <c r="G222" s="104"/>
-      <c r="H222" s="105"/>
-      <c r="I222" s="110"/>
-      <c r="J222" s="110"/>
+      <c r="B222" s="97"/>
+      <c r="C222" s="102"/>
+      <c r="D222" s="103"/>
+      <c r="E222" s="103"/>
+      <c r="F222" s="103"/>
+      <c r="G222" s="103"/>
+      <c r="H222" s="104"/>
+      <c r="I222" s="109"/>
+      <c r="J222" s="109"/>
     </row>
     <row r="223" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="98"/>
-      <c r="C223" s="103"/>
-      <c r="D223" s="104"/>
-      <c r="E223" s="104"/>
-      <c r="F223" s="104"/>
-      <c r="G223" s="104"/>
-      <c r="H223" s="105"/>
-      <c r="I223" s="111"/>
-      <c r="J223" s="111"/>
+      <c r="B223" s="97"/>
+      <c r="C223" s="102"/>
+      <c r="D223" s="103"/>
+      <c r="E223" s="103"/>
+      <c r="F223" s="103"/>
+      <c r="G223" s="103"/>
+      <c r="H223" s="104"/>
+      <c r="I223" s="110"/>
+      <c r="J223" s="110"/>
     </row>
     <row r="224" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="98"/>
-      <c r="C224" s="103"/>
-      <c r="D224" s="104"/>
-      <c r="E224" s="104"/>
-      <c r="F224" s="104"/>
-      <c r="G224" s="104"/>
-      <c r="H224" s="105"/>
-      <c r="I224" s="109" t="s">
+      <c r="B224" s="97"/>
+      <c r="C224" s="102"/>
+      <c r="D224" s="103"/>
+      <c r="E224" s="103"/>
+      <c r="F224" s="103"/>
+      <c r="G224" s="103"/>
+      <c r="H224" s="104"/>
+      <c r="I224" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="J224" s="109">
+      <c r="J224" s="108">
         <v>3</v>
       </c>
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B225" s="98"/>
-      <c r="C225" s="103"/>
-      <c r="D225" s="104"/>
-      <c r="E225" s="104"/>
-      <c r="F225" s="104"/>
-      <c r="G225" s="104"/>
-      <c r="H225" s="105"/>
-      <c r="I225" s="110"/>
-      <c r="J225" s="110"/>
+      <c r="B225" s="97"/>
+      <c r="C225" s="102"/>
+      <c r="D225" s="103"/>
+      <c r="E225" s="103"/>
+      <c r="F225" s="103"/>
+      <c r="G225" s="103"/>
+      <c r="H225" s="104"/>
+      <c r="I225" s="109"/>
+      <c r="J225" s="109"/>
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B226" s="98"/>
-      <c r="C226" s="103"/>
-      <c r="D226" s="104"/>
-      <c r="E226" s="104"/>
-      <c r="F226" s="104"/>
-      <c r="G226" s="104"/>
-      <c r="H226" s="105"/>
-      <c r="I226" s="110"/>
-      <c r="J226" s="110"/>
+      <c r="B226" s="97"/>
+      <c r="C226" s="102"/>
+      <c r="D226" s="103"/>
+      <c r="E226" s="103"/>
+      <c r="F226" s="103"/>
+      <c r="G226" s="103"/>
+      <c r="H226" s="104"/>
+      <c r="I226" s="109"/>
+      <c r="J226" s="109"/>
     </row>
     <row r="227" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B227" s="98"/>
-      <c r="C227" s="103"/>
-      <c r="D227" s="104"/>
-      <c r="E227" s="104"/>
-      <c r="F227" s="104"/>
-      <c r="G227" s="104"/>
-      <c r="H227" s="105"/>
-      <c r="I227" s="110"/>
-      <c r="J227" s="110"/>
+      <c r="B227" s="97"/>
+      <c r="C227" s="102"/>
+      <c r="D227" s="103"/>
+      <c r="E227" s="103"/>
+      <c r="F227" s="103"/>
+      <c r="G227" s="103"/>
+      <c r="H227" s="104"/>
+      <c r="I227" s="109"/>
+      <c r="J227" s="109"/>
     </row>
     <row r="228" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B228" s="98"/>
-      <c r="C228" s="103"/>
-      <c r="D228" s="104"/>
-      <c r="E228" s="104"/>
-      <c r="F228" s="104"/>
-      <c r="G228" s="104"/>
-      <c r="H228" s="105"/>
-      <c r="I228" s="110"/>
-      <c r="J228" s="110"/>
+      <c r="B228" s="97"/>
+      <c r="C228" s="102"/>
+      <c r="D228" s="103"/>
+      <c r="E228" s="103"/>
+      <c r="F228" s="103"/>
+      <c r="G228" s="103"/>
+      <c r="H228" s="104"/>
+      <c r="I228" s="109"/>
+      <c r="J228" s="109"/>
     </row>
     <row r="229" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B229" s="98"/>
-      <c r="C229" s="103"/>
-      <c r="D229" s="104"/>
-      <c r="E229" s="104"/>
-      <c r="F229" s="104"/>
-      <c r="G229" s="104"/>
-      <c r="H229" s="105"/>
-      <c r="I229" s="110"/>
-      <c r="J229" s="110"/>
+      <c r="B229" s="97"/>
+      <c r="C229" s="102"/>
+      <c r="D229" s="103"/>
+      <c r="E229" s="103"/>
+      <c r="F229" s="103"/>
+      <c r="G229" s="103"/>
+      <c r="H229" s="104"/>
+      <c r="I229" s="109"/>
+      <c r="J229" s="109"/>
     </row>
     <row r="230" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="99"/>
-      <c r="C230" s="106"/>
-      <c r="D230" s="107"/>
-      <c r="E230" s="107"/>
-      <c r="F230" s="107"/>
-      <c r="G230" s="107"/>
-      <c r="H230" s="108"/>
-      <c r="I230" s="111"/>
-      <c r="J230" s="111"/>
+      <c r="B230" s="98"/>
+      <c r="C230" s="105"/>
+      <c r="D230" s="106"/>
+      <c r="E230" s="106"/>
+      <c r="F230" s="106"/>
+      <c r="G230" s="106"/>
+      <c r="H230" s="107"/>
+      <c r="I230" s="110"/>
+      <c r="J230" s="110"/>
     </row>
     <row r="231" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B231" s="42"/>
@@ -8203,234 +8194,234 @@
       <c r="C232" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D232" s="112" t="s">
+      <c r="D232" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="E232" s="112"/>
-      <c r="F232" s="112"/>
-      <c r="G232" s="112"/>
-      <c r="H232" s="112"/>
-      <c r="I232" s="112"/>
-      <c r="J232" s="113"/>
+      <c r="E232" s="111"/>
+      <c r="F232" s="111"/>
+      <c r="G232" s="111"/>
+      <c r="H232" s="111"/>
+      <c r="I232" s="111"/>
+      <c r="J232" s="112"/>
     </row>
     <row r="233" spans="2:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B233" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="C233" s="114" t="s">
+      <c r="C233" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D233" s="112"/>
-      <c r="E233" s="112"/>
-      <c r="F233" s="113"/>
-      <c r="G233" s="114" t="s">
+      <c r="D233" s="111"/>
+      <c r="E233" s="111"/>
+      <c r="F233" s="112"/>
+      <c r="G233" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="H233" s="112"/>
-      <c r="I233" s="112"/>
-      <c r="J233" s="113"/>
+      <c r="H233" s="111"/>
+      <c r="I233" s="111"/>
+      <c r="J233" s="112"/>
     </row>
     <row r="234" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="97" t="s">
+      <c r="B234" s="96" t="s">
         <v>379</v>
       </c>
       <c r="C234" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D234" s="115" t="s">
+      <c r="D234" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="E234" s="115"/>
-      <c r="F234" s="115"/>
-      <c r="G234" s="115"/>
-      <c r="H234" s="115"/>
-      <c r="I234" s="115"/>
-      <c r="J234" s="116"/>
+      <c r="E234" s="114"/>
+      <c r="F234" s="114"/>
+      <c r="G234" s="114"/>
+      <c r="H234" s="114"/>
+      <c r="I234" s="114"/>
+      <c r="J234" s="115"/>
     </row>
     <row r="235" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="98"/>
+      <c r="B235" s="97"/>
       <c r="C235" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D235" s="117" t="s">
+      <c r="D235" s="116" t="s">
         <v>263</v>
       </c>
-      <c r="E235" s="117"/>
-      <c r="F235" s="117"/>
-      <c r="G235" s="117"/>
-      <c r="H235" s="117"/>
-      <c r="I235" s="117"/>
-      <c r="J235" s="118"/>
+      <c r="E235" s="116"/>
+      <c r="F235" s="116"/>
+      <c r="G235" s="116"/>
+      <c r="H235" s="116"/>
+      <c r="I235" s="116"/>
+      <c r="J235" s="117"/>
     </row>
     <row r="236" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="99"/>
+      <c r="B236" s="98"/>
       <c r="C236" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D236" s="119" t="s">
+      <c r="D236" s="118" t="s">
         <v>262</v>
       </c>
-      <c r="E236" s="119"/>
-      <c r="F236" s="119"/>
-      <c r="G236" s="119"/>
-      <c r="H236" s="119"/>
-      <c r="I236" s="119"/>
-      <c r="J236" s="120"/>
+      <c r="E236" s="118"/>
+      <c r="F236" s="118"/>
+      <c r="G236" s="118"/>
+      <c r="H236" s="118"/>
+      <c r="I236" s="118"/>
+      <c r="J236" s="119"/>
     </row>
     <row r="237" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="97" t="s">
+      <c r="B237" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C237" s="100" t="s">
+      <c r="C237" s="99" t="s">
         <v>261</v>
       </c>
-      <c r="D237" s="101"/>
-      <c r="E237" s="101"/>
-      <c r="F237" s="101"/>
-      <c r="G237" s="101"/>
-      <c r="H237" s="102"/>
-      <c r="I237" s="109" t="s">
+      <c r="D237" s="100"/>
+      <c r="E237" s="100"/>
+      <c r="F237" s="100"/>
+      <c r="G237" s="100"/>
+      <c r="H237" s="101"/>
+      <c r="I237" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="J237" s="109" t="s">
+      <c r="J237" s="108" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="238" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B238" s="98"/>
-      <c r="C238" s="103"/>
-      <c r="D238" s="104"/>
-      <c r="E238" s="104"/>
-      <c r="F238" s="104"/>
-      <c r="G238" s="104"/>
-      <c r="H238" s="105"/>
-      <c r="I238" s="110"/>
-      <c r="J238" s="110"/>
+      <c r="B238" s="97"/>
+      <c r="C238" s="102"/>
+      <c r="D238" s="103"/>
+      <c r="E238" s="103"/>
+      <c r="F238" s="103"/>
+      <c r="G238" s="103"/>
+      <c r="H238" s="104"/>
+      <c r="I238" s="109"/>
+      <c r="J238" s="109"/>
     </row>
     <row r="239" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B239" s="98"/>
-      <c r="C239" s="103"/>
-      <c r="D239" s="104"/>
-      <c r="E239" s="104"/>
-      <c r="F239" s="104"/>
-      <c r="G239" s="104"/>
-      <c r="H239" s="105"/>
-      <c r="I239" s="110"/>
-      <c r="J239" s="110"/>
+      <c r="B239" s="97"/>
+      <c r="C239" s="102"/>
+      <c r="D239" s="103"/>
+      <c r="E239" s="103"/>
+      <c r="F239" s="103"/>
+      <c r="G239" s="103"/>
+      <c r="H239" s="104"/>
+      <c r="I239" s="109"/>
+      <c r="J239" s="109"/>
     </row>
     <row r="240" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B240" s="98"/>
-      <c r="C240" s="103"/>
-      <c r="D240" s="104"/>
-      <c r="E240" s="104"/>
-      <c r="F240" s="104"/>
-      <c r="G240" s="104"/>
-      <c r="H240" s="105"/>
-      <c r="I240" s="110"/>
-      <c r="J240" s="110"/>
+      <c r="B240" s="97"/>
+      <c r="C240" s="102"/>
+      <c r="D240" s="103"/>
+      <c r="E240" s="103"/>
+      <c r="F240" s="103"/>
+      <c r="G240" s="103"/>
+      <c r="H240" s="104"/>
+      <c r="I240" s="109"/>
+      <c r="J240" s="109"/>
     </row>
     <row r="241" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B241" s="98"/>
-      <c r="C241" s="103"/>
-      <c r="D241" s="104"/>
-      <c r="E241" s="104"/>
-      <c r="F241" s="104"/>
-      <c r="G241" s="104"/>
-      <c r="H241" s="105"/>
-      <c r="I241" s="110"/>
-      <c r="J241" s="110"/>
+      <c r="B241" s="97"/>
+      <c r="C241" s="102"/>
+      <c r="D241" s="103"/>
+      <c r="E241" s="103"/>
+      <c r="F241" s="103"/>
+      <c r="G241" s="103"/>
+      <c r="H241" s="104"/>
+      <c r="I241" s="109"/>
+      <c r="J241" s="109"/>
     </row>
     <row r="242" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="98"/>
-      <c r="C242" s="103"/>
-      <c r="D242" s="104"/>
-      <c r="E242" s="104"/>
-      <c r="F242" s="104"/>
-      <c r="G242" s="104"/>
-      <c r="H242" s="105"/>
-      <c r="I242" s="111"/>
-      <c r="J242" s="111"/>
+      <c r="B242" s="97"/>
+      <c r="C242" s="102"/>
+      <c r="D242" s="103"/>
+      <c r="E242" s="103"/>
+      <c r="F242" s="103"/>
+      <c r="G242" s="103"/>
+      <c r="H242" s="104"/>
+      <c r="I242" s="110"/>
+      <c r="J242" s="110"/>
     </row>
     <row r="243" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="98"/>
-      <c r="C243" s="103"/>
-      <c r="D243" s="104"/>
-      <c r="E243" s="104"/>
-      <c r="F243" s="104"/>
-      <c r="G243" s="104"/>
-      <c r="H243" s="105"/>
-      <c r="I243" s="109" t="s">
+      <c r="B243" s="97"/>
+      <c r="C243" s="102"/>
+      <c r="D243" s="103"/>
+      <c r="E243" s="103"/>
+      <c r="F243" s="103"/>
+      <c r="G243" s="103"/>
+      <c r="H243" s="104"/>
+      <c r="I243" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="J243" s="109">
+      <c r="J243" s="108">
         <v>4</v>
       </c>
     </row>
     <row r="244" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B244" s="98"/>
-      <c r="C244" s="103"/>
-      <c r="D244" s="104"/>
-      <c r="E244" s="104"/>
-      <c r="F244" s="104"/>
-      <c r="G244" s="104"/>
-      <c r="H244" s="105"/>
-      <c r="I244" s="110"/>
-      <c r="J244" s="110"/>
+      <c r="B244" s="97"/>
+      <c r="C244" s="102"/>
+      <c r="D244" s="103"/>
+      <c r="E244" s="103"/>
+      <c r="F244" s="103"/>
+      <c r="G244" s="103"/>
+      <c r="H244" s="104"/>
+      <c r="I244" s="109"/>
+      <c r="J244" s="109"/>
     </row>
     <row r="245" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B245" s="98"/>
-      <c r="C245" s="103"/>
-      <c r="D245" s="104"/>
-      <c r="E245" s="104"/>
-      <c r="F245" s="104"/>
-      <c r="G245" s="104"/>
-      <c r="H245" s="105"/>
-      <c r="I245" s="110"/>
-      <c r="J245" s="110"/>
+      <c r="B245" s="97"/>
+      <c r="C245" s="102"/>
+      <c r="D245" s="103"/>
+      <c r="E245" s="103"/>
+      <c r="F245" s="103"/>
+      <c r="G245" s="103"/>
+      <c r="H245" s="104"/>
+      <c r="I245" s="109"/>
+      <c r="J245" s="109"/>
     </row>
     <row r="246" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B246" s="98"/>
-      <c r="C246" s="103"/>
-      <c r="D246" s="104"/>
-      <c r="E246" s="104"/>
-      <c r="F246" s="104"/>
-      <c r="G246" s="104"/>
-      <c r="H246" s="105"/>
-      <c r="I246" s="110"/>
-      <c r="J246" s="110"/>
+      <c r="B246" s="97"/>
+      <c r="C246" s="102"/>
+      <c r="D246" s="103"/>
+      <c r="E246" s="103"/>
+      <c r="F246" s="103"/>
+      <c r="G246" s="103"/>
+      <c r="H246" s="104"/>
+      <c r="I246" s="109"/>
+      <c r="J246" s="109"/>
     </row>
     <row r="247" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B247" s="98"/>
-      <c r="C247" s="103"/>
-      <c r="D247" s="104"/>
-      <c r="E247" s="104"/>
-      <c r="F247" s="104"/>
-      <c r="G247" s="104"/>
-      <c r="H247" s="105"/>
-      <c r="I247" s="110"/>
-      <c r="J247" s="110"/>
+      <c r="B247" s="97"/>
+      <c r="C247" s="102"/>
+      <c r="D247" s="103"/>
+      <c r="E247" s="103"/>
+      <c r="F247" s="103"/>
+      <c r="G247" s="103"/>
+      <c r="H247" s="104"/>
+      <c r="I247" s="109"/>
+      <c r="J247" s="109"/>
     </row>
     <row r="248" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B248" s="98"/>
-      <c r="C248" s="103"/>
-      <c r="D248" s="104"/>
-      <c r="E248" s="104"/>
-      <c r="F248" s="104"/>
-      <c r="G248" s="104"/>
-      <c r="H248" s="105"/>
-      <c r="I248" s="110"/>
-      <c r="J248" s="110"/>
+      <c r="B248" s="97"/>
+      <c r="C248" s="102"/>
+      <c r="D248" s="103"/>
+      <c r="E248" s="103"/>
+      <c r="F248" s="103"/>
+      <c r="G248" s="103"/>
+      <c r="H248" s="104"/>
+      <c r="I248" s="109"/>
+      <c r="J248" s="109"/>
     </row>
     <row r="249" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B249" s="99"/>
-      <c r="C249" s="106"/>
-      <c r="D249" s="107"/>
-      <c r="E249" s="107"/>
-      <c r="F249" s="107"/>
-      <c r="G249" s="107"/>
-      <c r="H249" s="108"/>
-      <c r="I249" s="111"/>
-      <c r="J249" s="111"/>
+      <c r="B249" s="98"/>
+      <c r="C249" s="105"/>
+      <c r="D249" s="106"/>
+      <c r="E249" s="106"/>
+      <c r="F249" s="106"/>
+      <c r="G249" s="106"/>
+      <c r="H249" s="107"/>
+      <c r="I249" s="110"/>
+      <c r="J249" s="110"/>
     </row>
     <row r="250" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B250" s="42"/>
@@ -8450,234 +8441,234 @@
       <c r="C251" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D251" s="112" t="s">
+      <c r="D251" s="111" t="s">
         <v>259</v>
       </c>
-      <c r="E251" s="112"/>
-      <c r="F251" s="112"/>
-      <c r="G251" s="112"/>
-      <c r="H251" s="112"/>
-      <c r="I251" s="112"/>
-      <c r="J251" s="113"/>
+      <c r="E251" s="111"/>
+      <c r="F251" s="111"/>
+      <c r="G251" s="111"/>
+      <c r="H251" s="111"/>
+      <c r="I251" s="111"/>
+      <c r="J251" s="112"/>
     </row>
     <row r="252" spans="2:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B252" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="C252" s="114" t="s">
+      <c r="C252" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D252" s="112"/>
-      <c r="E252" s="112"/>
-      <c r="F252" s="113"/>
-      <c r="G252" s="114" t="s">
+      <c r="D252" s="111"/>
+      <c r="E252" s="111"/>
+      <c r="F252" s="112"/>
+      <c r="G252" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="H252" s="112"/>
-      <c r="I252" s="112"/>
-      <c r="J252" s="113"/>
+      <c r="H252" s="111"/>
+      <c r="I252" s="111"/>
+      <c r="J252" s="112"/>
     </row>
     <row r="253" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B253" s="97" t="s">
+      <c r="B253" s="96" t="s">
         <v>380</v>
       </c>
       <c r="C253" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D253" s="115" t="s">
+      <c r="D253" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="E253" s="115"/>
-      <c r="F253" s="115"/>
-      <c r="G253" s="115"/>
-      <c r="H253" s="115"/>
-      <c r="I253" s="115"/>
-      <c r="J253" s="116"/>
+      <c r="E253" s="114"/>
+      <c r="F253" s="114"/>
+      <c r="G253" s="114"/>
+      <c r="H253" s="114"/>
+      <c r="I253" s="114"/>
+      <c r="J253" s="115"/>
     </row>
     <row r="254" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B254" s="98"/>
+      <c r="B254" s="97"/>
       <c r="C254" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D254" s="117" t="s">
+      <c r="D254" s="116" t="s">
         <v>257</v>
       </c>
-      <c r="E254" s="117"/>
-      <c r="F254" s="117"/>
-      <c r="G254" s="117"/>
-      <c r="H254" s="117"/>
-      <c r="I254" s="117"/>
-      <c r="J254" s="118"/>
+      <c r="E254" s="116"/>
+      <c r="F254" s="116"/>
+      <c r="G254" s="116"/>
+      <c r="H254" s="116"/>
+      <c r="I254" s="116"/>
+      <c r="J254" s="117"/>
     </row>
     <row r="255" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B255" s="99"/>
+      <c r="B255" s="98"/>
       <c r="C255" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D255" s="119" t="s">
+      <c r="D255" s="118" t="s">
         <v>256</v>
       </c>
-      <c r="E255" s="119"/>
-      <c r="F255" s="119"/>
-      <c r="G255" s="119"/>
-      <c r="H255" s="119"/>
-      <c r="I255" s="119"/>
-      <c r="J255" s="120"/>
+      <c r="E255" s="118"/>
+      <c r="F255" s="118"/>
+      <c r="G255" s="118"/>
+      <c r="H255" s="118"/>
+      <c r="I255" s="118"/>
+      <c r="J255" s="119"/>
     </row>
     <row r="256" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="97" t="s">
+      <c r="B256" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C256" s="100" t="s">
+      <c r="C256" s="99" t="s">
         <v>255</v>
       </c>
-      <c r="D256" s="101"/>
-      <c r="E256" s="101"/>
-      <c r="F256" s="101"/>
-      <c r="G256" s="101"/>
-      <c r="H256" s="102"/>
-      <c r="I256" s="109" t="s">
+      <c r="D256" s="100"/>
+      <c r="E256" s="100"/>
+      <c r="F256" s="100"/>
+      <c r="G256" s="100"/>
+      <c r="H256" s="101"/>
+      <c r="I256" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="J256" s="109" t="s">
+      <c r="J256" s="108" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="257" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B257" s="98"/>
-      <c r="C257" s="103"/>
-      <c r="D257" s="104"/>
-      <c r="E257" s="104"/>
-      <c r="F257" s="104"/>
-      <c r="G257" s="104"/>
-      <c r="H257" s="105"/>
-      <c r="I257" s="110"/>
-      <c r="J257" s="110"/>
+      <c r="B257" s="97"/>
+      <c r="C257" s="102"/>
+      <c r="D257" s="103"/>
+      <c r="E257" s="103"/>
+      <c r="F257" s="103"/>
+      <c r="G257" s="103"/>
+      <c r="H257" s="104"/>
+      <c r="I257" s="109"/>
+      <c r="J257" s="109"/>
     </row>
     <row r="258" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B258" s="98"/>
-      <c r="C258" s="103"/>
-      <c r="D258" s="104"/>
-      <c r="E258" s="104"/>
-      <c r="F258" s="104"/>
-      <c r="G258" s="104"/>
-      <c r="H258" s="105"/>
-      <c r="I258" s="110"/>
-      <c r="J258" s="110"/>
+      <c r="B258" s="97"/>
+      <c r="C258" s="102"/>
+      <c r="D258" s="103"/>
+      <c r="E258" s="103"/>
+      <c r="F258" s="103"/>
+      <c r="G258" s="103"/>
+      <c r="H258" s="104"/>
+      <c r="I258" s="109"/>
+      <c r="J258" s="109"/>
     </row>
     <row r="259" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B259" s="98"/>
-      <c r="C259" s="103"/>
-      <c r="D259" s="104"/>
-      <c r="E259" s="104"/>
-      <c r="F259" s="104"/>
-      <c r="G259" s="104"/>
-      <c r="H259" s="105"/>
-      <c r="I259" s="110"/>
-      <c r="J259" s="110"/>
+      <c r="B259" s="97"/>
+      <c r="C259" s="102"/>
+      <c r="D259" s="103"/>
+      <c r="E259" s="103"/>
+      <c r="F259" s="103"/>
+      <c r="G259" s="103"/>
+      <c r="H259" s="104"/>
+      <c r="I259" s="109"/>
+      <c r="J259" s="109"/>
     </row>
     <row r="260" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B260" s="98"/>
-      <c r="C260" s="103"/>
-      <c r="D260" s="104"/>
-      <c r="E260" s="104"/>
-      <c r="F260" s="104"/>
-      <c r="G260" s="104"/>
-      <c r="H260" s="105"/>
-      <c r="I260" s="110"/>
-      <c r="J260" s="110"/>
+      <c r="B260" s="97"/>
+      <c r="C260" s="102"/>
+      <c r="D260" s="103"/>
+      <c r="E260" s="103"/>
+      <c r="F260" s="103"/>
+      <c r="G260" s="103"/>
+      <c r="H260" s="104"/>
+      <c r="I260" s="109"/>
+      <c r="J260" s="109"/>
     </row>
     <row r="261" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B261" s="98"/>
-      <c r="C261" s="103"/>
-      <c r="D261" s="104"/>
-      <c r="E261" s="104"/>
-      <c r="F261" s="104"/>
-      <c r="G261" s="104"/>
-      <c r="H261" s="105"/>
-      <c r="I261" s="111"/>
-      <c r="J261" s="111"/>
+      <c r="B261" s="97"/>
+      <c r="C261" s="102"/>
+      <c r="D261" s="103"/>
+      <c r="E261" s="103"/>
+      <c r="F261" s="103"/>
+      <c r="G261" s="103"/>
+      <c r="H261" s="104"/>
+      <c r="I261" s="110"/>
+      <c r="J261" s="110"/>
     </row>
     <row r="262" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="98"/>
-      <c r="C262" s="103"/>
-      <c r="D262" s="104"/>
-      <c r="E262" s="104"/>
-      <c r="F262" s="104"/>
-      <c r="G262" s="104"/>
-      <c r="H262" s="105"/>
-      <c r="I262" s="109" t="s">
+      <c r="B262" s="97"/>
+      <c r="C262" s="102"/>
+      <c r="D262" s="103"/>
+      <c r="E262" s="103"/>
+      <c r="F262" s="103"/>
+      <c r="G262" s="103"/>
+      <c r="H262" s="104"/>
+      <c r="I262" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="J262" s="109">
+      <c r="J262" s="108">
         <v>3</v>
       </c>
     </row>
     <row r="263" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B263" s="98"/>
-      <c r="C263" s="103"/>
-      <c r="D263" s="104"/>
-      <c r="E263" s="104"/>
-      <c r="F263" s="104"/>
-      <c r="G263" s="104"/>
-      <c r="H263" s="105"/>
-      <c r="I263" s="110"/>
-      <c r="J263" s="110"/>
+      <c r="B263" s="97"/>
+      <c r="C263" s="102"/>
+      <c r="D263" s="103"/>
+      <c r="E263" s="103"/>
+      <c r="F263" s="103"/>
+      <c r="G263" s="103"/>
+      <c r="H263" s="104"/>
+      <c r="I263" s="109"/>
+      <c r="J263" s="109"/>
     </row>
     <row r="264" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B264" s="98"/>
-      <c r="C264" s="103"/>
-      <c r="D264" s="104"/>
-      <c r="E264" s="104"/>
-      <c r="F264" s="104"/>
-      <c r="G264" s="104"/>
-      <c r="H264" s="105"/>
-      <c r="I264" s="110"/>
-      <c r="J264" s="110"/>
+      <c r="B264" s="97"/>
+      <c r="C264" s="102"/>
+      <c r="D264" s="103"/>
+      <c r="E264" s="103"/>
+      <c r="F264" s="103"/>
+      <c r="G264" s="103"/>
+      <c r="H264" s="104"/>
+      <c r="I264" s="109"/>
+      <c r="J264" s="109"/>
     </row>
     <row r="265" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B265" s="98"/>
-      <c r="C265" s="103"/>
-      <c r="D265" s="104"/>
-      <c r="E265" s="104"/>
-      <c r="F265" s="104"/>
-      <c r="G265" s="104"/>
-      <c r="H265" s="105"/>
-      <c r="I265" s="110"/>
-      <c r="J265" s="110"/>
+      <c r="B265" s="97"/>
+      <c r="C265" s="102"/>
+      <c r="D265" s="103"/>
+      <c r="E265" s="103"/>
+      <c r="F265" s="103"/>
+      <c r="G265" s="103"/>
+      <c r="H265" s="104"/>
+      <c r="I265" s="109"/>
+      <c r="J265" s="109"/>
     </row>
     <row r="266" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B266" s="98"/>
-      <c r="C266" s="103"/>
-      <c r="D266" s="104"/>
-      <c r="E266" s="104"/>
-      <c r="F266" s="104"/>
-      <c r="G266" s="104"/>
-      <c r="H266" s="105"/>
-      <c r="I266" s="110"/>
-      <c r="J266" s="110"/>
+      <c r="B266" s="97"/>
+      <c r="C266" s="102"/>
+      <c r="D266" s="103"/>
+      <c r="E266" s="103"/>
+      <c r="F266" s="103"/>
+      <c r="G266" s="103"/>
+      <c r="H266" s="104"/>
+      <c r="I266" s="109"/>
+      <c r="J266" s="109"/>
     </row>
     <row r="267" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B267" s="98"/>
-      <c r="C267" s="103"/>
-      <c r="D267" s="104"/>
-      <c r="E267" s="104"/>
-      <c r="F267" s="104"/>
-      <c r="G267" s="104"/>
-      <c r="H267" s="105"/>
-      <c r="I267" s="110"/>
-      <c r="J267" s="110"/>
+      <c r="B267" s="97"/>
+      <c r="C267" s="102"/>
+      <c r="D267" s="103"/>
+      <c r="E267" s="103"/>
+      <c r="F267" s="103"/>
+      <c r="G267" s="103"/>
+      <c r="H267" s="104"/>
+      <c r="I267" s="109"/>
+      <c r="J267" s="109"/>
     </row>
     <row r="268" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B268" s="99"/>
-      <c r="C268" s="106"/>
-      <c r="D268" s="107"/>
-      <c r="E268" s="107"/>
-      <c r="F268" s="107"/>
-      <c r="G268" s="107"/>
-      <c r="H268" s="108"/>
-      <c r="I268" s="111"/>
-      <c r="J268" s="111"/>
+      <c r="B268" s="98"/>
+      <c r="C268" s="105"/>
+      <c r="D268" s="106"/>
+      <c r="E268" s="106"/>
+      <c r="F268" s="106"/>
+      <c r="G268" s="106"/>
+      <c r="H268" s="107"/>
+      <c r="I268" s="110"/>
+      <c r="J268" s="110"/>
     </row>
     <row r="269" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B269" s="42"/>
@@ -8697,234 +8688,234 @@
       <c r="C270" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D270" s="112" t="s">
+      <c r="D270" s="111" t="s">
         <v>196</v>
       </c>
-      <c r="E270" s="112"/>
-      <c r="F270" s="112"/>
-      <c r="G270" s="112"/>
-      <c r="H270" s="112"/>
-      <c r="I270" s="112"/>
-      <c r="J270" s="113"/>
+      <c r="E270" s="111"/>
+      <c r="F270" s="111"/>
+      <c r="G270" s="111"/>
+      <c r="H270" s="111"/>
+      <c r="I270" s="111"/>
+      <c r="J270" s="112"/>
     </row>
     <row r="271" spans="2:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B271" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C271" s="114" t="s">
+      <c r="C271" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D271" s="112"/>
-      <c r="E271" s="112"/>
-      <c r="F271" s="113"/>
-      <c r="G271" s="114" t="s">
+      <c r="D271" s="111"/>
+      <c r="E271" s="111"/>
+      <c r="F271" s="112"/>
+      <c r="G271" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="H271" s="112"/>
-      <c r="I271" s="112"/>
-      <c r="J271" s="113"/>
+      <c r="H271" s="111"/>
+      <c r="I271" s="111"/>
+      <c r="J271" s="112"/>
     </row>
     <row r="272" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B272" s="97" t="s">
+      <c r="B272" s="96" t="s">
         <v>381</v>
       </c>
       <c r="C272" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D272" s="115" t="s">
+      <c r="D272" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="E272" s="115"/>
-      <c r="F272" s="115"/>
-      <c r="G272" s="115"/>
-      <c r="H272" s="115"/>
-      <c r="I272" s="115"/>
-      <c r="J272" s="116"/>
+      <c r="E272" s="114"/>
+      <c r="F272" s="114"/>
+      <c r="G272" s="114"/>
+      <c r="H272" s="114"/>
+      <c r="I272" s="114"/>
+      <c r="J272" s="115"/>
     </row>
     <row r="273" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B273" s="98"/>
+      <c r="B273" s="97"/>
       <c r="C273" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D273" s="117" t="s">
+      <c r="D273" s="116" t="s">
         <v>254</v>
       </c>
-      <c r="E273" s="117"/>
-      <c r="F273" s="117"/>
-      <c r="G273" s="117"/>
-      <c r="H273" s="117"/>
-      <c r="I273" s="117"/>
-      <c r="J273" s="118"/>
+      <c r="E273" s="116"/>
+      <c r="F273" s="116"/>
+      <c r="G273" s="116"/>
+      <c r="H273" s="116"/>
+      <c r="I273" s="116"/>
+      <c r="J273" s="117"/>
     </row>
     <row r="274" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B274" s="99"/>
+      <c r="B274" s="98"/>
       <c r="C274" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D274" s="119" t="s">
+      <c r="D274" s="118" t="s">
         <v>253</v>
       </c>
-      <c r="E274" s="119"/>
-      <c r="F274" s="119"/>
-      <c r="G274" s="119"/>
-      <c r="H274" s="119"/>
-      <c r="I274" s="119"/>
-      <c r="J274" s="120"/>
+      <c r="E274" s="118"/>
+      <c r="F274" s="118"/>
+      <c r="G274" s="118"/>
+      <c r="H274" s="118"/>
+      <c r="I274" s="118"/>
+      <c r="J274" s="119"/>
     </row>
     <row r="275" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="97" t="s">
+      <c r="B275" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C275" s="100" t="s">
+      <c r="C275" s="99" t="s">
         <v>252</v>
       </c>
-      <c r="D275" s="101"/>
-      <c r="E275" s="101"/>
-      <c r="F275" s="101"/>
-      <c r="G275" s="101"/>
-      <c r="H275" s="102"/>
-      <c r="I275" s="109" t="s">
+      <c r="D275" s="100"/>
+      <c r="E275" s="100"/>
+      <c r="F275" s="100"/>
+      <c r="G275" s="100"/>
+      <c r="H275" s="101"/>
+      <c r="I275" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="J275" s="109" t="s">
+      <c r="J275" s="108" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="276" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B276" s="98"/>
-      <c r="C276" s="103"/>
-      <c r="D276" s="104"/>
-      <c r="E276" s="104"/>
-      <c r="F276" s="104"/>
-      <c r="G276" s="104"/>
-      <c r="H276" s="105"/>
-      <c r="I276" s="110"/>
-      <c r="J276" s="110"/>
+      <c r="B276" s="97"/>
+      <c r="C276" s="102"/>
+      <c r="D276" s="103"/>
+      <c r="E276" s="103"/>
+      <c r="F276" s="103"/>
+      <c r="G276" s="103"/>
+      <c r="H276" s="104"/>
+      <c r="I276" s="109"/>
+      <c r="J276" s="109"/>
     </row>
     <row r="277" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B277" s="98"/>
-      <c r="C277" s="103"/>
-      <c r="D277" s="104"/>
-      <c r="E277" s="104"/>
-      <c r="F277" s="104"/>
-      <c r="G277" s="104"/>
-      <c r="H277" s="105"/>
-      <c r="I277" s="110"/>
-      <c r="J277" s="110"/>
+      <c r="B277" s="97"/>
+      <c r="C277" s="102"/>
+      <c r="D277" s="103"/>
+      <c r="E277" s="103"/>
+      <c r="F277" s="103"/>
+      <c r="G277" s="103"/>
+      <c r="H277" s="104"/>
+      <c r="I277" s="109"/>
+      <c r="J277" s="109"/>
     </row>
     <row r="278" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B278" s="98"/>
-      <c r="C278" s="103"/>
-      <c r="D278" s="104"/>
-      <c r="E278" s="104"/>
-      <c r="F278" s="104"/>
-      <c r="G278" s="104"/>
-      <c r="H278" s="105"/>
-      <c r="I278" s="110"/>
-      <c r="J278" s="110"/>
+      <c r="B278" s="97"/>
+      <c r="C278" s="102"/>
+      <c r="D278" s="103"/>
+      <c r="E278" s="103"/>
+      <c r="F278" s="103"/>
+      <c r="G278" s="103"/>
+      <c r="H278" s="104"/>
+      <c r="I278" s="109"/>
+      <c r="J278" s="109"/>
     </row>
     <row r="279" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B279" s="98"/>
-      <c r="C279" s="103"/>
-      <c r="D279" s="104"/>
-      <c r="E279" s="104"/>
-      <c r="F279" s="104"/>
-      <c r="G279" s="104"/>
-      <c r="H279" s="105"/>
-      <c r="I279" s="110"/>
-      <c r="J279" s="110"/>
+      <c r="B279" s="97"/>
+      <c r="C279" s="102"/>
+      <c r="D279" s="103"/>
+      <c r="E279" s="103"/>
+      <c r="F279" s="103"/>
+      <c r="G279" s="103"/>
+      <c r="H279" s="104"/>
+      <c r="I279" s="109"/>
+      <c r="J279" s="109"/>
     </row>
     <row r="280" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B280" s="98"/>
-      <c r="C280" s="103"/>
-      <c r="D280" s="104"/>
-      <c r="E280" s="104"/>
-      <c r="F280" s="104"/>
-      <c r="G280" s="104"/>
-      <c r="H280" s="105"/>
-      <c r="I280" s="111"/>
-      <c r="J280" s="111"/>
+      <c r="B280" s="97"/>
+      <c r="C280" s="102"/>
+      <c r="D280" s="103"/>
+      <c r="E280" s="103"/>
+      <c r="F280" s="103"/>
+      <c r="G280" s="103"/>
+      <c r="H280" s="104"/>
+      <c r="I280" s="110"/>
+      <c r="J280" s="110"/>
     </row>
     <row r="281" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="98"/>
-      <c r="C281" s="103"/>
-      <c r="D281" s="104"/>
-      <c r="E281" s="104"/>
-      <c r="F281" s="104"/>
-      <c r="G281" s="104"/>
-      <c r="H281" s="105"/>
-      <c r="I281" s="109" t="s">
+      <c r="B281" s="97"/>
+      <c r="C281" s="102"/>
+      <c r="D281" s="103"/>
+      <c r="E281" s="103"/>
+      <c r="F281" s="103"/>
+      <c r="G281" s="103"/>
+      <c r="H281" s="104"/>
+      <c r="I281" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="J281" s="109">
+      <c r="J281" s="108">
         <v>2</v>
       </c>
     </row>
     <row r="282" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B282" s="98"/>
-      <c r="C282" s="103"/>
-      <c r="D282" s="104"/>
-      <c r="E282" s="104"/>
-      <c r="F282" s="104"/>
-      <c r="G282" s="104"/>
-      <c r="H282" s="105"/>
-      <c r="I282" s="110"/>
-      <c r="J282" s="110"/>
+      <c r="B282" s="97"/>
+      <c r="C282" s="102"/>
+      <c r="D282" s="103"/>
+      <c r="E282" s="103"/>
+      <c r="F282" s="103"/>
+      <c r="G282" s="103"/>
+      <c r="H282" s="104"/>
+      <c r="I282" s="109"/>
+      <c r="J282" s="109"/>
     </row>
     <row r="283" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B283" s="98"/>
-      <c r="C283" s="103"/>
-      <c r="D283" s="104"/>
-      <c r="E283" s="104"/>
-      <c r="F283" s="104"/>
-      <c r="G283" s="104"/>
-      <c r="H283" s="105"/>
-      <c r="I283" s="110"/>
-      <c r="J283" s="110"/>
+      <c r="B283" s="97"/>
+      <c r="C283" s="102"/>
+      <c r="D283" s="103"/>
+      <c r="E283" s="103"/>
+      <c r="F283" s="103"/>
+      <c r="G283" s="103"/>
+      <c r="H283" s="104"/>
+      <c r="I283" s="109"/>
+      <c r="J283" s="109"/>
     </row>
     <row r="284" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B284" s="98"/>
-      <c r="C284" s="103"/>
-      <c r="D284" s="104"/>
-      <c r="E284" s="104"/>
-      <c r="F284" s="104"/>
-      <c r="G284" s="104"/>
-      <c r="H284" s="105"/>
-      <c r="I284" s="110"/>
-      <c r="J284" s="110"/>
+      <c r="B284" s="97"/>
+      <c r="C284" s="102"/>
+      <c r="D284" s="103"/>
+      <c r="E284" s="103"/>
+      <c r="F284" s="103"/>
+      <c r="G284" s="103"/>
+      <c r="H284" s="104"/>
+      <c r="I284" s="109"/>
+      <c r="J284" s="109"/>
     </row>
     <row r="285" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B285" s="98"/>
-      <c r="C285" s="103"/>
-      <c r="D285" s="104"/>
-      <c r="E285" s="104"/>
-      <c r="F285" s="104"/>
-      <c r="G285" s="104"/>
-      <c r="H285" s="105"/>
-      <c r="I285" s="110"/>
-      <c r="J285" s="110"/>
+      <c r="B285" s="97"/>
+      <c r="C285" s="102"/>
+      <c r="D285" s="103"/>
+      <c r="E285" s="103"/>
+      <c r="F285" s="103"/>
+      <c r="G285" s="103"/>
+      <c r="H285" s="104"/>
+      <c r="I285" s="109"/>
+      <c r="J285" s="109"/>
     </row>
     <row r="286" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B286" s="98"/>
-      <c r="C286" s="103"/>
-      <c r="D286" s="104"/>
-      <c r="E286" s="104"/>
-      <c r="F286" s="104"/>
-      <c r="G286" s="104"/>
-      <c r="H286" s="105"/>
-      <c r="I286" s="110"/>
-      <c r="J286" s="110"/>
+      <c r="B286" s="97"/>
+      <c r="C286" s="102"/>
+      <c r="D286" s="103"/>
+      <c r="E286" s="103"/>
+      <c r="F286" s="103"/>
+      <c r="G286" s="103"/>
+      <c r="H286" s="104"/>
+      <c r="I286" s="109"/>
+      <c r="J286" s="109"/>
     </row>
     <row r="287" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B287" s="99"/>
-      <c r="C287" s="106"/>
-      <c r="D287" s="107"/>
-      <c r="E287" s="107"/>
-      <c r="F287" s="107"/>
-      <c r="G287" s="107"/>
-      <c r="H287" s="108"/>
-      <c r="I287" s="111"/>
-      <c r="J287" s="111"/>
+      <c r="B287" s="98"/>
+      <c r="C287" s="105"/>
+      <c r="D287" s="106"/>
+      <c r="E287" s="106"/>
+      <c r="F287" s="106"/>
+      <c r="G287" s="106"/>
+      <c r="H287" s="107"/>
+      <c r="I287" s="110"/>
+      <c r="J287" s="110"/>
     </row>
     <row r="288" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B288" s="42"/>
@@ -8944,234 +8935,234 @@
       <c r="C289" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D289" s="112" t="s">
+      <c r="D289" s="111" t="s">
         <v>251</v>
       </c>
-      <c r="E289" s="112"/>
-      <c r="F289" s="112"/>
-      <c r="G289" s="112"/>
-      <c r="H289" s="112"/>
-      <c r="I289" s="112"/>
-      <c r="J289" s="113"/>
+      <c r="E289" s="111"/>
+      <c r="F289" s="111"/>
+      <c r="G289" s="111"/>
+      <c r="H289" s="111"/>
+      <c r="I289" s="111"/>
+      <c r="J289" s="112"/>
     </row>
     <row r="290" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B290" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C290" s="114" t="s">
+      <c r="C290" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D290" s="112"/>
-      <c r="E290" s="112"/>
-      <c r="F290" s="113"/>
-      <c r="G290" s="114" t="s">
+      <c r="D290" s="111"/>
+      <c r="E290" s="111"/>
+      <c r="F290" s="112"/>
+      <c r="G290" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="H290" s="112"/>
-      <c r="I290" s="112"/>
-      <c r="J290" s="113"/>
+      <c r="H290" s="111"/>
+      <c r="I290" s="111"/>
+      <c r="J290" s="112"/>
     </row>
     <row r="291" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B291" s="97" t="s">
+      <c r="B291" s="96" t="s">
         <v>382</v>
       </c>
       <c r="C291" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D291" s="115" t="s">
+      <c r="D291" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="E291" s="115"/>
-      <c r="F291" s="115"/>
-      <c r="G291" s="115"/>
-      <c r="H291" s="115"/>
-      <c r="I291" s="115"/>
-      <c r="J291" s="116"/>
+      <c r="E291" s="114"/>
+      <c r="F291" s="114"/>
+      <c r="G291" s="114"/>
+      <c r="H291" s="114"/>
+      <c r="I291" s="114"/>
+      <c r="J291" s="115"/>
     </row>
     <row r="292" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B292" s="98"/>
+      <c r="B292" s="97"/>
       <c r="C292" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D292" s="117" t="s">
+      <c r="D292" s="116" t="s">
         <v>250</v>
       </c>
-      <c r="E292" s="117"/>
-      <c r="F292" s="117"/>
-      <c r="G292" s="117"/>
-      <c r="H292" s="117"/>
-      <c r="I292" s="117"/>
-      <c r="J292" s="118"/>
+      <c r="E292" s="116"/>
+      <c r="F292" s="116"/>
+      <c r="G292" s="116"/>
+      <c r="H292" s="116"/>
+      <c r="I292" s="116"/>
+      <c r="J292" s="117"/>
     </row>
     <row r="293" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B293" s="99"/>
+      <c r="B293" s="98"/>
       <c r="C293" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D293" s="119" t="s">
+      <c r="D293" s="118" t="s">
         <v>249</v>
       </c>
-      <c r="E293" s="119"/>
-      <c r="F293" s="119"/>
-      <c r="G293" s="119"/>
-      <c r="H293" s="119"/>
-      <c r="I293" s="119"/>
-      <c r="J293" s="120"/>
+      <c r="E293" s="118"/>
+      <c r="F293" s="118"/>
+      <c r="G293" s="118"/>
+      <c r="H293" s="118"/>
+      <c r="I293" s="118"/>
+      <c r="J293" s="119"/>
     </row>
     <row r="294" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="97" t="s">
+      <c r="B294" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C294" s="100" t="s">
+      <c r="C294" s="99" t="s">
         <v>248</v>
       </c>
-      <c r="D294" s="101"/>
-      <c r="E294" s="101"/>
-      <c r="F294" s="101"/>
-      <c r="G294" s="101"/>
-      <c r="H294" s="102"/>
-      <c r="I294" s="109" t="s">
+      <c r="D294" s="100"/>
+      <c r="E294" s="100"/>
+      <c r="F294" s="100"/>
+      <c r="G294" s="100"/>
+      <c r="H294" s="101"/>
+      <c r="I294" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="J294" s="109" t="s">
+      <c r="J294" s="108" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="295" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B295" s="98"/>
-      <c r="C295" s="103"/>
-      <c r="D295" s="104"/>
-      <c r="E295" s="104"/>
-      <c r="F295" s="104"/>
-      <c r="G295" s="104"/>
-      <c r="H295" s="105"/>
-      <c r="I295" s="110"/>
-      <c r="J295" s="110"/>
+      <c r="B295" s="97"/>
+      <c r="C295" s="102"/>
+      <c r="D295" s="103"/>
+      <c r="E295" s="103"/>
+      <c r="F295" s="103"/>
+      <c r="G295" s="103"/>
+      <c r="H295" s="104"/>
+      <c r="I295" s="109"/>
+      <c r="J295" s="109"/>
     </row>
     <row r="296" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B296" s="98"/>
-      <c r="C296" s="103"/>
-      <c r="D296" s="104"/>
-      <c r="E296" s="104"/>
-      <c r="F296" s="104"/>
-      <c r="G296" s="104"/>
-      <c r="H296" s="105"/>
-      <c r="I296" s="110"/>
-      <c r="J296" s="110"/>
+      <c r="B296" s="97"/>
+      <c r="C296" s="102"/>
+      <c r="D296" s="103"/>
+      <c r="E296" s="103"/>
+      <c r="F296" s="103"/>
+      <c r="G296" s="103"/>
+      <c r="H296" s="104"/>
+      <c r="I296" s="109"/>
+      <c r="J296" s="109"/>
     </row>
     <row r="297" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B297" s="98"/>
-      <c r="C297" s="103"/>
-      <c r="D297" s="104"/>
-      <c r="E297" s="104"/>
-      <c r="F297" s="104"/>
-      <c r="G297" s="104"/>
-      <c r="H297" s="105"/>
-      <c r="I297" s="110"/>
-      <c r="J297" s="110"/>
+      <c r="B297" s="97"/>
+      <c r="C297" s="102"/>
+      <c r="D297" s="103"/>
+      <c r="E297" s="103"/>
+      <c r="F297" s="103"/>
+      <c r="G297" s="103"/>
+      <c r="H297" s="104"/>
+      <c r="I297" s="109"/>
+      <c r="J297" s="109"/>
     </row>
     <row r="298" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B298" s="98"/>
-      <c r="C298" s="103"/>
-      <c r="D298" s="104"/>
-      <c r="E298" s="104"/>
-      <c r="F298" s="104"/>
-      <c r="G298" s="104"/>
-      <c r="H298" s="105"/>
-      <c r="I298" s="110"/>
-      <c r="J298" s="110"/>
+      <c r="B298" s="97"/>
+      <c r="C298" s="102"/>
+      <c r="D298" s="103"/>
+      <c r="E298" s="103"/>
+      <c r="F298" s="103"/>
+      <c r="G298" s="103"/>
+      <c r="H298" s="104"/>
+      <c r="I298" s="109"/>
+      <c r="J298" s="109"/>
     </row>
     <row r="299" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B299" s="98"/>
-      <c r="C299" s="103"/>
-      <c r="D299" s="104"/>
-      <c r="E299" s="104"/>
-      <c r="F299" s="104"/>
-      <c r="G299" s="104"/>
-      <c r="H299" s="105"/>
-      <c r="I299" s="111"/>
-      <c r="J299" s="111"/>
+      <c r="B299" s="97"/>
+      <c r="C299" s="102"/>
+      <c r="D299" s="103"/>
+      <c r="E299" s="103"/>
+      <c r="F299" s="103"/>
+      <c r="G299" s="103"/>
+      <c r="H299" s="104"/>
+      <c r="I299" s="110"/>
+      <c r="J299" s="110"/>
     </row>
     <row r="300" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B300" s="98"/>
-      <c r="C300" s="103"/>
-      <c r="D300" s="104"/>
-      <c r="E300" s="104"/>
-      <c r="F300" s="104"/>
-      <c r="G300" s="104"/>
-      <c r="H300" s="105"/>
-      <c r="I300" s="109" t="s">
+      <c r="B300" s="97"/>
+      <c r="C300" s="102"/>
+      <c r="D300" s="103"/>
+      <c r="E300" s="103"/>
+      <c r="F300" s="103"/>
+      <c r="G300" s="103"/>
+      <c r="H300" s="104"/>
+      <c r="I300" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="J300" s="109">
+      <c r="J300" s="108">
         <v>4</v>
       </c>
     </row>
     <row r="301" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B301" s="98"/>
-      <c r="C301" s="103"/>
-      <c r="D301" s="104"/>
-      <c r="E301" s="104"/>
-      <c r="F301" s="104"/>
-      <c r="G301" s="104"/>
-      <c r="H301" s="105"/>
-      <c r="I301" s="110"/>
-      <c r="J301" s="110"/>
+      <c r="B301" s="97"/>
+      <c r="C301" s="102"/>
+      <c r="D301" s="103"/>
+      <c r="E301" s="103"/>
+      <c r="F301" s="103"/>
+      <c r="G301" s="103"/>
+      <c r="H301" s="104"/>
+      <c r="I301" s="109"/>
+      <c r="J301" s="109"/>
     </row>
     <row r="302" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B302" s="98"/>
-      <c r="C302" s="103"/>
-      <c r="D302" s="104"/>
-      <c r="E302" s="104"/>
-      <c r="F302" s="104"/>
-      <c r="G302" s="104"/>
-      <c r="H302" s="105"/>
-      <c r="I302" s="110"/>
-      <c r="J302" s="110"/>
+      <c r="B302" s="97"/>
+      <c r="C302" s="102"/>
+      <c r="D302" s="103"/>
+      <c r="E302" s="103"/>
+      <c r="F302" s="103"/>
+      <c r="G302" s="103"/>
+      <c r="H302" s="104"/>
+      <c r="I302" s="109"/>
+      <c r="J302" s="109"/>
     </row>
     <row r="303" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B303" s="98"/>
-      <c r="C303" s="103"/>
-      <c r="D303" s="104"/>
-      <c r="E303" s="104"/>
-      <c r="F303" s="104"/>
-      <c r="G303" s="104"/>
-      <c r="H303" s="105"/>
-      <c r="I303" s="110"/>
-      <c r="J303" s="110"/>
+      <c r="B303" s="97"/>
+      <c r="C303" s="102"/>
+      <c r="D303" s="103"/>
+      <c r="E303" s="103"/>
+      <c r="F303" s="103"/>
+      <c r="G303" s="103"/>
+      <c r="H303" s="104"/>
+      <c r="I303" s="109"/>
+      <c r="J303" s="109"/>
     </row>
     <row r="304" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B304" s="98"/>
-      <c r="C304" s="103"/>
-      <c r="D304" s="104"/>
-      <c r="E304" s="104"/>
-      <c r="F304" s="104"/>
-      <c r="G304" s="104"/>
-      <c r="H304" s="105"/>
-      <c r="I304" s="110"/>
-      <c r="J304" s="110"/>
+      <c r="B304" s="97"/>
+      <c r="C304" s="102"/>
+      <c r="D304" s="103"/>
+      <c r="E304" s="103"/>
+      <c r="F304" s="103"/>
+      <c r="G304" s="103"/>
+      <c r="H304" s="104"/>
+      <c r="I304" s="109"/>
+      <c r="J304" s="109"/>
     </row>
     <row r="305" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B305" s="98"/>
-      <c r="C305" s="103"/>
-      <c r="D305" s="104"/>
-      <c r="E305" s="104"/>
-      <c r="F305" s="104"/>
-      <c r="G305" s="104"/>
-      <c r="H305" s="105"/>
-      <c r="I305" s="110"/>
-      <c r="J305" s="110"/>
+      <c r="B305" s="97"/>
+      <c r="C305" s="102"/>
+      <c r="D305" s="103"/>
+      <c r="E305" s="103"/>
+      <c r="F305" s="103"/>
+      <c r="G305" s="103"/>
+      <c r="H305" s="104"/>
+      <c r="I305" s="109"/>
+      <c r="J305" s="109"/>
     </row>
     <row r="306" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B306" s="99"/>
-      <c r="C306" s="106"/>
-      <c r="D306" s="107"/>
-      <c r="E306" s="107"/>
-      <c r="F306" s="107"/>
-      <c r="G306" s="107"/>
-      <c r="H306" s="108"/>
-      <c r="I306" s="111"/>
-      <c r="J306" s="111"/>
+      <c r="B306" s="98"/>
+      <c r="C306" s="105"/>
+      <c r="D306" s="106"/>
+      <c r="E306" s="106"/>
+      <c r="F306" s="106"/>
+      <c r="G306" s="106"/>
+      <c r="H306" s="107"/>
+      <c r="I306" s="110"/>
+      <c r="J306" s="110"/>
     </row>
     <row r="307" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B307" s="42"/>
@@ -9191,234 +9182,234 @@
       <c r="C308" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D308" s="112" t="s">
+      <c r="D308" s="111" t="s">
         <v>246</v>
       </c>
-      <c r="E308" s="112"/>
-      <c r="F308" s="112"/>
-      <c r="G308" s="112"/>
-      <c r="H308" s="112"/>
-      <c r="I308" s="112"/>
-      <c r="J308" s="113"/>
+      <c r="E308" s="111"/>
+      <c r="F308" s="111"/>
+      <c r="G308" s="111"/>
+      <c r="H308" s="111"/>
+      <c r="I308" s="111"/>
+      <c r="J308" s="112"/>
     </row>
     <row r="309" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B309" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C309" s="114" t="s">
+      <c r="C309" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D309" s="112"/>
-      <c r="E309" s="112"/>
-      <c r="F309" s="113"/>
-      <c r="G309" s="114" t="s">
+      <c r="D309" s="111"/>
+      <c r="E309" s="111"/>
+      <c r="F309" s="112"/>
+      <c r="G309" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="H309" s="112"/>
-      <c r="I309" s="112"/>
-      <c r="J309" s="113"/>
+      <c r="H309" s="111"/>
+      <c r="I309" s="111"/>
+      <c r="J309" s="112"/>
     </row>
     <row r="310" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B310" s="97" t="s">
+      <c r="B310" s="96" t="s">
         <v>383</v>
       </c>
       <c r="C310" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D310" s="115" t="s">
+      <c r="D310" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="E310" s="115"/>
-      <c r="F310" s="115"/>
-      <c r="G310" s="115"/>
-      <c r="H310" s="115"/>
-      <c r="I310" s="115"/>
-      <c r="J310" s="116"/>
+      <c r="E310" s="114"/>
+      <c r="F310" s="114"/>
+      <c r="G310" s="114"/>
+      <c r="H310" s="114"/>
+      <c r="I310" s="114"/>
+      <c r="J310" s="115"/>
     </row>
     <row r="311" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B311" s="98"/>
+      <c r="B311" s="97"/>
       <c r="C311" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D311" s="117" t="s">
+      <c r="D311" s="116" t="s">
         <v>245</v>
       </c>
-      <c r="E311" s="117"/>
-      <c r="F311" s="117"/>
-      <c r="G311" s="117"/>
-      <c r="H311" s="117"/>
-      <c r="I311" s="117"/>
-      <c r="J311" s="118"/>
+      <c r="E311" s="116"/>
+      <c r="F311" s="116"/>
+      <c r="G311" s="116"/>
+      <c r="H311" s="116"/>
+      <c r="I311" s="116"/>
+      <c r="J311" s="117"/>
     </row>
     <row r="312" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B312" s="99"/>
+      <c r="B312" s="98"/>
       <c r="C312" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D312" s="119" t="s">
+      <c r="D312" s="118" t="s">
         <v>244</v>
       </c>
-      <c r="E312" s="119"/>
-      <c r="F312" s="119"/>
-      <c r="G312" s="119"/>
-      <c r="H312" s="119"/>
-      <c r="I312" s="119"/>
-      <c r="J312" s="120"/>
+      <c r="E312" s="118"/>
+      <c r="F312" s="118"/>
+      <c r="G312" s="118"/>
+      <c r="H312" s="118"/>
+      <c r="I312" s="118"/>
+      <c r="J312" s="119"/>
     </row>
     <row r="313" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B313" s="97" t="s">
+      <c r="B313" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C313" s="100" t="s">
+      <c r="C313" s="99" t="s">
         <v>243</v>
       </c>
-      <c r="D313" s="101"/>
-      <c r="E313" s="101"/>
-      <c r="F313" s="101"/>
-      <c r="G313" s="101"/>
-      <c r="H313" s="102"/>
-      <c r="I313" s="109" t="s">
+      <c r="D313" s="100"/>
+      <c r="E313" s="100"/>
+      <c r="F313" s="100"/>
+      <c r="G313" s="100"/>
+      <c r="H313" s="101"/>
+      <c r="I313" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="J313" s="109" t="s">
+      <c r="J313" s="108" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="314" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B314" s="98"/>
-      <c r="C314" s="103"/>
-      <c r="D314" s="104"/>
-      <c r="E314" s="104"/>
-      <c r="F314" s="104"/>
-      <c r="G314" s="104"/>
-      <c r="H314" s="105"/>
-      <c r="I314" s="110"/>
-      <c r="J314" s="110"/>
+      <c r="B314" s="97"/>
+      <c r="C314" s="102"/>
+      <c r="D314" s="103"/>
+      <c r="E314" s="103"/>
+      <c r="F314" s="103"/>
+      <c r="G314" s="103"/>
+      <c r="H314" s="104"/>
+      <c r="I314" s="109"/>
+      <c r="J314" s="109"/>
     </row>
     <row r="315" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B315" s="98"/>
-      <c r="C315" s="103"/>
-      <c r="D315" s="104"/>
-      <c r="E315" s="104"/>
-      <c r="F315" s="104"/>
-      <c r="G315" s="104"/>
-      <c r="H315" s="105"/>
-      <c r="I315" s="110"/>
-      <c r="J315" s="110"/>
+      <c r="B315" s="97"/>
+      <c r="C315" s="102"/>
+      <c r="D315" s="103"/>
+      <c r="E315" s="103"/>
+      <c r="F315" s="103"/>
+      <c r="G315" s="103"/>
+      <c r="H315" s="104"/>
+      <c r="I315" s="109"/>
+      <c r="J315" s="109"/>
     </row>
     <row r="316" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B316" s="98"/>
-      <c r="C316" s="103"/>
-      <c r="D316" s="104"/>
-      <c r="E316" s="104"/>
-      <c r="F316" s="104"/>
-      <c r="G316" s="104"/>
-      <c r="H316" s="105"/>
-      <c r="I316" s="110"/>
-      <c r="J316" s="110"/>
+      <c r="B316" s="97"/>
+      <c r="C316" s="102"/>
+      <c r="D316" s="103"/>
+      <c r="E316" s="103"/>
+      <c r="F316" s="103"/>
+      <c r="G316" s="103"/>
+      <c r="H316" s="104"/>
+      <c r="I316" s="109"/>
+      <c r="J316" s="109"/>
     </row>
     <row r="317" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B317" s="98"/>
-      <c r="C317" s="103"/>
-      <c r="D317" s="104"/>
-      <c r="E317" s="104"/>
-      <c r="F317" s="104"/>
-      <c r="G317" s="104"/>
-      <c r="H317" s="105"/>
-      <c r="I317" s="110"/>
-      <c r="J317" s="110"/>
+      <c r="B317" s="97"/>
+      <c r="C317" s="102"/>
+      <c r="D317" s="103"/>
+      <c r="E317" s="103"/>
+      <c r="F317" s="103"/>
+      <c r="G317" s="103"/>
+      <c r="H317" s="104"/>
+      <c r="I317" s="109"/>
+      <c r="J317" s="109"/>
     </row>
     <row r="318" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B318" s="98"/>
-      <c r="C318" s="103"/>
-      <c r="D318" s="104"/>
-      <c r="E318" s="104"/>
-      <c r="F318" s="104"/>
-      <c r="G318" s="104"/>
-      <c r="H318" s="105"/>
-      <c r="I318" s="111"/>
-      <c r="J318" s="111"/>
+      <c r="B318" s="97"/>
+      <c r="C318" s="102"/>
+      <c r="D318" s="103"/>
+      <c r="E318" s="103"/>
+      <c r="F318" s="103"/>
+      <c r="G318" s="103"/>
+      <c r="H318" s="104"/>
+      <c r="I318" s="110"/>
+      <c r="J318" s="110"/>
     </row>
     <row r="319" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B319" s="98"/>
-      <c r="C319" s="103"/>
-      <c r="D319" s="104"/>
-      <c r="E319" s="104"/>
-      <c r="F319" s="104"/>
-      <c r="G319" s="104"/>
-      <c r="H319" s="105"/>
-      <c r="I319" s="109" t="s">
+      <c r="B319" s="97"/>
+      <c r="C319" s="102"/>
+      <c r="D319" s="103"/>
+      <c r="E319" s="103"/>
+      <c r="F319" s="103"/>
+      <c r="G319" s="103"/>
+      <c r="H319" s="104"/>
+      <c r="I319" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="J319" s="109">
+      <c r="J319" s="108">
         <v>3</v>
       </c>
     </row>
     <row r="320" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B320" s="98"/>
-      <c r="C320" s="103"/>
-      <c r="D320" s="104"/>
-      <c r="E320" s="104"/>
-      <c r="F320" s="104"/>
-      <c r="G320" s="104"/>
-      <c r="H320" s="105"/>
-      <c r="I320" s="110"/>
-      <c r="J320" s="110"/>
+      <c r="B320" s="97"/>
+      <c r="C320" s="102"/>
+      <c r="D320" s="103"/>
+      <c r="E320" s="103"/>
+      <c r="F320" s="103"/>
+      <c r="G320" s="103"/>
+      <c r="H320" s="104"/>
+      <c r="I320" s="109"/>
+      <c r="J320" s="109"/>
     </row>
     <row r="321" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B321" s="98"/>
-      <c r="C321" s="103"/>
-      <c r="D321" s="104"/>
-      <c r="E321" s="104"/>
-      <c r="F321" s="104"/>
-      <c r="G321" s="104"/>
-      <c r="H321" s="105"/>
-      <c r="I321" s="110"/>
-      <c r="J321" s="110"/>
+      <c r="B321" s="97"/>
+      <c r="C321" s="102"/>
+      <c r="D321" s="103"/>
+      <c r="E321" s="103"/>
+      <c r="F321" s="103"/>
+      <c r="G321" s="103"/>
+      <c r="H321" s="104"/>
+      <c r="I321" s="109"/>
+      <c r="J321" s="109"/>
     </row>
     <row r="322" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B322" s="98"/>
-      <c r="C322" s="103"/>
-      <c r="D322" s="104"/>
-      <c r="E322" s="104"/>
-      <c r="F322" s="104"/>
-      <c r="G322" s="104"/>
-      <c r="H322" s="105"/>
-      <c r="I322" s="110"/>
-      <c r="J322" s="110"/>
+      <c r="B322" s="97"/>
+      <c r="C322" s="102"/>
+      <c r="D322" s="103"/>
+      <c r="E322" s="103"/>
+      <c r="F322" s="103"/>
+      <c r="G322" s="103"/>
+      <c r="H322" s="104"/>
+      <c r="I322" s="109"/>
+      <c r="J322" s="109"/>
     </row>
     <row r="323" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B323" s="98"/>
-      <c r="C323" s="103"/>
-      <c r="D323" s="104"/>
-      <c r="E323" s="104"/>
-      <c r="F323" s="104"/>
-      <c r="G323" s="104"/>
-      <c r="H323" s="105"/>
-      <c r="I323" s="110"/>
-      <c r="J323" s="110"/>
+      <c r="B323" s="97"/>
+      <c r="C323" s="102"/>
+      <c r="D323" s="103"/>
+      <c r="E323" s="103"/>
+      <c r="F323" s="103"/>
+      <c r="G323" s="103"/>
+      <c r="H323" s="104"/>
+      <c r="I323" s="109"/>
+      <c r="J323" s="109"/>
     </row>
     <row r="324" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B324" s="98"/>
-      <c r="C324" s="103"/>
-      <c r="D324" s="104"/>
-      <c r="E324" s="104"/>
-      <c r="F324" s="104"/>
-      <c r="G324" s="104"/>
-      <c r="H324" s="105"/>
-      <c r="I324" s="110"/>
-      <c r="J324" s="110"/>
+      <c r="B324" s="97"/>
+      <c r="C324" s="102"/>
+      <c r="D324" s="103"/>
+      <c r="E324" s="103"/>
+      <c r="F324" s="103"/>
+      <c r="G324" s="103"/>
+      <c r="H324" s="104"/>
+      <c r="I324" s="109"/>
+      <c r="J324" s="109"/>
     </row>
     <row r="325" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B325" s="99"/>
-      <c r="C325" s="106"/>
-      <c r="D325" s="107"/>
-      <c r="E325" s="107"/>
-      <c r="F325" s="107"/>
-      <c r="G325" s="107"/>
-      <c r="H325" s="108"/>
-      <c r="I325" s="111"/>
-      <c r="J325" s="111"/>
+      <c r="B325" s="98"/>
+      <c r="C325" s="105"/>
+      <c r="D325" s="106"/>
+      <c r="E325" s="106"/>
+      <c r="F325" s="106"/>
+      <c r="G325" s="106"/>
+      <c r="H325" s="107"/>
+      <c r="I325" s="110"/>
+      <c r="J325" s="110"/>
     </row>
     <row r="326" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B326" s="42"/>
@@ -9438,234 +9429,234 @@
       <c r="C327" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D327" s="112" t="s">
+      <c r="D327" s="111" t="s">
         <v>242</v>
       </c>
-      <c r="E327" s="112"/>
-      <c r="F327" s="112"/>
-      <c r="G327" s="112"/>
-      <c r="H327" s="112"/>
-      <c r="I327" s="112"/>
-      <c r="J327" s="113"/>
+      <c r="E327" s="111"/>
+      <c r="F327" s="111"/>
+      <c r="G327" s="111"/>
+      <c r="H327" s="111"/>
+      <c r="I327" s="111"/>
+      <c r="J327" s="112"/>
     </row>
     <row r="328" spans="2:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B328" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="C328" s="114" t="s">
+      <c r="C328" s="113" t="s">
         <v>240</v>
       </c>
-      <c r="D328" s="112"/>
-      <c r="E328" s="112"/>
-      <c r="F328" s="113"/>
-      <c r="G328" s="114" t="s">
+      <c r="D328" s="111"/>
+      <c r="E328" s="111"/>
+      <c r="F328" s="112"/>
+      <c r="G328" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="H328" s="112"/>
-      <c r="I328" s="112"/>
-      <c r="J328" s="113"/>
+      <c r="H328" s="111"/>
+      <c r="I328" s="111"/>
+      <c r="J328" s="112"/>
     </row>
     <row r="329" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B329" s="97" t="s">
+      <c r="B329" s="96" t="s">
         <v>384</v>
       </c>
       <c r="C329" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D329" s="115" t="s">
+      <c r="D329" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="E329" s="115"/>
-      <c r="F329" s="115"/>
-      <c r="G329" s="115"/>
-      <c r="H329" s="115"/>
-      <c r="I329" s="115"/>
-      <c r="J329" s="116"/>
+      <c r="E329" s="114"/>
+      <c r="F329" s="114"/>
+      <c r="G329" s="114"/>
+      <c r="H329" s="114"/>
+      <c r="I329" s="114"/>
+      <c r="J329" s="115"/>
     </row>
     <row r="330" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B330" s="98"/>
+      <c r="B330" s="97"/>
       <c r="C330" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D330" s="117" t="s">
+      <c r="D330" s="116" t="s">
         <v>239</v>
       </c>
-      <c r="E330" s="117"/>
-      <c r="F330" s="117"/>
-      <c r="G330" s="117"/>
-      <c r="H330" s="117"/>
-      <c r="I330" s="117"/>
-      <c r="J330" s="118"/>
+      <c r="E330" s="116"/>
+      <c r="F330" s="116"/>
+      <c r="G330" s="116"/>
+      <c r="H330" s="116"/>
+      <c r="I330" s="116"/>
+      <c r="J330" s="117"/>
     </row>
     <row r="331" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B331" s="99"/>
+      <c r="B331" s="98"/>
       <c r="C331" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D331" s="119" t="s">
+      <c r="D331" s="118" t="s">
         <v>238</v>
       </c>
-      <c r="E331" s="119"/>
-      <c r="F331" s="119"/>
-      <c r="G331" s="119"/>
-      <c r="H331" s="119"/>
-      <c r="I331" s="119"/>
-      <c r="J331" s="120"/>
+      <c r="E331" s="118"/>
+      <c r="F331" s="118"/>
+      <c r="G331" s="118"/>
+      <c r="H331" s="118"/>
+      <c r="I331" s="118"/>
+      <c r="J331" s="119"/>
     </row>
     <row r="332" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B332" s="97" t="s">
+      <c r="B332" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C332" s="100" t="s">
+      <c r="C332" s="99" t="s">
         <v>237</v>
       </c>
-      <c r="D332" s="101"/>
-      <c r="E332" s="101"/>
-      <c r="F332" s="101"/>
-      <c r="G332" s="101"/>
-      <c r="H332" s="102"/>
-      <c r="I332" s="109" t="s">
+      <c r="D332" s="100"/>
+      <c r="E332" s="100"/>
+      <c r="F332" s="100"/>
+      <c r="G332" s="100"/>
+      <c r="H332" s="101"/>
+      <c r="I332" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="J332" s="109" t="s">
+      <c r="J332" s="108" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="333" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B333" s="98"/>
-      <c r="C333" s="103"/>
-      <c r="D333" s="104"/>
-      <c r="E333" s="104"/>
-      <c r="F333" s="104"/>
-      <c r="G333" s="104"/>
-      <c r="H333" s="105"/>
-      <c r="I333" s="110"/>
-      <c r="J333" s="110"/>
+      <c r="B333" s="97"/>
+      <c r="C333" s="102"/>
+      <c r="D333" s="103"/>
+      <c r="E333" s="103"/>
+      <c r="F333" s="103"/>
+      <c r="G333" s="103"/>
+      <c r="H333" s="104"/>
+      <c r="I333" s="109"/>
+      <c r="J333" s="109"/>
     </row>
     <row r="334" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B334" s="98"/>
-      <c r="C334" s="103"/>
-      <c r="D334" s="104"/>
-      <c r="E334" s="104"/>
-      <c r="F334" s="104"/>
-      <c r="G334" s="104"/>
-      <c r="H334" s="105"/>
-      <c r="I334" s="110"/>
-      <c r="J334" s="110"/>
+      <c r="B334" s="97"/>
+      <c r="C334" s="102"/>
+      <c r="D334" s="103"/>
+      <c r="E334" s="103"/>
+      <c r="F334" s="103"/>
+      <c r="G334" s="103"/>
+      <c r="H334" s="104"/>
+      <c r="I334" s="109"/>
+      <c r="J334" s="109"/>
     </row>
     <row r="335" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B335" s="98"/>
-      <c r="C335" s="103"/>
-      <c r="D335" s="104"/>
-      <c r="E335" s="104"/>
-      <c r="F335" s="104"/>
-      <c r="G335" s="104"/>
-      <c r="H335" s="105"/>
-      <c r="I335" s="110"/>
-      <c r="J335" s="110"/>
+      <c r="B335" s="97"/>
+      <c r="C335" s="102"/>
+      <c r="D335" s="103"/>
+      <c r="E335" s="103"/>
+      <c r="F335" s="103"/>
+      <c r="G335" s="103"/>
+      <c r="H335" s="104"/>
+      <c r="I335" s="109"/>
+      <c r="J335" s="109"/>
     </row>
     <row r="336" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B336" s="98"/>
-      <c r="C336" s="103"/>
-      <c r="D336" s="104"/>
-      <c r="E336" s="104"/>
-      <c r="F336" s="104"/>
-      <c r="G336" s="104"/>
-      <c r="H336" s="105"/>
-      <c r="I336" s="110"/>
-      <c r="J336" s="110"/>
+      <c r="B336" s="97"/>
+      <c r="C336" s="102"/>
+      <c r="D336" s="103"/>
+      <c r="E336" s="103"/>
+      <c r="F336" s="103"/>
+      <c r="G336" s="103"/>
+      <c r="H336" s="104"/>
+      <c r="I336" s="109"/>
+      <c r="J336" s="109"/>
     </row>
     <row r="337" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B337" s="98"/>
-      <c r="C337" s="103"/>
-      <c r="D337" s="104"/>
-      <c r="E337" s="104"/>
-      <c r="F337" s="104"/>
-      <c r="G337" s="104"/>
-      <c r="H337" s="105"/>
-      <c r="I337" s="111"/>
-      <c r="J337" s="111"/>
+      <c r="B337" s="97"/>
+      <c r="C337" s="102"/>
+      <c r="D337" s="103"/>
+      <c r="E337" s="103"/>
+      <c r="F337" s="103"/>
+      <c r="G337" s="103"/>
+      <c r="H337" s="104"/>
+      <c r="I337" s="110"/>
+      <c r="J337" s="110"/>
     </row>
     <row r="338" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B338" s="98"/>
-      <c r="C338" s="103"/>
-      <c r="D338" s="104"/>
-      <c r="E338" s="104"/>
-      <c r="F338" s="104"/>
-      <c r="G338" s="104"/>
-      <c r="H338" s="105"/>
-      <c r="I338" s="109" t="s">
+      <c r="B338" s="97"/>
+      <c r="C338" s="102"/>
+      <c r="D338" s="103"/>
+      <c r="E338" s="103"/>
+      <c r="F338" s="103"/>
+      <c r="G338" s="103"/>
+      <c r="H338" s="104"/>
+      <c r="I338" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="J338" s="109">
+      <c r="J338" s="108">
         <v>4</v>
       </c>
     </row>
     <row r="339" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B339" s="98"/>
-      <c r="C339" s="103"/>
-      <c r="D339" s="104"/>
-      <c r="E339" s="104"/>
-      <c r="F339" s="104"/>
-      <c r="G339" s="104"/>
-      <c r="H339" s="105"/>
-      <c r="I339" s="110"/>
-      <c r="J339" s="110"/>
+      <c r="B339" s="97"/>
+      <c r="C339" s="102"/>
+      <c r="D339" s="103"/>
+      <c r="E339" s="103"/>
+      <c r="F339" s="103"/>
+      <c r="G339" s="103"/>
+      <c r="H339" s="104"/>
+      <c r="I339" s="109"/>
+      <c r="J339" s="109"/>
     </row>
     <row r="340" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B340" s="98"/>
-      <c r="C340" s="103"/>
-      <c r="D340" s="104"/>
-      <c r="E340" s="104"/>
-      <c r="F340" s="104"/>
-      <c r="G340" s="104"/>
-      <c r="H340" s="105"/>
-      <c r="I340" s="110"/>
-      <c r="J340" s="110"/>
+      <c r="B340" s="97"/>
+      <c r="C340" s="102"/>
+      <c r="D340" s="103"/>
+      <c r="E340" s="103"/>
+      <c r="F340" s="103"/>
+      <c r="G340" s="103"/>
+      <c r="H340" s="104"/>
+      <c r="I340" s="109"/>
+      <c r="J340" s="109"/>
     </row>
     <row r="341" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B341" s="98"/>
-      <c r="C341" s="103"/>
-      <c r="D341" s="104"/>
-      <c r="E341" s="104"/>
-      <c r="F341" s="104"/>
-      <c r="G341" s="104"/>
-      <c r="H341" s="105"/>
-      <c r="I341" s="110"/>
-      <c r="J341" s="110"/>
+      <c r="B341" s="97"/>
+      <c r="C341" s="102"/>
+      <c r="D341" s="103"/>
+      <c r="E341" s="103"/>
+      <c r="F341" s="103"/>
+      <c r="G341" s="103"/>
+      <c r="H341" s="104"/>
+      <c r="I341" s="109"/>
+      <c r="J341" s="109"/>
     </row>
     <row r="342" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B342" s="98"/>
-      <c r="C342" s="103"/>
-      <c r="D342" s="104"/>
-      <c r="E342" s="104"/>
-      <c r="F342" s="104"/>
-      <c r="G342" s="104"/>
-      <c r="H342" s="105"/>
-      <c r="I342" s="110"/>
-      <c r="J342" s="110"/>
+      <c r="B342" s="97"/>
+      <c r="C342" s="102"/>
+      <c r="D342" s="103"/>
+      <c r="E342" s="103"/>
+      <c r="F342" s="103"/>
+      <c r="G342" s="103"/>
+      <c r="H342" s="104"/>
+      <c r="I342" s="109"/>
+      <c r="J342" s="109"/>
     </row>
     <row r="343" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B343" s="98"/>
-      <c r="C343" s="103"/>
-      <c r="D343" s="104"/>
-      <c r="E343" s="104"/>
-      <c r="F343" s="104"/>
-      <c r="G343" s="104"/>
-      <c r="H343" s="105"/>
-      <c r="I343" s="110"/>
-      <c r="J343" s="110"/>
+      <c r="B343" s="97"/>
+      <c r="C343" s="102"/>
+      <c r="D343" s="103"/>
+      <c r="E343" s="103"/>
+      <c r="F343" s="103"/>
+      <c r="G343" s="103"/>
+      <c r="H343" s="104"/>
+      <c r="I343" s="109"/>
+      <c r="J343" s="109"/>
     </row>
     <row r="344" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B344" s="99"/>
-      <c r="C344" s="106"/>
-      <c r="D344" s="107"/>
-      <c r="E344" s="107"/>
-      <c r="F344" s="107"/>
-      <c r="G344" s="107"/>
-      <c r="H344" s="108"/>
-      <c r="I344" s="111"/>
-      <c r="J344" s="111"/>
+      <c r="B344" s="98"/>
+      <c r="C344" s="105"/>
+      <c r="D344" s="106"/>
+      <c r="E344" s="106"/>
+      <c r="F344" s="106"/>
+      <c r="G344" s="106"/>
+      <c r="H344" s="107"/>
+      <c r="I344" s="110"/>
+      <c r="J344" s="110"/>
     </row>
     <row r="345" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B345" s="42"/>
@@ -9685,234 +9676,234 @@
       <c r="C346" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D346" s="112" t="s">
+      <c r="D346" s="111" t="s">
         <v>234</v>
       </c>
-      <c r="E346" s="112"/>
-      <c r="F346" s="112"/>
-      <c r="G346" s="112"/>
-      <c r="H346" s="112"/>
-      <c r="I346" s="112"/>
-      <c r="J346" s="113"/>
+      <c r="E346" s="111"/>
+      <c r="F346" s="111"/>
+      <c r="G346" s="111"/>
+      <c r="H346" s="111"/>
+      <c r="I346" s="111"/>
+      <c r="J346" s="112"/>
     </row>
     <row r="347" spans="2:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B347" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="C347" s="114" t="s">
+      <c r="C347" s="113" t="s">
         <v>235</v>
       </c>
-      <c r="D347" s="112"/>
-      <c r="E347" s="112"/>
-      <c r="F347" s="113"/>
-      <c r="G347" s="114" t="s">
+      <c r="D347" s="111"/>
+      <c r="E347" s="111"/>
+      <c r="F347" s="112"/>
+      <c r="G347" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="H347" s="112"/>
-      <c r="I347" s="112"/>
-      <c r="J347" s="113"/>
+      <c r="H347" s="111"/>
+      <c r="I347" s="111"/>
+      <c r="J347" s="112"/>
     </row>
     <row r="348" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B348" s="97" t="s">
+      <c r="B348" s="96" t="s">
         <v>385</v>
       </c>
       <c r="C348" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D348" s="115" t="s">
+      <c r="D348" s="114" t="s">
         <v>234</v>
       </c>
-      <c r="E348" s="115"/>
-      <c r="F348" s="115"/>
-      <c r="G348" s="115"/>
-      <c r="H348" s="115"/>
-      <c r="I348" s="115"/>
-      <c r="J348" s="116"/>
+      <c r="E348" s="114"/>
+      <c r="F348" s="114"/>
+      <c r="G348" s="114"/>
+      <c r="H348" s="114"/>
+      <c r="I348" s="114"/>
+      <c r="J348" s="115"/>
     </row>
     <row r="349" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B349" s="98"/>
+      <c r="B349" s="97"/>
       <c r="C349" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D349" s="117" t="s">
+      <c r="D349" s="116" t="s">
         <v>233</v>
       </c>
-      <c r="E349" s="117"/>
-      <c r="F349" s="117"/>
-      <c r="G349" s="117"/>
-      <c r="H349" s="117"/>
-      <c r="I349" s="117"/>
-      <c r="J349" s="118"/>
+      <c r="E349" s="116"/>
+      <c r="F349" s="116"/>
+      <c r="G349" s="116"/>
+      <c r="H349" s="116"/>
+      <c r="I349" s="116"/>
+      <c r="J349" s="117"/>
     </row>
     <row r="350" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B350" s="99"/>
+      <c r="B350" s="98"/>
       <c r="C350" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D350" s="119" t="s">
+      <c r="D350" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="E350" s="119"/>
-      <c r="F350" s="119"/>
-      <c r="G350" s="119"/>
-      <c r="H350" s="119"/>
-      <c r="I350" s="119"/>
-      <c r="J350" s="120"/>
+      <c r="E350" s="118"/>
+      <c r="F350" s="118"/>
+      <c r="G350" s="118"/>
+      <c r="H350" s="118"/>
+      <c r="I350" s="118"/>
+      <c r="J350" s="119"/>
     </row>
     <row r="351" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B351" s="97" t="s">
+      <c r="B351" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C351" s="100" t="s">
+      <c r="C351" s="99" t="s">
         <v>231</v>
       </c>
-      <c r="D351" s="101"/>
-      <c r="E351" s="101"/>
-      <c r="F351" s="101"/>
-      <c r="G351" s="101"/>
-      <c r="H351" s="102"/>
-      <c r="I351" s="109" t="s">
+      <c r="D351" s="100"/>
+      <c r="E351" s="100"/>
+      <c r="F351" s="100"/>
+      <c r="G351" s="100"/>
+      <c r="H351" s="101"/>
+      <c r="I351" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="J351" s="109" t="s">
+      <c r="J351" s="108" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="352" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B352" s="98"/>
-      <c r="C352" s="103"/>
-      <c r="D352" s="104"/>
-      <c r="E352" s="104"/>
-      <c r="F352" s="104"/>
-      <c r="G352" s="104"/>
-      <c r="H352" s="105"/>
-      <c r="I352" s="110"/>
-      <c r="J352" s="110"/>
+      <c r="B352" s="97"/>
+      <c r="C352" s="102"/>
+      <c r="D352" s="103"/>
+      <c r="E352" s="103"/>
+      <c r="F352" s="103"/>
+      <c r="G352" s="103"/>
+      <c r="H352" s="104"/>
+      <c r="I352" s="109"/>
+      <c r="J352" s="109"/>
     </row>
     <row r="353" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B353" s="98"/>
-      <c r="C353" s="103"/>
-      <c r="D353" s="104"/>
-      <c r="E353" s="104"/>
-      <c r="F353" s="104"/>
-      <c r="G353" s="104"/>
-      <c r="H353" s="105"/>
-      <c r="I353" s="110"/>
-      <c r="J353" s="110"/>
+      <c r="B353" s="97"/>
+      <c r="C353" s="102"/>
+      <c r="D353" s="103"/>
+      <c r="E353" s="103"/>
+      <c r="F353" s="103"/>
+      <c r="G353" s="103"/>
+      <c r="H353" s="104"/>
+      <c r="I353" s="109"/>
+      <c r="J353" s="109"/>
     </row>
     <row r="354" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B354" s="98"/>
-      <c r="C354" s="103"/>
-      <c r="D354" s="104"/>
-      <c r="E354" s="104"/>
-      <c r="F354" s="104"/>
-      <c r="G354" s="104"/>
-      <c r="H354" s="105"/>
-      <c r="I354" s="110"/>
-      <c r="J354" s="110"/>
+      <c r="B354" s="97"/>
+      <c r="C354" s="102"/>
+      <c r="D354" s="103"/>
+      <c r="E354" s="103"/>
+      <c r="F354" s="103"/>
+      <c r="G354" s="103"/>
+      <c r="H354" s="104"/>
+      <c r="I354" s="109"/>
+      <c r="J354" s="109"/>
     </row>
     <row r="355" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B355" s="98"/>
-      <c r="C355" s="103"/>
-      <c r="D355" s="104"/>
-      <c r="E355" s="104"/>
-      <c r="F355" s="104"/>
-      <c r="G355" s="104"/>
-      <c r="H355" s="105"/>
-      <c r="I355" s="110"/>
-      <c r="J355" s="110"/>
+      <c r="B355" s="97"/>
+      <c r="C355" s="102"/>
+      <c r="D355" s="103"/>
+      <c r="E355" s="103"/>
+      <c r="F355" s="103"/>
+      <c r="G355" s="103"/>
+      <c r="H355" s="104"/>
+      <c r="I355" s="109"/>
+      <c r="J355" s="109"/>
     </row>
     <row r="356" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B356" s="98"/>
-      <c r="C356" s="103"/>
-      <c r="D356" s="104"/>
-      <c r="E356" s="104"/>
-      <c r="F356" s="104"/>
-      <c r="G356" s="104"/>
-      <c r="H356" s="105"/>
-      <c r="I356" s="111"/>
-      <c r="J356" s="111"/>
+      <c r="B356" s="97"/>
+      <c r="C356" s="102"/>
+      <c r="D356" s="103"/>
+      <c r="E356" s="103"/>
+      <c r="F356" s="103"/>
+      <c r="G356" s="103"/>
+      <c r="H356" s="104"/>
+      <c r="I356" s="110"/>
+      <c r="J356" s="110"/>
     </row>
     <row r="357" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B357" s="98"/>
-      <c r="C357" s="103"/>
-      <c r="D357" s="104"/>
-      <c r="E357" s="104"/>
-      <c r="F357" s="104"/>
-      <c r="G357" s="104"/>
-      <c r="H357" s="105"/>
-      <c r="I357" s="109" t="s">
+      <c r="B357" s="97"/>
+      <c r="C357" s="102"/>
+      <c r="D357" s="103"/>
+      <c r="E357" s="103"/>
+      <c r="F357" s="103"/>
+      <c r="G357" s="103"/>
+      <c r="H357" s="104"/>
+      <c r="I357" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="J357" s="109">
+      <c r="J357" s="108">
         <v>2</v>
       </c>
     </row>
     <row r="358" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B358" s="98"/>
-      <c r="C358" s="103"/>
-      <c r="D358" s="104"/>
-      <c r="E358" s="104"/>
-      <c r="F358" s="104"/>
-      <c r="G358" s="104"/>
-      <c r="H358" s="105"/>
-      <c r="I358" s="110"/>
-      <c r="J358" s="110"/>
+      <c r="B358" s="97"/>
+      <c r="C358" s="102"/>
+      <c r="D358" s="103"/>
+      <c r="E358" s="103"/>
+      <c r="F358" s="103"/>
+      <c r="G358" s="103"/>
+      <c r="H358" s="104"/>
+      <c r="I358" s="109"/>
+      <c r="J358" s="109"/>
     </row>
     <row r="359" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B359" s="98"/>
-      <c r="C359" s="103"/>
-      <c r="D359" s="104"/>
-      <c r="E359" s="104"/>
-      <c r="F359" s="104"/>
-      <c r="G359" s="104"/>
-      <c r="H359" s="105"/>
-      <c r="I359" s="110"/>
-      <c r="J359" s="110"/>
+      <c r="B359" s="97"/>
+      <c r="C359" s="102"/>
+      <c r="D359" s="103"/>
+      <c r="E359" s="103"/>
+      <c r="F359" s="103"/>
+      <c r="G359" s="103"/>
+      <c r="H359" s="104"/>
+      <c r="I359" s="109"/>
+      <c r="J359" s="109"/>
     </row>
     <row r="360" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B360" s="98"/>
-      <c r="C360" s="103"/>
-      <c r="D360" s="104"/>
-      <c r="E360" s="104"/>
-      <c r="F360" s="104"/>
-      <c r="G360" s="104"/>
-      <c r="H360" s="105"/>
-      <c r="I360" s="110"/>
-      <c r="J360" s="110"/>
+      <c r="B360" s="97"/>
+      <c r="C360" s="102"/>
+      <c r="D360" s="103"/>
+      <c r="E360" s="103"/>
+      <c r="F360" s="103"/>
+      <c r="G360" s="103"/>
+      <c r="H360" s="104"/>
+      <c r="I360" s="109"/>
+      <c r="J360" s="109"/>
     </row>
     <row r="361" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B361" s="98"/>
-      <c r="C361" s="103"/>
-      <c r="D361" s="104"/>
-      <c r="E361" s="104"/>
-      <c r="F361" s="104"/>
-      <c r="G361" s="104"/>
-      <c r="H361" s="105"/>
-      <c r="I361" s="110"/>
-      <c r="J361" s="110"/>
+      <c r="B361" s="97"/>
+      <c r="C361" s="102"/>
+      <c r="D361" s="103"/>
+      <c r="E361" s="103"/>
+      <c r="F361" s="103"/>
+      <c r="G361" s="103"/>
+      <c r="H361" s="104"/>
+      <c r="I361" s="109"/>
+      <c r="J361" s="109"/>
     </row>
     <row r="362" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B362" s="98"/>
-      <c r="C362" s="103"/>
-      <c r="D362" s="104"/>
-      <c r="E362" s="104"/>
-      <c r="F362" s="104"/>
-      <c r="G362" s="104"/>
-      <c r="H362" s="105"/>
-      <c r="I362" s="110"/>
-      <c r="J362" s="110"/>
+      <c r="B362" s="97"/>
+      <c r="C362" s="102"/>
+      <c r="D362" s="103"/>
+      <c r="E362" s="103"/>
+      <c r="F362" s="103"/>
+      <c r="G362" s="103"/>
+      <c r="H362" s="104"/>
+      <c r="I362" s="109"/>
+      <c r="J362" s="109"/>
     </row>
     <row r="363" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B363" s="99"/>
-      <c r="C363" s="106"/>
-      <c r="D363" s="107"/>
-      <c r="E363" s="107"/>
-      <c r="F363" s="107"/>
-      <c r="G363" s="107"/>
-      <c r="H363" s="108"/>
-      <c r="I363" s="111"/>
-      <c r="J363" s="111"/>
+      <c r="B363" s="98"/>
+      <c r="C363" s="105"/>
+      <c r="D363" s="106"/>
+      <c r="E363" s="106"/>
+      <c r="F363" s="106"/>
+      <c r="G363" s="106"/>
+      <c r="H363" s="107"/>
+      <c r="I363" s="110"/>
+      <c r="J363" s="110"/>
     </row>
     <row r="364" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B364" s="42"/>
@@ -9932,234 +9923,234 @@
       <c r="C365" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D365" s="114" t="s">
+      <c r="D365" s="113" t="s">
         <v>230</v>
       </c>
-      <c r="E365" s="112"/>
-      <c r="F365" s="112"/>
-      <c r="G365" s="112"/>
-      <c r="H365" s="112"/>
-      <c r="I365" s="112"/>
-      <c r="J365" s="113"/>
+      <c r="E365" s="111"/>
+      <c r="F365" s="111"/>
+      <c r="G365" s="111"/>
+      <c r="H365" s="111"/>
+      <c r="I365" s="111"/>
+      <c r="J365" s="112"/>
     </row>
     <row r="366" spans="2:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B366" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="C366" s="114" t="s">
+      <c r="C366" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D366" s="112"/>
-      <c r="E366" s="112"/>
-      <c r="F366" s="113"/>
-      <c r="G366" s="114" t="s">
+      <c r="D366" s="111"/>
+      <c r="E366" s="111"/>
+      <c r="F366" s="112"/>
+      <c r="G366" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="H366" s="112"/>
-      <c r="I366" s="112"/>
-      <c r="J366" s="113"/>
+      <c r="H366" s="111"/>
+      <c r="I366" s="111"/>
+      <c r="J366" s="112"/>
     </row>
     <row r="367" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B367" s="97" t="s">
+      <c r="B367" s="96" t="s">
         <v>61</v>
       </c>
       <c r="C367" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D367" s="122" t="s">
+      <c r="D367" s="121" t="s">
         <v>228</v>
       </c>
-      <c r="E367" s="123"/>
-      <c r="F367" s="123"/>
-      <c r="G367" s="123"/>
-      <c r="H367" s="123"/>
-      <c r="I367" s="123"/>
-      <c r="J367" s="124"/>
+      <c r="E367" s="122"/>
+      <c r="F367" s="122"/>
+      <c r="G367" s="122"/>
+      <c r="H367" s="122"/>
+      <c r="I367" s="122"/>
+      <c r="J367" s="123"/>
     </row>
     <row r="368" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B368" s="98"/>
+      <c r="B368" s="97"/>
       <c r="C368" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D368" s="121" t="s">
+      <c r="D368" s="120" t="s">
         <v>227</v>
       </c>
-      <c r="E368" s="117"/>
-      <c r="F368" s="117"/>
-      <c r="G368" s="117"/>
-      <c r="H368" s="117"/>
-      <c r="I368" s="117"/>
-      <c r="J368" s="118"/>
+      <c r="E368" s="116"/>
+      <c r="F368" s="116"/>
+      <c r="G368" s="116"/>
+      <c r="H368" s="116"/>
+      <c r="I368" s="116"/>
+      <c r="J368" s="117"/>
     </row>
     <row r="369" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B369" s="99"/>
+      <c r="B369" s="98"/>
       <c r="C369" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D369" s="121" t="s">
+      <c r="D369" s="120" t="s">
         <v>226</v>
       </c>
-      <c r="E369" s="117"/>
-      <c r="F369" s="117"/>
-      <c r="G369" s="117"/>
-      <c r="H369" s="117"/>
-      <c r="I369" s="117"/>
-      <c r="J369" s="118"/>
+      <c r="E369" s="116"/>
+      <c r="F369" s="116"/>
+      <c r="G369" s="116"/>
+      <c r="H369" s="116"/>
+      <c r="I369" s="116"/>
+      <c r="J369" s="117"/>
     </row>
     <row r="370" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="97" t="s">
+      <c r="B370" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C370" s="100" t="s">
+      <c r="C370" s="99" t="s">
         <v>225</v>
       </c>
-      <c r="D370" s="101"/>
-      <c r="E370" s="101"/>
-      <c r="F370" s="101"/>
-      <c r="G370" s="101"/>
-      <c r="H370" s="102"/>
-      <c r="I370" s="109" t="s">
+      <c r="D370" s="100"/>
+      <c r="E370" s="100"/>
+      <c r="F370" s="100"/>
+      <c r="G370" s="100"/>
+      <c r="H370" s="101"/>
+      <c r="I370" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="J370" s="109" t="s">
+      <c r="J370" s="108" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="371" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B371" s="98"/>
-      <c r="C371" s="103"/>
-      <c r="D371" s="104"/>
-      <c r="E371" s="104"/>
-      <c r="F371" s="104"/>
-      <c r="G371" s="104"/>
-      <c r="H371" s="105"/>
-      <c r="I371" s="110"/>
-      <c r="J371" s="110"/>
+      <c r="B371" s="97"/>
+      <c r="C371" s="102"/>
+      <c r="D371" s="103"/>
+      <c r="E371" s="103"/>
+      <c r="F371" s="103"/>
+      <c r="G371" s="103"/>
+      <c r="H371" s="104"/>
+      <c r="I371" s="109"/>
+      <c r="J371" s="109"/>
     </row>
     <row r="372" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B372" s="98"/>
-      <c r="C372" s="103"/>
-      <c r="D372" s="104"/>
-      <c r="E372" s="104"/>
-      <c r="F372" s="104"/>
-      <c r="G372" s="104"/>
-      <c r="H372" s="105"/>
-      <c r="I372" s="110"/>
-      <c r="J372" s="110"/>
+      <c r="B372" s="97"/>
+      <c r="C372" s="102"/>
+      <c r="D372" s="103"/>
+      <c r="E372" s="103"/>
+      <c r="F372" s="103"/>
+      <c r="G372" s="103"/>
+      <c r="H372" s="104"/>
+      <c r="I372" s="109"/>
+      <c r="J372" s="109"/>
     </row>
     <row r="373" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B373" s="98"/>
-      <c r="C373" s="103"/>
-      <c r="D373" s="104"/>
-      <c r="E373" s="104"/>
-      <c r="F373" s="104"/>
-      <c r="G373" s="104"/>
-      <c r="H373" s="105"/>
-      <c r="I373" s="110"/>
-      <c r="J373" s="110"/>
+      <c r="B373" s="97"/>
+      <c r="C373" s="102"/>
+      <c r="D373" s="103"/>
+      <c r="E373" s="103"/>
+      <c r="F373" s="103"/>
+      <c r="G373" s="103"/>
+      <c r="H373" s="104"/>
+      <c r="I373" s="109"/>
+      <c r="J373" s="109"/>
     </row>
     <row r="374" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B374" s="98"/>
-      <c r="C374" s="103"/>
-      <c r="D374" s="104"/>
-      <c r="E374" s="104"/>
-      <c r="F374" s="104"/>
-      <c r="G374" s="104"/>
-      <c r="H374" s="105"/>
-      <c r="I374" s="110"/>
-      <c r="J374" s="110"/>
+      <c r="B374" s="97"/>
+      <c r="C374" s="102"/>
+      <c r="D374" s="103"/>
+      <c r="E374" s="103"/>
+      <c r="F374" s="103"/>
+      <c r="G374" s="103"/>
+      <c r="H374" s="104"/>
+      <c r="I374" s="109"/>
+      <c r="J374" s="109"/>
     </row>
     <row r="375" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B375" s="98"/>
-      <c r="C375" s="103"/>
-      <c r="D375" s="104"/>
-      <c r="E375" s="104"/>
-      <c r="F375" s="104"/>
-      <c r="G375" s="104"/>
-      <c r="H375" s="105"/>
-      <c r="I375" s="111"/>
-      <c r="J375" s="111"/>
+      <c r="B375" s="97"/>
+      <c r="C375" s="102"/>
+      <c r="D375" s="103"/>
+      <c r="E375" s="103"/>
+      <c r="F375" s="103"/>
+      <c r="G375" s="103"/>
+      <c r="H375" s="104"/>
+      <c r="I375" s="110"/>
+      <c r="J375" s="110"/>
     </row>
     <row r="376" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B376" s="98"/>
-      <c r="C376" s="103"/>
-      <c r="D376" s="104"/>
-      <c r="E376" s="104"/>
-      <c r="F376" s="104"/>
-      <c r="G376" s="104"/>
-      <c r="H376" s="105"/>
-      <c r="I376" s="109" t="s">
+      <c r="B376" s="97"/>
+      <c r="C376" s="102"/>
+      <c r="D376" s="103"/>
+      <c r="E376" s="103"/>
+      <c r="F376" s="103"/>
+      <c r="G376" s="103"/>
+      <c r="H376" s="104"/>
+      <c r="I376" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="J376" s="109">
+      <c r="J376" s="108">
         <v>3</v>
       </c>
     </row>
     <row r="377" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B377" s="98"/>
-      <c r="C377" s="103"/>
-      <c r="D377" s="104"/>
-      <c r="E377" s="104"/>
-      <c r="F377" s="104"/>
-      <c r="G377" s="104"/>
-      <c r="H377" s="105"/>
-      <c r="I377" s="110"/>
-      <c r="J377" s="110"/>
+      <c r="B377" s="97"/>
+      <c r="C377" s="102"/>
+      <c r="D377" s="103"/>
+      <c r="E377" s="103"/>
+      <c r="F377" s="103"/>
+      <c r="G377" s="103"/>
+      <c r="H377" s="104"/>
+      <c r="I377" s="109"/>
+      <c r="J377" s="109"/>
     </row>
     <row r="378" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B378" s="98"/>
-      <c r="C378" s="103"/>
-      <c r="D378" s="104"/>
-      <c r="E378" s="104"/>
-      <c r="F378" s="104"/>
-      <c r="G378" s="104"/>
-      <c r="H378" s="105"/>
-      <c r="I378" s="110"/>
-      <c r="J378" s="110"/>
+      <c r="B378" s="97"/>
+      <c r="C378" s="102"/>
+      <c r="D378" s="103"/>
+      <c r="E378" s="103"/>
+      <c r="F378" s="103"/>
+      <c r="G378" s="103"/>
+      <c r="H378" s="104"/>
+      <c r="I378" s="109"/>
+      <c r="J378" s="109"/>
     </row>
     <row r="379" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B379" s="98"/>
-      <c r="C379" s="103"/>
-      <c r="D379" s="104"/>
-      <c r="E379" s="104"/>
-      <c r="F379" s="104"/>
-      <c r="G379" s="104"/>
-      <c r="H379" s="105"/>
-      <c r="I379" s="110"/>
-      <c r="J379" s="110"/>
+      <c r="B379" s="97"/>
+      <c r="C379" s="102"/>
+      <c r="D379" s="103"/>
+      <c r="E379" s="103"/>
+      <c r="F379" s="103"/>
+      <c r="G379" s="103"/>
+      <c r="H379" s="104"/>
+      <c r="I379" s="109"/>
+      <c r="J379" s="109"/>
     </row>
     <row r="380" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B380" s="98"/>
-      <c r="C380" s="103"/>
-      <c r="D380" s="104"/>
-      <c r="E380" s="104"/>
-      <c r="F380" s="104"/>
-      <c r="G380" s="104"/>
-      <c r="H380" s="105"/>
-      <c r="I380" s="110"/>
-      <c r="J380" s="110"/>
+      <c r="B380" s="97"/>
+      <c r="C380" s="102"/>
+      <c r="D380" s="103"/>
+      <c r="E380" s="103"/>
+      <c r="F380" s="103"/>
+      <c r="G380" s="103"/>
+      <c r="H380" s="104"/>
+      <c r="I380" s="109"/>
+      <c r="J380" s="109"/>
     </row>
     <row r="381" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B381" s="98"/>
-      <c r="C381" s="103"/>
-      <c r="D381" s="104"/>
-      <c r="E381" s="104"/>
-      <c r="F381" s="104"/>
-      <c r="G381" s="104"/>
-      <c r="H381" s="105"/>
-      <c r="I381" s="110"/>
-      <c r="J381" s="110"/>
+      <c r="B381" s="97"/>
+      <c r="C381" s="102"/>
+      <c r="D381" s="103"/>
+      <c r="E381" s="103"/>
+      <c r="F381" s="103"/>
+      <c r="G381" s="103"/>
+      <c r="H381" s="104"/>
+      <c r="I381" s="109"/>
+      <c r="J381" s="109"/>
     </row>
     <row r="382" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B382" s="99"/>
-      <c r="C382" s="106"/>
-      <c r="D382" s="107"/>
-      <c r="E382" s="107"/>
-      <c r="F382" s="107"/>
-      <c r="G382" s="107"/>
-      <c r="H382" s="108"/>
-      <c r="I382" s="111"/>
-      <c r="J382" s="111"/>
+      <c r="B382" s="98"/>
+      <c r="C382" s="105"/>
+      <c r="D382" s="106"/>
+      <c r="E382" s="106"/>
+      <c r="F382" s="106"/>
+      <c r="G382" s="106"/>
+      <c r="H382" s="107"/>
+      <c r="I382" s="110"/>
+      <c r="J382" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="261">
@@ -10449,13 +10440,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3" s="6"/>
@@ -10481,7 +10472,7 @@
       <c r="B5" s="67">
         <v>1</v>
       </c>
-      <c r="C5" s="126">
+      <c r="C5" s="125">
         <v>1</v>
       </c>
       <c r="D5" s="63" t="s">
@@ -10498,7 +10489,7 @@
       <c r="B6" s="67">
         <v>2</v>
       </c>
-      <c r="C6" s="126"/>
+      <c r="C6" s="125"/>
       <c r="D6" s="63" t="s">
         <v>165</v>
       </c>
@@ -10513,7 +10504,7 @@
       <c r="B7" s="67">
         <v>3</v>
       </c>
-      <c r="C7" s="126"/>
+      <c r="C7" s="125"/>
       <c r="D7" s="63" t="s">
         <v>178</v>
       </c>
@@ -10528,7 +10519,7 @@
       <c r="B8" s="67">
         <v>4</v>
       </c>
-      <c r="C8" s="126"/>
+      <c r="C8" s="125"/>
       <c r="D8" s="63" t="s">
         <v>176</v>
       </c>
@@ -10543,7 +10534,7 @@
       <c r="B9" s="67">
         <v>5</v>
       </c>
-      <c r="C9" s="126"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="63" t="s">
         <v>177</v>
       </c>
@@ -10558,7 +10549,7 @@
       <c r="B10" s="67">
         <v>6</v>
       </c>
-      <c r="C10" s="126"/>
+      <c r="C10" s="125"/>
       <c r="D10" s="63" t="s">
         <v>174</v>
       </c>
@@ -10573,7 +10564,7 @@
       <c r="B11" s="67">
         <v>7</v>
       </c>
-      <c r="C11" s="126"/>
+      <c r="C11" s="125"/>
       <c r="D11" s="63" t="s">
         <v>173</v>
       </c>
@@ -10588,7 +10579,7 @@
       <c r="B12" s="67">
         <v>8</v>
       </c>
-      <c r="C12" s="126">
+      <c r="C12" s="125">
         <v>2</v>
       </c>
       <c r="D12" s="63" t="s">
@@ -10605,7 +10596,7 @@
       <c r="B13" s="67">
         <v>9</v>
       </c>
-      <c r="C13" s="126"/>
+      <c r="C13" s="125"/>
       <c r="D13" s="63" t="s">
         <v>166</v>
       </c>
@@ -10620,7 +10611,7 @@
       <c r="B14" s="67">
         <v>10</v>
       </c>
-      <c r="C14" s="126"/>
+      <c r="C14" s="125"/>
       <c r="D14" s="63" t="s">
         <v>159</v>
       </c>
@@ -10635,7 +10626,7 @@
       <c r="B15" s="67">
         <v>11</v>
       </c>
-      <c r="C15" s="126">
+      <c r="C15" s="125">
         <v>3</v>
       </c>
       <c r="D15" s="63" t="s">
@@ -10652,7 +10643,7 @@
       <c r="B16" s="67">
         <v>12</v>
       </c>
-      <c r="C16" s="126"/>
+      <c r="C16" s="125"/>
       <c r="D16" s="63" t="s">
         <v>167</v>
       </c>
@@ -10667,7 +10658,7 @@
       <c r="B17" s="67">
         <v>13</v>
       </c>
-      <c r="C17" s="126"/>
+      <c r="C17" s="125"/>
       <c r="D17" s="63" t="s">
         <v>168</v>
       </c>
@@ -10682,7 +10673,7 @@
       <c r="B18" s="67">
         <v>14</v>
       </c>
-      <c r="C18" s="126"/>
+      <c r="C18" s="125"/>
       <c r="D18" s="63" t="s">
         <v>171</v>
       </c>
@@ -10697,7 +10688,7 @@
       <c r="B19" s="67">
         <v>15</v>
       </c>
-      <c r="C19" s="126"/>
+      <c r="C19" s="125"/>
       <c r="D19" s="63" t="s">
         <v>169</v>
       </c>
@@ -10712,7 +10703,7 @@
       <c r="B20" s="67">
         <v>16</v>
       </c>
-      <c r="C20" s="126">
+      <c r="C20" s="125">
         <v>4</v>
       </c>
       <c r="D20" s="63" t="s">
@@ -10729,7 +10720,7 @@
       <c r="B21" s="67">
         <v>17</v>
       </c>
-      <c r="C21" s="126"/>
+      <c r="C21" s="125"/>
       <c r="D21" s="63" t="s">
         <v>175</v>
       </c>
@@ -10745,7 +10736,7 @@
       <c r="B22" s="67">
         <v>18</v>
       </c>
-      <c r="C22" s="126"/>
+      <c r="C22" s="125"/>
       <c r="D22" s="63" t="s">
         <v>162</v>
       </c>
@@ -10762,7 +10753,7 @@
       <c r="B23" s="67">
         <v>19</v>
       </c>
-      <c r="C23" s="126"/>
+      <c r="C23" s="125"/>
       <c r="D23" s="63" t="s">
         <v>160</v>
       </c>
@@ -10777,7 +10768,7 @@
       <c r="B24" s="67">
         <v>20</v>
       </c>
-      <c r="C24" s="126"/>
+      <c r="C24" s="125"/>
       <c r="D24" s="63" t="s">
         <v>172</v>
       </c>
@@ -10849,19 +10840,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="136"/>
+      <c r="C4" s="135"/>
       <c r="D4" s="10" t="s">
         <v>73</v>
       </c>
@@ -10873,9 +10864,9 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="137"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="132" t="s">
+      <c r="B5" s="136"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="131" t="s">
         <v>75</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -10884,18 +10875,18 @@
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="137"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="133"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="132"/>
       <c r="E6" s="13" t="s">
         <v>77</v>
       </c>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="139"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="134"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="133"/>
       <c r="E7" s="15" t="s">
         <v>78</v>
       </c>
@@ -10919,7 +10910,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="126" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="33">
@@ -10936,7 +10927,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="127"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="33">
         <v>2</v>
       </c>
@@ -10951,7 +10942,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="127"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="33">
         <v>3</v>
       </c>
@@ -10970,7 +10961,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
-      <c r="B13" s="127"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="33">
         <v>4</v>
       </c>
@@ -10989,7 +10980,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
-      <c r="B14" s="127"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="33">
         <v>5</v>
       </c>
@@ -11005,7 +10996,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
-      <c r="B15" s="127"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="33">
         <v>6</v>
       </c>
@@ -11018,15 +11009,15 @@
       <c r="F15" s="75">
         <v>45933</v>
       </c>
-      <c r="H15" s="131" t="s">
+      <c r="H15" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="131"/>
-      <c r="J15" s="131"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
-      <c r="B16" s="127"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="33">
         <v>7</v>
       </c>
@@ -11045,7 +11036,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="127" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="33">
@@ -11063,7 +11054,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
-      <c r="B18" s="129"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="33">
         <v>9</v>
       </c>
@@ -11079,7 +11070,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
-      <c r="B19" s="130"/>
+      <c r="B19" s="129"/>
       <c r="C19" s="33">
         <v>10</v>
       </c>
@@ -11094,7 +11085,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="128" t="s">
+      <c r="B20" s="127" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="33">
@@ -11111,7 +11102,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="129"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="33">
         <v>12</v>
       </c>
@@ -11126,7 +11117,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="129"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="33">
         <v>13</v>
       </c>
@@ -11141,7 +11132,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="129"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="33">
         <v>14</v>
       </c>
@@ -11156,7 +11147,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="130"/>
+      <c r="B24" s="129"/>
       <c r="C24" s="33">
         <v>15</v>
       </c>
@@ -11233,8 +11224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:G24"/>
+    <sheetView tabSelected="1" topLeftCell="J4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11256,15 +11247,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="E2" s="144" t="s">
+      <c r="E2" s="143" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -11312,22 +11303,22 @@
       </c>
     </row>
     <row r="5" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="140" t="s">
         <v>218</v>
       </c>
       <c r="D5" s="60">
         <v>1</v>
       </c>
-      <c r="E5" s="143" t="s">
+      <c r="E5" s="142" t="s">
         <v>107</v>
       </c>
       <c r="F5" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="82" t="s">
         <v>164</v>
       </c>
       <c r="H5" s="50" t="s">
@@ -11356,16 +11347,16 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="142"/>
-      <c r="C6" s="141"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="140"/>
       <c r="D6" s="60">
         <v>2</v>
       </c>
-      <c r="E6" s="143"/>
+      <c r="E6" s="142"/>
       <c r="F6" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="G6" s="84" t="s">
         <v>165</v>
       </c>
       <c r="H6" s="50" t="s">
@@ -11394,16 +11385,16 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="142"/>
-      <c r="C7" s="141"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="60">
         <v>3</v>
       </c>
-      <c r="E7" s="143"/>
+      <c r="E7" s="142"/>
       <c r="F7" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="82" t="s">
         <v>178</v>
       </c>
       <c r="H7" s="72" t="s">
@@ -11432,16 +11423,16 @@
       </c>
     </row>
     <row r="8" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="142"/>
-      <c r="C8" s="141"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="60">
         <v>4</v>
       </c>
-      <c r="E8" s="143"/>
+      <c r="E8" s="142"/>
       <c r="F8" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="82" t="s">
         <v>176</v>
       </c>
       <c r="H8" s="50" t="s">
@@ -11470,16 +11461,16 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="142"/>
-      <c r="C9" s="141"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="140"/>
       <c r="D9" s="60">
         <v>5</v>
       </c>
-      <c r="E9" s="143"/>
+      <c r="E9" s="142"/>
       <c r="F9" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="83" t="s">
+      <c r="G9" s="82" t="s">
         <v>177</v>
       </c>
       <c r="H9" s="50" t="s">
@@ -11508,16 +11499,16 @@
       </c>
     </row>
     <row r="10" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="142"/>
-      <c r="C10" s="141"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="140"/>
       <c r="D10" s="60">
         <v>6</v>
       </c>
-      <c r="E10" s="143"/>
+      <c r="E10" s="142"/>
       <c r="F10" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="82" t="s">
         <v>174</v>
       </c>
       <c r="H10" s="50" t="s">
@@ -11546,16 +11537,16 @@
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="142"/>
-      <c r="C11" s="141"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="140"/>
       <c r="D11" s="60">
         <v>7</v>
       </c>
-      <c r="E11" s="143"/>
+      <c r="E11" s="142"/>
       <c r="F11" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="83" t="s">
+      <c r="G11" s="82" t="s">
         <v>173</v>
       </c>
       <c r="H11" s="50" t="s">
@@ -11584,22 +11575,22 @@
       </c>
     </row>
     <row r="12" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="140" t="s">
         <v>219</v>
       </c>
       <c r="D12" s="60">
         <v>8</v>
       </c>
-      <c r="E12" s="143" t="s">
+      <c r="E12" s="142" t="s">
         <v>222</v>
       </c>
       <c r="F12" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="G12" s="83" t="s">
+      <c r="G12" s="82" t="s">
         <v>170</v>
       </c>
       <c r="H12" s="50" t="s">
@@ -11628,16 +11619,16 @@
       </c>
     </row>
     <row r="13" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="142"/>
-      <c r="C13" s="141"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="140"/>
       <c r="D13" s="60">
         <v>9</v>
       </c>
-      <c r="E13" s="143"/>
+      <c r="E13" s="142"/>
       <c r="F13" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="G13" s="83" t="s">
+      <c r="G13" s="82" t="s">
         <v>166</v>
       </c>
       <c r="H13" s="50" t="s">
@@ -11666,16 +11657,16 @@
       </c>
     </row>
     <row r="14" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="142"/>
-      <c r="C14" s="141"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="140"/>
       <c r="D14" s="60">
         <v>10</v>
       </c>
-      <c r="E14" s="143"/>
+      <c r="E14" s="142"/>
       <c r="F14" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="G14" s="83" t="s">
+      <c r="G14" s="82" t="s">
         <v>342</v>
       </c>
       <c r="H14" s="50" t="s">
@@ -11700,20 +11691,20 @@
         <v>114</v>
       </c>
       <c r="O14" s="61" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="142" t="s">
+      <c r="B15" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="140" t="s">
         <v>220</v>
       </c>
       <c r="D15" s="60">
         <v>11</v>
       </c>
-      <c r="E15" s="143" t="s">
+      <c r="E15" s="142" t="s">
         <v>223</v>
       </c>
       <c r="F15" s="56" t="s">
@@ -11744,16 +11735,16 @@
         <v>114</v>
       </c>
       <c r="O15" s="61" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="142"/>
-      <c r="C16" s="141"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="60">
         <v>12</v>
       </c>
-      <c r="E16" s="143"/>
+      <c r="E16" s="142"/>
       <c r="F16" s="56" t="s">
         <v>123</v>
       </c>
@@ -11786,12 +11777,12 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="142"/>
-      <c r="C17" s="141"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="140"/>
       <c r="D17" s="60">
         <v>13</v>
       </c>
-      <c r="E17" s="143"/>
+      <c r="E17" s="142"/>
       <c r="F17" s="56" t="s">
         <v>124</v>
       </c>
@@ -11820,20 +11811,20 @@
         <v>114</v>
       </c>
       <c r="O17" s="61" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="142"/>
-      <c r="C18" s="141"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="140"/>
       <c r="D18" s="60">
         <v>14</v>
       </c>
-      <c r="E18" s="143"/>
+      <c r="E18" s="142"/>
       <c r="F18" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="G18" s="82" t="s">
+      <c r="G18" s="81" t="s">
         <v>159</v>
       </c>
       <c r="H18" s="50" t="s">
@@ -11862,12 +11853,12 @@
       </c>
     </row>
     <row r="19" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="142"/>
-      <c r="C19" s="141"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="140"/>
       <c r="D19" s="60">
         <v>15</v>
       </c>
-      <c r="E19" s="143"/>
+      <c r="E19" s="142"/>
       <c r="F19" s="56" t="s">
         <v>126</v>
       </c>
@@ -11900,16 +11891,16 @@
       </c>
     </row>
     <row r="20" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="142" t="s">
+      <c r="B20" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="141" t="s">
+      <c r="C20" s="140" t="s">
         <v>221</v>
       </c>
       <c r="D20" s="60">
         <v>16</v>
       </c>
-      <c r="E20" s="143" t="s">
+      <c r="E20" s="142" t="s">
         <v>224</v>
       </c>
       <c r="F20" s="56" t="s">
@@ -11944,12 +11935,12 @@
       </c>
     </row>
     <row r="21" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="142"/>
-      <c r="C21" s="141"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="140"/>
       <c r="D21" s="60">
         <v>17</v>
       </c>
-      <c r="E21" s="143"/>
+      <c r="E21" s="142"/>
       <c r="F21" s="56" t="s">
         <v>128</v>
       </c>
@@ -11982,12 +11973,12 @@
       </c>
     </row>
     <row r="22" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="142"/>
-      <c r="C22" s="141"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="140"/>
       <c r="D22" s="60">
         <v>18</v>
       </c>
-      <c r="E22" s="143"/>
+      <c r="E22" s="142"/>
       <c r="F22" s="56" t="s">
         <v>129</v>
       </c>
@@ -12020,12 +12011,12 @@
       </c>
     </row>
     <row r="23" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="142"/>
-      <c r="C23" s="141"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="140"/>
       <c r="D23" s="60">
         <v>19</v>
       </c>
-      <c r="E23" s="143"/>
+      <c r="E23" s="142"/>
       <c r="F23" s="56" t="s">
         <v>130</v>
       </c>
@@ -12058,12 +12049,12 @@
       </c>
     </row>
     <row r="24" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="142"/>
-      <c r="C24" s="141"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="140"/>
       <c r="D24" s="60">
         <v>20</v>
       </c>
-      <c r="E24" s="143"/>
+      <c r="E24" s="142"/>
       <c r="F24" s="56" t="s">
         <v>131</v>
       </c>
@@ -12161,12 +12152,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
     </row>
     <row r="4" spans="3:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="70" t="s">
@@ -12195,7 +12186,7 @@
       <c r="F5" s="66" t="s">
         <v>314</v>
       </c>
-      <c r="G5" s="146" t="s">
+      <c r="G5" s="145" t="s">
         <v>88</v>
       </c>
     </row>
@@ -12212,7 +12203,7 @@
       <c r="F6" s="66" t="s">
         <v>315</v>
       </c>
-      <c r="G6" s="146"/>
+      <c r="G6" s="145"/>
     </row>
     <row r="7" spans="3:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="50">
@@ -12227,7 +12218,7 @@
       <c r="F7" s="66" t="s">
         <v>316</v>
       </c>
-      <c r="G7" s="146"/>
+      <c r="G7" s="145"/>
     </row>
     <row r="8" spans="3:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="50">
@@ -12242,7 +12233,7 @@
       <c r="F8" s="66" t="s">
         <v>317</v>
       </c>
-      <c r="G8" s="146"/>
+      <c r="G8" s="145"/>
     </row>
     <row r="9" spans="3:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="50">
@@ -12257,7 +12248,7 @@
       <c r="F9" s="66" t="s">
         <v>318</v>
       </c>
-      <c r="G9" s="146"/>
+      <c r="G9" s="145"/>
     </row>
     <row r="10" spans="3:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="50">
@@ -12272,7 +12263,7 @@
       <c r="F10" s="66" t="s">
         <v>319</v>
       </c>
-      <c r="G10" s="146"/>
+      <c r="G10" s="145"/>
       <c r="K10" s="51" t="s">
         <v>92</v>
       </c>
@@ -12290,7 +12281,7 @@
       <c r="F11" s="66" t="s">
         <v>320</v>
       </c>
-      <c r="G11" s="146"/>
+      <c r="G11" s="145"/>
     </row>
     <row r="12" spans="3:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="50">
@@ -12305,7 +12296,7 @@
       <c r="F12" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="G12" s="147" t="s">
+      <c r="G12" s="146" t="s">
         <v>89</v>
       </c>
     </row>
@@ -12322,7 +12313,7 @@
       <c r="F13" s="66" t="s">
         <v>322</v>
       </c>
-      <c r="G13" s="148"/>
+      <c r="G13" s="147"/>
     </row>
     <row r="14" spans="3:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="50">
@@ -12337,7 +12328,7 @@
       <c r="F14" s="66" t="s">
         <v>323</v>
       </c>
-      <c r="G14" s="149"/>
+      <c r="G14" s="148"/>
     </row>
     <row r="15" spans="3:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="50">
@@ -12352,7 +12343,7 @@
       <c r="F15" s="66" t="s">
         <v>324</v>
       </c>
-      <c r="G15" s="147" t="s">
+      <c r="G15" s="146" t="s">
         <v>90</v>
       </c>
     </row>
@@ -12369,7 +12360,7 @@
       <c r="F16" s="66" t="s">
         <v>325</v>
       </c>
-      <c r="G16" s="148"/>
+      <c r="G16" s="147"/>
     </row>
     <row r="17" spans="3:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="50">
@@ -12384,7 +12375,7 @@
       <c r="F17" s="66" t="s">
         <v>326</v>
       </c>
-      <c r="G17" s="148"/>
+      <c r="G17" s="147"/>
     </row>
     <row r="18" spans="3:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="50">
@@ -12399,7 +12390,7 @@
       <c r="F18" s="66" t="s">
         <v>327</v>
       </c>
-      <c r="G18" s="148"/>
+      <c r="G18" s="147"/>
     </row>
     <row r="19" spans="3:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="50">
@@ -12414,7 +12405,7 @@
       <c r="F19" s="66" t="s">
         <v>328</v>
       </c>
-      <c r="G19" s="149"/>
+      <c r="G19" s="148"/>
     </row>
     <row r="20" spans="3:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="50">
@@ -12429,7 +12420,7 @@
       <c r="F20" s="66" t="s">
         <v>329</v>
       </c>
-      <c r="G20" s="147" t="s">
+      <c r="G20" s="146" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12446,7 +12437,7 @@
       <c r="F21" s="66" t="s">
         <v>330</v>
       </c>
-      <c r="G21" s="148"/>
+      <c r="G21" s="147"/>
     </row>
     <row r="22" spans="3:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="50">
@@ -12461,7 +12452,7 @@
       <c r="F22" s="66" t="s">
         <v>331</v>
       </c>
-      <c r="G22" s="148"/>
+      <c r="G22" s="147"/>
     </row>
     <row r="23" spans="3:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="50">
@@ -12476,7 +12467,7 @@
       <c r="F23" s="66" t="s">
         <v>332</v>
       </c>
-      <c r="G23" s="148"/>
+      <c r="G23" s="147"/>
     </row>
     <row r="24" spans="3:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="50">
@@ -12491,7 +12482,7 @@
       <c r="F24" s="75" t="s">
         <v>337</v>
       </c>
-      <c r="G24" s="149"/>
+      <c r="G24" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -12542,12 +12533,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12579,7 +12570,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>165</v>
       </c>
       <c r="C6" s="63" t="s">
@@ -12635,16 +12626,16 @@
         <v>174</v>
       </c>
       <c r="C10" s="53"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="63" t="s">
         <v>173</v>
       </c>
       <c r="C11" s="53"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12677,6 +12668,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004E4FDBCC2C2A9E4991D3E6D92080BF1D" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5277ad7b935b791a40cde8710d3e961a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2160a2c5-c60e-4388-9d8c-8cfce6077867" xmlns:ns3="35ebf031-a504-45cd-aa0d-0f096058efc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2da8f289e1e197f6627d43c1415a75e" ns2:_="" ns3:_="">
     <xsd:import namespace="2160a2c5-c60e-4388-9d8c-8cfce6077867"/>
@@ -12899,22 +12905,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4721F79-AA01-4F7B-83EA-F8A67DE3FBCE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2160a2c5-c60e-4388-9d8c-8cfce6077867"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="35ebf031-a504-45cd-aa0d-0f096058efc2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C9B9DF-56F1-4773-A334-ED68CEA909C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A0D09E5-E40D-484E-8F82-6B602EF3A1F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12931,29 +12947,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4721F79-AA01-4F7B-83EA-F8A67DE3FBCE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2160a2c5-c60e-4388-9d8c-8cfce6077867"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="35ebf031-a504-45cd-aa0d-0f096058efc2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C9B9DF-56F1-4773-A334-ED68CEA909C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>